--- a/analysis_specifications/analysis1.xlsx
+++ b/analysis_specifications/analysis1.xlsx
@@ -352,7 +352,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -370,6 +370,16 @@
         </is>
       </c>
     </row>
+    <row r="2">
+      <c r="A2">
+        <v>1071</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>persons at risk at start of year 2012-2022 with 365d prior observation</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -377,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C310"/>
+  <dimension ref="A1:C424"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -402,206 +412,206 @@
     </row>
     <row r="2">
       <c r="A2">
-        <v>19</v>
+        <v>3</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Acute Typical Pneumonia</t>
+          <t>Cough or Sputum</t>
         </is>
       </c>
       <c r="C2">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="3">
       <c r="A3">
-        <v>20</v>
+        <v>4</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Bronchitis or Bronchiolitis</t>
+          <t>Diarrhea</t>
         </is>
       </c>
       <c r="C3">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4">
       <c r="A4">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>All cause mortality</t>
+          <t>Dyspnea</t>
         </is>
       </c>
       <c r="C4">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5">
       <c r="A5">
-        <v>32</v>
+        <v>6</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Fever</t>
         </is>
       </c>
       <c r="C5">
-        <v>365</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6">
       <c r="A6">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Composite Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia</t>
+          <t>Headache or Headache disorder</t>
         </is>
       </c>
       <c r="C6">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7">
       <c r="A7">
-        <v>71</v>
+        <v>8</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction with inpatient admission</t>
+          <t>Altered smell or taste including Anosmia, Hyposmia or Dysgeusia</t>
         </is>
       </c>
       <c r="C7">
-        <v>180</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8">
       <c r="A8">
-        <v>119</v>
+        <v>9</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
+          <t>Sore throat</t>
         </is>
       </c>
       <c r="C8">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9">
       <c r="A9">
-        <v>134</v>
+        <v>10</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>Attention Deficit Hyperactivity Disorder indexed on diagnosis or treatment</t>
+          <t>Nausea or Vomiting</t>
         </is>
       </c>
       <c r="C9">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10">
       <c r="A10">
-        <v>207</v>
+        <v>11</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>Acquired Pure Red Cell Aplasia</t>
+          <t>Malaise and or fatigue</t>
         </is>
       </c>
       <c r="C10">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="11">
       <c r="A11">
-        <v>208</v>
+        <v>12</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Febrile Neutropenia or Neutropenic Fever</t>
+          <t>Rhinitis or common cold or Sinusitis</t>
         </is>
       </c>
       <c r="C11">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="12">
       <c r="A12">
-        <v>211</v>
+        <v>13</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Pancytopenia, Acquired</t>
+          <t>Myalgia (not explained by injury, ischemia or systemic inflammation)</t>
         </is>
       </c>
       <c r="C12">
-        <v>365</v>
+        <v>14</v>
       </c>
     </row>
     <row r="13">
       <c r="A13">
-        <v>213</v>
+        <v>14</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Neutropenia or unspecified leukopenia</t>
+          <t>Myalgia</t>
         </is>
       </c>
       <c r="C13">
-        <v>365</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14">
       <c r="A14">
-        <v>217</v>
+        <v>19</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Acute Typical Pneumonia</t>
         </is>
       </c>
       <c r="C14">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15">
       <c r="A15">
-        <v>219</v>
+        <v>20</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Sudden Cardiac arrest or cardiac death</t>
+          <t>Bronchitis or Bronchiolitis</t>
         </is>
       </c>
       <c r="C15">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="16">
       <c r="A16">
-        <v>222</v>
+        <v>24</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
+          <t>Emergency room visits (0Pe, 0Era)</t>
         </is>
       </c>
       <c r="C16">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17">
       <c r="A17">
-        <v>229</v>
+        <v>25</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Progressive multifocal leukoencephalopathy</t>
+          <t>All cause mortality</t>
         </is>
       </c>
       <c r="C17">
@@ -610,37 +620,37 @@
     </row>
     <row r="18">
       <c r="A18">
-        <v>232</v>
+        <v>32</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Paresthesia</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="C18">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>234</v>
+        <v>54</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Appendicitis (1Pe, 180Era)</t>
+          <t>Febrile seizure</t>
         </is>
       </c>
       <c r="C19">
-        <v>180</v>
+        <v>14</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>239</v>
+        <v>63</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Narcolepsy events</t>
+          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (1Ps, 0Era, 365W)</t>
         </is>
       </c>
       <c r="C20">
@@ -649,50 +659,50 @@
     </row>
     <row r="21">
       <c r="A21">
-        <v>243</v>
+        <v>64</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Tinnitus</t>
+          <t>Composite Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia</t>
         </is>
       </c>
       <c r="C21">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>244</v>
+        <v>71</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Dizziness or giddiness including motion sickness and vertigo</t>
+          <t>Acute myocardial infarction with inpatient admission</t>
         </is>
       </c>
       <c r="C22">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>256</v>
+        <v>95</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Facial Palsy lower motor neuron including Bells Palsy</t>
+          <t>Delirium</t>
         </is>
       </c>
       <c r="C23">
-        <v>180</v>
+        <v>14</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>275</v>
+        <v>119</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
+          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
         </is>
       </c>
       <c r="C24">
@@ -701,76 +711,76 @@
     </row>
     <row r="25">
       <c r="A25">
-        <v>296</v>
+        <v>134</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (180Pe, 180Era)</t>
+          <t>Attention Deficit Hyperactivity Disorder indexed on diagnosis or treatment</t>
         </is>
       </c>
       <c r="C25">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>299</v>
+        <v>191</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Acute gastrointestinal bleeding or perforation events</t>
+          <t>Fatigue, Asthenia, Malaise, Lethargy, Anorexia</t>
         </is>
       </c>
       <c r="C26">
-        <v>30</v>
+        <v>14</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>304</v>
+        <v>192</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Neurofibromatosis type 1 (FP)</t>
+          <t>Skin, Nasal or oral mucosal bleeding events often seen during thrombocytopenia</t>
         </is>
       </c>
       <c r="C27">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>305</v>
+        <v>193</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Neurofibromatosis type 1 without Type 2 (FP)</t>
+          <t>Jaundice or Itching</t>
         </is>
       </c>
       <c r="C28">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>306</v>
+        <v>194</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Optical pathway glioma and neurofibromatosis (FP)</t>
+          <t>Encephalopathy or its presentations</t>
         </is>
       </c>
       <c r="C29">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>307</v>
+        <v>207</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Optical pathway glioma or non malignant neoplasm of optic nerve w neurofibromatosis</t>
+          <t>Acquired Pure Red Cell Aplasia</t>
         </is>
       </c>
       <c r="C30">
@@ -779,128 +789,128 @@
     </row>
     <row r="31">
       <c r="A31">
-        <v>308</v>
+        <v>208</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Optical pathway glioma with MRI imaging and ophthalmology visits Neurofibromatosis</t>
+          <t>Febrile Neutropenia or Neutropenic Fever</t>
         </is>
       </c>
       <c r="C31">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>349</v>
+        <v>211</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Lower gastrointestinal bleeding events</t>
+          <t>Pancytopenia, Acquired</t>
         </is>
       </c>
       <c r="C32">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>358</v>
+        <v>213</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure among persons with no chronic respiratory failure</t>
+          <t>Neutropenia or unspecified leukopenia</t>
         </is>
       </c>
       <c r="C33">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>359</v>
+        <v>215</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure</t>
+          <t>Isolated Immune Thrombocytopenia</t>
         </is>
       </c>
       <c r="C34">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>360</v>
+        <v>216</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Pleural Effusion</t>
+          <t>Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes</t>
         </is>
       </c>
       <c r="C35">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>370</v>
+        <v>217</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Allergic disorder</t>
+          <t>Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
         </is>
       </c>
       <c r="C36">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>392</v>
+        <v>218</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Otalgia or Otitis</t>
+          <t>Rhabdomyolysis</t>
         </is>
       </c>
       <c r="C37">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>398</v>
+        <v>219</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Bladder Outflow Obstruction</t>
+          <t>Sudden Cardiac arrest or cardiac death</t>
         </is>
       </c>
       <c r="C38">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="39">
       <c r="A39">
-        <v>402</v>
+        <v>222</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Ventilatory assist for respiratory findings with Acute Respiratory Failure</t>
+          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
         </is>
       </c>
       <c r="C39">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>403</v>
+        <v>229</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure in inpatient or Emergency room</t>
+          <t>Progressive multifocal leukoencephalopathy</t>
         </is>
       </c>
       <c r="C40">
@@ -909,297 +919,297 @@
     </row>
     <row r="41">
       <c r="A41">
-        <v>410</v>
+        <v>232</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Acute Urinary tract infections UTI</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="C41">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>417</v>
+        <v>234</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Acute gastrointestinal bleeding events</t>
+          <t>Appendicitis (1Pe, 180Era)</t>
         </is>
       </c>
       <c r="C42">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>722</v>
+        <v>239</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Endometriosis</t>
+          <t>Narcolepsy events</t>
         </is>
       </c>
       <c r="C43">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>723</v>
+        <v>243</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
+          <t>Tinnitus</t>
         </is>
       </c>
       <c r="C44">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>724</v>
+        <v>244</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>Dizziness or giddiness including motion sickness and vertigo</t>
         </is>
       </c>
       <c r="C45">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>728</v>
+        <v>256</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Autoimmune hemolytic anemia</t>
+          <t>Facial Palsy lower motor neuron including Bells Palsy</t>
         </is>
       </c>
       <c r="C46">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>733</v>
+        <v>257</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Emergency room visits or code</t>
         </is>
       </c>
       <c r="C47">
-        <v>365</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>734</v>
+        <v>267</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Acute Kidney Injury AKI, in persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C48">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>735</v>
+        <v>275</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury</t>
+          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
         </is>
       </c>
       <c r="C49">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>736</v>
+        <v>276</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>Sudden Vision Loss</t>
         </is>
       </c>
       <c r="C50">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>740</v>
+        <v>277</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension (PAH)</t>
+          <t>Sudden Hearing Loss</t>
         </is>
       </c>
       <c r="C51">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="52">
       <c r="A52">
-        <v>741</v>
+        <v>278</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Pain or ache that is Non Chronic</t>
         </is>
       </c>
       <c r="C52">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>744</v>
+        <v>279</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Pulmonary Hypertension</t>
+          <t>Low Back Pain or injury</t>
         </is>
       </c>
       <c r="C53">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>745</v>
+        <v>280</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Abdominal Pain or acute abdomen</t>
         </is>
       </c>
       <c r="C54">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>746</v>
+        <v>281</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
+          <t>Epigastric Pain</t>
         </is>
       </c>
       <c r="C55">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>747</v>
+        <v>282</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Pulmonary Arterial Hypertension</t>
+          <t>Joint Pain</t>
         </is>
       </c>
       <c r="C56">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>748</v>
+        <v>296</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Psoriatic arthritis</t>
+          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (180Pe, 180Era)</t>
         </is>
       </c>
       <c r="C57">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>749</v>
+        <v>298</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Plaque Psoriasis</t>
+          <t>Urinary bleed events in persons without renal glomerular disease</t>
         </is>
       </c>
       <c r="C58">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>750</v>
+        <v>299</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Acute gastrointestinal bleeding or perforation events</t>
         </is>
       </c>
       <c r="C59">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>751</v>
+        <v>300</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Heavy menstrual bleeding (menorrhagia) events</t>
         </is>
       </c>
       <c r="C60">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>752</v>
+        <v>304</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Firearm Accidents (FA)</t>
+          <t>Neurofibromatosis type 1 (FP)</t>
         </is>
       </c>
       <c r="C61">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>753</v>
+        <v>305</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Motor Vehicle Accidents (MVA)</t>
+          <t>Neurofibromatosis type 1 without Type 2 (FP)</t>
         </is>
       </c>
       <c r="C62">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>754</v>
+        <v>306</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Down Syndrome</t>
+          <t>Optical pathway glioma and neurofibromatosis (FP)</t>
         </is>
       </c>
       <c r="C63">
@@ -1208,11 +1218,11 @@
     </row>
     <row r="64">
       <c r="A64">
-        <v>755</v>
+        <v>307</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Non-infectious uveitis and iridocyclitis</t>
+          <t>Optical pathway glioma or non malignant neoplasm of optic nerve w neurofibromatosis</t>
         </is>
       </c>
       <c r="C64">
@@ -1221,11 +1231,11 @@
     </row>
     <row r="65">
       <c r="A65">
-        <v>756</v>
+        <v>308</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Cystic Fibrosis</t>
+          <t>Optical pathway glioma with MRI imaging and ophthalmology visits Neurofibromatosis</t>
         </is>
       </c>
       <c r="C65">
@@ -1234,76 +1244,76 @@
     </row>
     <row r="66">
       <c r="A66">
-        <v>757</v>
+        <v>324</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C66">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>759</v>
+        <v>325</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
+          <t>Inpatient Hospitalization By Site of care or type of service</t>
         </is>
       </c>
       <c r="C67">
-        <v>9999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>760</v>
+        <v>328</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>Wheezing</t>
         </is>
       </c>
       <c r="C68">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>761</v>
+        <v>331</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
+          <t>Encephalopathy</t>
         </is>
       </c>
       <c r="C69">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>762</v>
+        <v>332</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Endothelin receptor antagonists</t>
+          <t>Pain or ache that is Chronic</t>
         </is>
       </c>
       <c r="C70">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>763</v>
+        <v>333</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
+          <t>Alcohol Use Disorder</t>
         </is>
       </c>
       <c r="C71">
@@ -1312,89 +1322,89 @@
     </row>
     <row r="72">
       <c r="A72">
-        <v>764</v>
+        <v>340</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
+          <t>Hives, Erythema, Eruption, Urticaria</t>
         </is>
       </c>
       <c r="C72">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>765</v>
+        <v>341</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Left Heart Failure</t>
+          <t>Loss of mentation including comma, syncope, altered consciousness</t>
         </is>
       </c>
       <c r="C73">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>766</v>
+        <v>343</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Right Heart Failure</t>
+          <t>Fecal Incontinence</t>
         </is>
       </c>
       <c r="C74">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>767</v>
+        <v>346</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Sarcoidosis</t>
+          <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
         </is>
       </c>
       <c r="C75">
-        <v>9999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>768</v>
+        <v>347</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Sickle Cell Anemia</t>
+          <t>Ambulance utilization</t>
         </is>
       </c>
       <c r="C76">
-        <v>9999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>769</v>
+        <v>349</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Scleroderma</t>
+          <t>Lower gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C77">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>770</v>
+        <v>351</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Essential Hypertension</t>
+          <t>Nasal Polyp present</t>
         </is>
       </c>
       <c r="C78">
@@ -1403,128 +1413,128 @@
     </row>
     <row r="79">
       <c r="A79">
-        <v>771</v>
+        <v>354</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Nasal Congestion or Rhinitis or Common Cold</t>
         </is>
       </c>
       <c r="C79">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>772</v>
+        <v>355</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Laryngitis</t>
         </is>
       </c>
       <c r="C80">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>773</v>
+        <v>356</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Congenital Heart Disease</t>
+          <t>Epistaxis</t>
         </is>
       </c>
       <c r="C81">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>774</v>
+        <v>358</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Portal Hypertension</t>
+          <t>Acute Respiratory Failure among persons with no chronic respiratory failure</t>
         </is>
       </c>
       <c r="C82">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>775</v>
+        <v>359</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C83">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>776</v>
+        <v>360</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Antisynthetase syndrome</t>
+          <t>Pleural Effusion</t>
         </is>
       </c>
       <c r="C84">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>777</v>
+        <v>362</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Mixed connective tissue disease</t>
+          <t>Acute Kidney Injury AKI</t>
         </is>
       </c>
       <c r="C85">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>778</v>
+        <v>365</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Undifferentiated connective tissue disease</t>
+          <t>Dysuria</t>
         </is>
       </c>
       <c r="C86">
-        <v>9999</v>
+        <v>14</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>779</v>
+        <v>370</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Overlap syndrome</t>
+          <t>Allergic disorder</t>
         </is>
       </c>
       <c r="C87">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>780</v>
+        <v>371</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
+          <t>Claudication Pain</t>
         </is>
       </c>
       <c r="C88">
@@ -1533,11 +1543,11 @@
     </row>
     <row r="89">
       <c r="A89">
-        <v>781</v>
+        <v>379</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Antiphospholipid syndrome</t>
+          <t>Ecchymosis</t>
         </is>
       </c>
       <c r="C89">
@@ -1546,76 +1556,76 @@
     </row>
     <row r="90">
       <c r="A90">
-        <v>782</v>
+        <v>381</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
+          <t>Skin Itching</t>
         </is>
       </c>
       <c r="C90">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>786</v>
+        <v>382</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Non-small cell lung cancer (NSCLC)</t>
+          <t>Prurititc Rash</t>
         </is>
       </c>
       <c r="C91">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>787</v>
+        <v>391</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Lung cancer</t>
+          <t>Hearing Loss</t>
         </is>
       </c>
       <c r="C92">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>788</v>
+        <v>392</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Breast cancer</t>
+          <t>Otalgia or Otitis</t>
         </is>
       </c>
       <c r="C93">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>789</v>
+        <v>393</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Glioblastoma multiforme (GBM)</t>
+          <t>Low Back Pain or Injury</t>
         </is>
       </c>
       <c r="C94">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>790</v>
+        <v>398</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Colorectal Cancer</t>
+          <t>Bladder Outflow Obstruction</t>
         </is>
       </c>
       <c r="C95">
@@ -1624,11 +1634,11 @@
     </row>
     <row r="96">
       <c r="A96">
-        <v>791</v>
+        <v>402</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Multiple Myeloma</t>
+          <t>Ventilatory assist for respiratory findings with Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C96">
@@ -1637,11 +1647,11 @@
     </row>
     <row r="97">
       <c r="A97">
-        <v>792</v>
+        <v>403</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
+          <t>Acute Respiratory Failure in inpatient or Emergency room</t>
         </is>
       </c>
       <c r="C97">
@@ -1650,11 +1660,11 @@
     </row>
     <row r="98">
       <c r="A98">
-        <v>793</v>
+        <v>410</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
+          <t>Acute Urinary tract infections UTI</t>
         </is>
       </c>
       <c r="C98">
@@ -1663,63 +1673,63 @@
     </row>
     <row r="99">
       <c r="A99">
-        <v>795</v>
+        <v>412</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Antineoplastic drugs against colorectal cancer</t>
+          <t>Transverse myelitis indexed on diagnosis (1Ps, 0Era, 365W)</t>
         </is>
       </c>
       <c r="C99">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>796</v>
+        <v>414</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Potential curative surgery for colorectal cancer</t>
+          <t>Acute Skin Eruption symptoms</t>
         </is>
       </c>
       <c r="C100">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>797</v>
+        <v>416</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Radiotherapy against colorectal cancer</t>
+          <t>Skin Rash</t>
         </is>
       </c>
       <c r="C101">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>798</v>
+        <v>417</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum</t>
+          <t>Acute gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C102">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>802</v>
+        <v>466</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure</t>
+          <t>Atopic dermatitis</t>
         </is>
       </c>
       <c r="C103">
@@ -1728,11 +1738,11 @@
     </row>
     <row r="104">
       <c r="A104">
-        <v>803</v>
+        <v>470</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Fascial dehiscence and evisceration</t>
+          <t>Chronic lymphoid leukemia, disease</t>
         </is>
       </c>
       <c r="C104">
@@ -1741,11 +1751,11 @@
     </row>
     <row r="105">
       <c r="A105">
-        <v>804</v>
+        <v>521</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Anastomotic leak or dehiscence</t>
+          <t>Asthma</t>
         </is>
       </c>
       <c r="C105">
@@ -1754,24 +1764,24 @@
     </row>
     <row r="106">
       <c r="A106">
-        <v>805</v>
+        <v>533</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Otitis media</t>
         </is>
       </c>
       <c r="C106">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>806</v>
+        <v>591</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Intraabdominal abscess</t>
+          <t>Autism spectrum disorder</t>
         </is>
       </c>
       <c r="C107">
@@ -1780,11 +1790,11 @@
     </row>
     <row r="108">
       <c r="A108">
-        <v>807</v>
+        <v>667</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Perioperative aspiration</t>
+          <t>Guttate psoriasis</t>
         </is>
       </c>
       <c r="C108">
@@ -1793,89 +1803,89 @@
     </row>
     <row r="109">
       <c r="A109">
-        <v>808</v>
+        <v>690</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Postoperative hemorrhage</t>
+          <t>Suicide</t>
         </is>
       </c>
       <c r="C109">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>809</v>
+        <v>691</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Surgical wound infection (narrow)</t>
+          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis</t>
         </is>
       </c>
       <c r="C110">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>810</v>
+        <v>692</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (wide)</t>
+          <t>Transverse myelitis indexed on diagnosis</t>
         </is>
       </c>
       <c r="C111">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>811</v>
+        <v>693</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Local recurrence after colorectal cancer</t>
+          <t>Acquired Neutropenia or unspecified leukopenia</t>
         </is>
       </c>
       <c r="C112">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>812</v>
+        <v>694</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Appendicitis during Inpatient visit</t>
         </is>
       </c>
       <c r="C113">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>813</v>
+        <v>707</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
+          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
         </is>
       </c>
       <c r="C114">
-        <v>9999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>814</v>
+        <v>713</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Alcoholic hepatitis or alcohol liver disorder</t>
         </is>
       </c>
       <c r="C115">
@@ -1884,24 +1894,24 @@
     </row>
     <row r="116">
       <c r="A116">
-        <v>817</v>
+        <v>720</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Aplastic Anemia</t>
         </is>
       </c>
       <c r="C116">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>818</v>
+        <v>722</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Endometriosis</t>
         </is>
       </c>
       <c r="C117">
@@ -1910,11 +1920,11 @@
     </row>
     <row r="118">
       <c r="A118">
-        <v>819</v>
+        <v>723</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
+          <t>Earliest event of Acute Hepatic Failure</t>
         </is>
       </c>
       <c r="C118">
@@ -1923,11 +1933,11 @@
     </row>
     <row r="119">
       <c r="A119">
-        <v>820</v>
+        <v>724</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
+          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C119">
@@ -1936,128 +1946,128 @@
     </row>
     <row r="120">
       <c r="A120">
-        <v>821</v>
+        <v>725</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>All events of Acute Kidney Injury (AKI)</t>
         </is>
       </c>
       <c r="C120">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>822</v>
+        <v>726</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>All events of Anaphylaxis, Mini-Sentinel</t>
         </is>
       </c>
       <c r="C121">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>823</v>
+        <v>727</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
+          <t>Angioedema</t>
         </is>
       </c>
       <c r="C122">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>824</v>
+        <v>728</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
+          <t>Autoimmune hemolytic anemia</t>
         </is>
       </c>
       <c r="C123">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>825</v>
+        <v>729</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon</t>
+          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
         </is>
       </c>
       <c r="C124">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>826</v>
+        <v>730</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
+          <t>All events Acute pancreatitis, indexed on visit with NO chronic or hereditary pancreatitis</t>
         </is>
       </c>
       <c r="C125">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>827</v>
+        <v>731</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon surgical treatment</t>
+          <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
         </is>
       </c>
       <c r="C126">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>828</v>
+        <v>732</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
+          <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
         </is>
       </c>
       <c r="C127">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>829</v>
+        <v>733</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
         </is>
       </c>
       <c r="C128">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>830</v>
+        <v>734</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
+          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
         </is>
       </c>
       <c r="C129">
@@ -2066,76 +2076,76 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>831</v>
+        <v>735</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>All events of Acute Liver Injury</t>
         </is>
       </c>
       <c r="C130">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>832</v>
+        <v>736</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C131">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>833</v>
+        <v>737</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
+          <t>Neutropenic Fever, Inpatient or ER, indexed on fever or Infection, 90 days era</t>
         </is>
       </c>
       <c r="C132">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>834</v>
+        <v>738</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
+          <t>Autoimmune hemolytic anemia</t>
         </is>
       </c>
       <c r="C133">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>835</v>
+        <v>739</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
         </is>
       </c>
       <c r="C134">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="135">
       <c r="A135">
-        <v>836</v>
+        <v>740</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Pulmonary arterial hypertension (PAH)</t>
         </is>
       </c>
       <c r="C135">
@@ -2144,11 +2154,11 @@
     </row>
     <row r="136">
       <c r="A136">
-        <v>837</v>
+        <v>741</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum</t>
+          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
         </is>
       </c>
       <c r="C136">
@@ -2157,37 +2167,37 @@
     </row>
     <row r="137">
       <c r="A137">
-        <v>838</v>
+        <v>742</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
+          <t>Parasomnia or Sleep dysfunction with arousal disturbance</t>
         </is>
       </c>
       <c r="C137">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="138">
       <c r="A138">
-        <v>839</v>
+        <v>743</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Diabetic ketoacidosis identified during the inpatient or emergency room SNOMED concept</t>
         </is>
       </c>
       <c r="C138">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>840</v>
+        <v>744</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C139">
@@ -2196,11 +2206,11 @@
     </row>
     <row r="140">
       <c r="A140">
-        <v>841</v>
+        <v>745</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
       <c r="C140">
@@ -2209,11 +2219,11 @@
     </row>
     <row r="141">
       <c r="A141">
-        <v>842</v>
+        <v>746</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C141">
@@ -2222,11 +2232,11 @@
     </row>
     <row r="142">
       <c r="A142">
-        <v>843</v>
+        <v>747</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="C142">
@@ -2235,11 +2245,11 @@
     </row>
     <row r="143">
       <c r="A143">
-        <v>844</v>
+        <v>748</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
+          <t>Psoriatic arthritis</t>
         </is>
       </c>
       <c r="C143">
@@ -2248,11 +2258,11 @@
     </row>
     <row r="144">
       <c r="A144">
-        <v>845</v>
+        <v>749</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
+          <t>Plaque Psoriasis</t>
         </is>
       </c>
       <c r="C144">
@@ -2261,11 +2271,11 @@
     </row>
     <row r="145">
       <c r="A145">
-        <v>846</v>
+        <v>750</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C145">
@@ -2274,11 +2284,11 @@
     </row>
     <row r="146">
       <c r="A146">
-        <v>847</v>
+        <v>751</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum surgical treatment</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C146">
@@ -2287,37 +2297,37 @@
     </row>
     <row r="147">
       <c r="A147">
-        <v>848</v>
+        <v>752</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
+          <t>Firearm Accidents (FA)</t>
         </is>
       </c>
       <c r="C147">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>850</v>
+        <v>753</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Motor Vehicle Accidents (MVA)</t>
         </is>
       </c>
       <c r="C148">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>851</v>
+        <v>754</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Intraabdominal obstruction</t>
+          <t>Down Syndrome</t>
         </is>
       </c>
       <c r="C149">
@@ -2326,11 +2336,11 @@
     </row>
     <row r="150">
       <c r="A150">
-        <v>852</v>
+        <v>755</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Surgical wound infection (broad)</t>
+          <t>Non-infectious uveitis and iridocyclitis</t>
         </is>
       </c>
       <c r="C150">
@@ -2339,11 +2349,11 @@
     </row>
     <row r="151">
       <c r="A151">
-        <v>854</v>
+        <v>756</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (medium)</t>
+          <t>Cystic Fibrosis</t>
         </is>
       </c>
       <c r="C151">
@@ -2352,11 +2362,11 @@
     </row>
     <row r="152">
       <c r="A152">
-        <v>855</v>
+        <v>757</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (narrow)</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C152">
@@ -2365,11 +2375,11 @@
     </row>
     <row r="153">
       <c r="A153">
-        <v>856</v>
+        <v>759</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine, including history of migraine</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C153">
@@ -2378,11 +2388,11 @@
     </row>
     <row r="154">
       <c r="A154">
-        <v>857</v>
+        <v>760</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine</t>
+          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C154">
@@ -2391,11 +2401,11 @@
     </row>
     <row r="155">
       <c r="A155">
-        <v>858</v>
+        <v>761</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
         </is>
       </c>
       <c r="C155">
@@ -2404,11 +2414,11 @@
     </row>
     <row r="156">
       <c r="A156">
-        <v>859</v>
+        <v>762</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Endothelin receptor antagonists</t>
         </is>
       </c>
       <c r="C156">
@@ -2417,11 +2427,11 @@
     </row>
     <row r="157">
       <c r="A157">
-        <v>860</v>
+        <v>763</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Earliest event of Ulcerative colitis</t>
+          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
         </is>
       </c>
       <c r="C157">
@@ -2430,11 +2440,11 @@
     </row>
     <row r="158">
       <c r="A158">
-        <v>861</v>
+        <v>764</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Earliest event of Urinary tract infections (UTI)</t>
+          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
         </is>
       </c>
       <c r="C158">
@@ -2443,11 +2453,11 @@
     </row>
     <row r="159">
       <c r="A159">
-        <v>862</v>
+        <v>765</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+          <t>Left Heart Failure</t>
         </is>
       </c>
       <c r="C159">
@@ -2456,11 +2466,11 @@
     </row>
     <row r="160">
       <c r="A160">
-        <v>863</v>
+        <v>766</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Cognitive impairment, incident</t>
+          <t>Right Heart Failure</t>
         </is>
       </c>
       <c r="C160">
@@ -2469,11 +2479,11 @@
     </row>
     <row r="161">
       <c r="A161">
-        <v>864</v>
+        <v>767</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Earliest event of Dementia</t>
+          <t>Sarcoidosis</t>
         </is>
       </c>
       <c r="C161">
@@ -2482,11 +2492,11 @@
     </row>
     <row r="162">
       <c r="A162">
-        <v>865</v>
+        <v>768</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Non-Emergent Major Non Cardiac Surgery</t>
+          <t>Sickle Cell Anemia</t>
         </is>
       </c>
       <c r="C162">
@@ -2495,11 +2505,11 @@
     </row>
     <row r="163">
       <c r="A163">
-        <v>866</v>
+        <v>769</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>AAA repair</t>
+          <t>Scleroderma</t>
         </is>
       </c>
       <c r="C163">
@@ -2508,11 +2518,11 @@
     </row>
     <row r="164">
       <c r="A164">
-        <v>867</v>
+        <v>770</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Lower Extremity Bypass</t>
+          <t>Essential Hypertension</t>
         </is>
       </c>
       <c r="C164">
@@ -2521,11 +2531,11 @@
     </row>
     <row r="165">
       <c r="A165">
-        <v>868</v>
+        <v>771</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Carotid Endarterectomy</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C165">
@@ -2534,11 +2544,11 @@
     </row>
     <row r="166">
       <c r="A166">
-        <v>869</v>
+        <v>772</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Lung Resection</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C166">
@@ -2547,11 +2557,11 @@
     </row>
     <row r="167">
       <c r="A167">
-        <v>870</v>
+        <v>773</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Esophagectomy</t>
+          <t>Congenital Heart Disease</t>
         </is>
       </c>
       <c r="C167">
@@ -2560,11 +2570,11 @@
     </row>
     <row r="168">
       <c r="A168">
-        <v>871</v>
+        <v>774</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Pancreatectomy</t>
+          <t>Portal Hypertension</t>
         </is>
       </c>
       <c r="C168">
@@ -2573,11 +2583,11 @@
     </row>
     <row r="169">
       <c r="A169">
-        <v>872</v>
+        <v>775</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Colectomy</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
       <c r="C169">
@@ -2586,11 +2596,11 @@
     </row>
     <row r="170">
       <c r="A170">
-        <v>873</v>
+        <v>776</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Cystectomy</t>
+          <t>Antisynthetase syndrome</t>
         </is>
       </c>
       <c r="C170">
@@ -2599,11 +2609,11 @@
     </row>
     <row r="171">
       <c r="A171">
-        <v>874</v>
+        <v>777</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Nephrectomy</t>
+          <t>Mixed connective tissue disease</t>
         </is>
       </c>
       <c r="C171">
@@ -2612,11 +2622,11 @@
     </row>
     <row r="172">
       <c r="A172">
-        <v>875</v>
+        <v>778</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Coronary Artery Bypass Graft Surgery</t>
+          <t>Undifferentiated connective tissue disease</t>
         </is>
       </c>
       <c r="C172">
@@ -2625,11 +2635,11 @@
     </row>
     <row r="173">
       <c r="A173">
-        <v>876</v>
+        <v>779</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Aortic or Mitral Valve Repair or Replacement'</t>
+          <t>Overlap syndrome</t>
         </is>
       </c>
       <c r="C173">
@@ -2638,11 +2648,11 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>877</v>
+        <v>780</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
+          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
         </is>
       </c>
       <c r="C174">
@@ -2651,11 +2661,11 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>878</v>
+        <v>781</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
+          <t>Antiphospholipid syndrome</t>
         </is>
       </c>
       <c r="C175">
@@ -2664,37 +2674,37 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>881</v>
+        <v>782</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction events</t>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C176">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>882</v>
+        <v>783</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Persons with decreased libido</t>
+          <t>Pulmonary endarterectomy</t>
         </is>
       </c>
       <c r="C177">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>884</v>
+        <v>784</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Diarrhea events</t>
+          <t>Balloon Pulmonary Angioplasty</t>
         </is>
       </c>
       <c r="C178">
@@ -2703,76 +2713,76 @@
     </row>
     <row r="179">
       <c r="A179">
-        <v>888</v>
+        <v>785</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Gastrointestinal bleeding events</t>
+          <t>Skin Burns</t>
         </is>
       </c>
       <c r="C179">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>889</v>
+        <v>786</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Hyponatremia events</t>
+          <t>Non-small cell lung cancer (NSCLC)</t>
         </is>
       </c>
       <c r="C180">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>890</v>
+        <v>787</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Hypotension events</t>
+          <t>Lung cancer</t>
         </is>
       </c>
       <c r="C181">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>891</v>
+        <v>788</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Nausea events</t>
+          <t>Breast cancer</t>
         </is>
       </c>
       <c r="C182">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>892</v>
+        <v>789</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
+          <t>Glioblastoma multiforme (GBM)</t>
         </is>
       </c>
       <c r="C183">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>893</v>
+        <v>790</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Persons with vertigo</t>
+          <t>Colorectal Cancer</t>
         </is>
       </c>
       <c r="C184">
@@ -2781,50 +2791,50 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>894</v>
+        <v>791</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Abdominal pain events</t>
+          <t>Multiple Myeloma</t>
         </is>
       </c>
       <c r="C185">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>895</v>
+        <v>792</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Abnormal weight gain events</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
         </is>
       </c>
       <c r="C186">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>896</v>
+        <v>793</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Abnormal weight loss events</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
         </is>
       </c>
       <c r="C187">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>898</v>
+        <v>794</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Acute renal failure events</t>
+          <t>Hemorrhage of digestive system</t>
         </is>
       </c>
       <c r="C188">
@@ -2833,11 +2843,11 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>901</v>
+        <v>795</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Persons with anemia</t>
+          <t>Antineoplastic drugs against colorectal cancer</t>
         </is>
       </c>
       <c r="C189">
@@ -2846,11 +2856,11 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>917</v>
+        <v>796</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Persons with anxiety</t>
+          <t>Potential curative surgery for colorectal cancer</t>
         </is>
       </c>
       <c r="C190">
@@ -2859,11 +2869,11 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>918</v>
+        <v>797</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Persons with bradycardia</t>
+          <t>Radiotherapy against colorectal cancer</t>
         </is>
       </c>
       <c r="C191">
@@ -2872,11 +2882,11 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>919</v>
+        <v>798</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Person with cardiac arrhythmia</t>
+          <t>Primary adenocarcinoma of the colon or rectum</t>
         </is>
       </c>
       <c r="C192">
@@ -2885,24 +2895,24 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>920</v>
+        <v>802</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+          <t>Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C193">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>921</v>
+        <v>803</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Cardiovascular-related mortality</t>
+          <t>Fascial dehiscence and evisceration</t>
         </is>
       </c>
       <c r="C194">
@@ -2911,11 +2921,11 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>922</v>
+        <v>804</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Persons with chest pain or angina</t>
+          <t>Anastomotic leak or dehiscence</t>
         </is>
       </c>
       <c r="C195">
@@ -2924,11 +2934,11 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>923</v>
+        <v>805</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C196">
@@ -2937,37 +2947,37 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>924</v>
+        <v>806</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
+          <t>Intraabdominal abscess</t>
         </is>
       </c>
       <c r="C197">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>925</v>
+        <v>807</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Cough events</t>
+          <t>Perioperative aspiration</t>
         </is>
       </c>
       <c r="C198">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>927</v>
+        <v>808</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Persons with dementia</t>
+          <t>Postoperative hemorrhage</t>
         </is>
       </c>
       <c r="C199">
@@ -2976,11 +2986,11 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>928</v>
+        <v>809</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Persons with depression</t>
+          <t>Surgical wound infection (narrow)</t>
         </is>
       </c>
       <c r="C200">
@@ -2989,24 +2999,24 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>929</v>
+        <v>810</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Edema events</t>
+          <t>Distant metastasis following colorectal cancer (wide)</t>
         </is>
       </c>
       <c r="C201">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>930</v>
+        <v>811</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Persons with end stage renal disease</t>
+          <t>Local recurrence after colorectal cancer</t>
         </is>
       </c>
       <c r="C202">
@@ -3015,24 +3025,24 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>931</v>
+        <v>812</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Fall events</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C203">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>932</v>
+        <v>813</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Persons with gout</t>
+          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C204">
@@ -3041,24 +3051,24 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>933</v>
+        <v>814</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Headache events</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C205">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>934</v>
+        <v>817</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C206">
@@ -3067,24 +3077,24 @@
     </row>
     <row r="207">
       <c r="A207">
-        <v>935</v>
+        <v>818</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C207">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>936</v>
+        <v>819</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Persons with hepatic failure</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
         </is>
       </c>
       <c r="C208">
@@ -3093,50 +3103,50 @@
     </row>
     <row r="209">
       <c r="A209">
-        <v>940</v>
+        <v>820</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Hyperkalemia events</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
         </is>
       </c>
       <c r="C209">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>941</v>
+        <v>821</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Hypokalemia events</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C210">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>942</v>
+        <v>822</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Hypomagnesemia events</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C211">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>943</v>
+        <v>823</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Persons with impotence</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
         </is>
       </c>
       <c r="C212">
@@ -3145,24 +3155,24 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>944</v>
+        <v>824</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Ischemic stroke events</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C213">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>945</v>
+        <v>825</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
+          <t>Primary adenocarcinoma of colon</t>
         </is>
       </c>
       <c r="C214">
@@ -3171,11 +3181,11 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>946</v>
+        <v>826</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Persons with measured renal dysfunction</t>
+          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C215">
@@ -3184,11 +3194,11 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>947</v>
+        <v>827</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Persons with neutropenia or agranulocytosis</t>
+          <t>Primary adenocarcinoma of colon surgical treatment</t>
         </is>
       </c>
       <c r="C216">
@@ -3197,63 +3207,63 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>948</v>
+        <v>828</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Rash events</t>
+          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C217">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>950</v>
+        <v>829</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Rhabdomyolysis events</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C218">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>953</v>
+        <v>830</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Sudden cardiac death events in inpatient</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
         </is>
       </c>
       <c r="C219">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>954</v>
+        <v>831</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Syncope events</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C220">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>955</v>
+        <v>832</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Persons with thrombocytopenia</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C221">
@@ -3262,24 +3272,24 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>956</v>
+        <v>833</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Transient ischemic attack events</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C222">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>957</v>
+        <v>834</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Persons with type 2 diabetes mellitus</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C223">
@@ -3288,24 +3298,24 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>963</v>
+        <v>835</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Vomiting events</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C224">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>964</v>
+        <v>836</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C225">
@@ -3314,76 +3324,76 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>965</v>
+        <v>837</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Primary adenocarcinoma of rectum</t>
         </is>
       </c>
       <c r="C226">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>967</v>
+        <v>838</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C227">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>976</v>
+        <v>839</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Glycemic control</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C228">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>982</v>
+        <v>840</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C229">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>986</v>
+        <v>841</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Acute pancreatitis2</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C230">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>989</v>
+        <v>842</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Bladder Cancer</t>
+          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C231">
@@ -3392,24 +3402,24 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>990</v>
+        <v>843</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Bone Fracture</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C232">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>991</v>
+        <v>844</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Breast cancer Malignant tumor of breast</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
         </is>
       </c>
       <c r="C233">
@@ -3418,37 +3428,37 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>992</v>
+        <v>845</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C234">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>993</v>
+        <v>846</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Diarrhea3</t>
+          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C235">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>994</v>
+        <v>847</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Genitourinary infection3</t>
+          <t>Primary adenocarcinoma of rectum surgical treatment</t>
         </is>
       </c>
       <c r="C236">
@@ -3457,89 +3467,89 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>996</v>
+        <v>848</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Hypoglycemia</t>
+          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C237">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>997</v>
+        <v>850</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Hypotension</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C238">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>998</v>
+        <v>851</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Joint pain3</t>
+          <t>Intraabdominal obstruction</t>
         </is>
       </c>
       <c r="C239">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>1000</v>
+        <v>852</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Nausea3</t>
+          <t>Surgical wound infection (broad)</t>
         </is>
       </c>
       <c r="C240">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>1001</v>
+        <v>854</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Peripheral edema</t>
+          <t>Distant metastasis following colorectal cancer (medium)</t>
         </is>
       </c>
       <c r="C241">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>1002</v>
+        <v>855</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Photosensitivity</t>
+          <t>Distant metastasis following colorectal cancer (narrow)</t>
         </is>
       </c>
       <c r="C242">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>1003</v>
+        <v>856</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Renal Cancer</t>
+          <t>Earliest event of Migraine, including history of migraine</t>
         </is>
       </c>
       <c r="C243">
@@ -3548,11 +3558,11 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>1004</v>
+        <v>857</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Thyroid tumor</t>
+          <t>Earliest event of Migraine</t>
         </is>
       </c>
       <c r="C244">
@@ -3561,37 +3571,37 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>1005</v>
+        <v>858</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Venous thromboembolism</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
       <c r="C245">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>1006</v>
+        <v>859</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
       <c r="C246">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>1007</v>
+        <v>860</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Earliest event of Epilepsy</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
       <c r="C247">
@@ -3600,11 +3610,11 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>1009</v>
+        <v>861</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Earliest event of Treatment resistant depression (TRD)</t>
+          <t>Earliest event of Urinary tract infections (UTI)</t>
         </is>
       </c>
       <c r="C248">
@@ -3613,11 +3623,11 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>1010</v>
+        <v>862</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
+          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
         </is>
       </c>
       <c r="C249">
@@ -3626,11 +3636,11 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>1011</v>
+        <v>863</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Earliest event of Marginal zone lymphoma</t>
+          <t>Cognitive impairment, incident</t>
         </is>
       </c>
       <c r="C250">
@@ -3639,11 +3649,11 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>1012</v>
+        <v>864</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Earliest event of Waldenstrom macroglobulinemia</t>
+          <t>Earliest event of Dementia</t>
         </is>
       </c>
       <c r="C251">
@@ -3652,11 +3662,11 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>1013</v>
+        <v>865</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Earliest event of Ankylosing Spondylitis</t>
+          <t>Non-Emergent Major Non Cardiac Surgery</t>
         </is>
       </c>
       <c r="C252">
@@ -3665,11 +3675,11 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>1015</v>
+        <v>866</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Earliest event of Pulmonary arterial hypertension (PAH)</t>
+          <t>AAA repair</t>
         </is>
       </c>
       <c r="C253">
@@ -3678,11 +3688,11 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>1016</v>
+        <v>867</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
+          <t>Lower Extremity Bypass</t>
         </is>
       </c>
       <c r="C254">
@@ -3691,11 +3701,11 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>1017</v>
+        <v>868</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
+          <t>Carotid Endarterectomy</t>
         </is>
       </c>
       <c r="C255">
@@ -3704,11 +3714,11 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>1018</v>
+        <v>869</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
+          <t>Lung Resection</t>
         </is>
       </c>
       <c r="C256">
@@ -3717,24 +3727,24 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>1019</v>
+        <v>870</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
+          <t>Esophagectomy</t>
         </is>
       </c>
       <c r="C257">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>1020</v>
+        <v>871</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+          <t>Pancreatectomy</t>
         </is>
       </c>
       <c r="C258">
@@ -3743,11 +3753,11 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>1021</v>
+        <v>872</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
+          <t>Colectomy</t>
         </is>
       </c>
       <c r="C259">
@@ -3756,11 +3766,11 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>1022</v>
+        <v>873</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Earliest event of Depressive and Sleep Disorder</t>
+          <t>Cystectomy</t>
         </is>
       </c>
       <c r="C260">
@@ -3769,11 +3779,11 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>1023</v>
+        <v>874</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
+          <t>Nephrectomy</t>
         </is>
       </c>
       <c r="C261">
@@ -3782,11 +3792,11 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>1024</v>
+        <v>875</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
+          <t>Coronary Artery Bypass Graft Surgery</t>
         </is>
       </c>
       <c r="C262">
@@ -3795,11 +3805,11 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>1025</v>
+        <v>876</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
+          <t>Aortic or Mitral Valve Repair or Replacement'</t>
         </is>
       </c>
       <c r="C263">
@@ -3808,11 +3818,11 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>1026</v>
+        <v>877</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Earliest Event of Multiple Sclerosis</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
         </is>
       </c>
       <c r="C264">
@@ -3821,11 +3831,11 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>1027</v>
+        <v>878</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
         </is>
       </c>
       <c r="C265">
@@ -3834,24 +3844,24 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>1028</v>
+        <v>881</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Earliest event of Urothelial carcinoma</t>
+          <t>Acute myocardial infarction events</t>
         </is>
       </c>
       <c r="C266">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>1029</v>
+        <v>882</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Earliest event of Mantle Cell Lymphoma</t>
+          <t>Persons with decreased libido</t>
         </is>
       </c>
       <c r="C267">
@@ -3860,89 +3870,89 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>1030</v>
+        <v>884</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Earliest event of Prostate cancer, among adult males</t>
+          <t>Diarrhea events</t>
         </is>
       </c>
       <c r="C268">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>1031</v>
+        <v>888</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Earliest event of Coronary artery disease (CAD)</t>
+          <t>Gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C269">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>1032</v>
+        <v>889</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
+          <t>Hyponatremia events</t>
         </is>
       </c>
       <c r="C270">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>1033</v>
+        <v>890</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
+          <t>Hypotension events</t>
         </is>
       </c>
       <c r="C271">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>1035</v>
+        <v>891</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics</t>
+          <t>Nausea events</t>
         </is>
       </c>
       <c r="C272">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>1036</v>
+        <v>892</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>New users of Beta blockers</t>
+          <t>Stroke (ischemic or hemorrhagic) events</t>
         </is>
       </c>
       <c r="C273">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>1037</v>
+        <v>893</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor</t>
+          <t>Persons with vertigo</t>
         </is>
       </c>
       <c r="C274">
@@ -3951,76 +3961,76 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>1038</v>
+        <v>894</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists</t>
+          <t>Abdominal pain events</t>
         </is>
       </c>
       <c r="C275">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>1039</v>
+        <v>895</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors</t>
+          <t>Abnormal weight gain events</t>
         </is>
       </c>
       <c r="C276">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>1040</v>
+        <v>896</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
+          <t>Abnormal weight loss events</t>
         </is>
       </c>
       <c r="C277">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>1041</v>
+        <v>898</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors</t>
+          <t>Acute renal failure events</t>
         </is>
       </c>
       <c r="C278">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>1042</v>
+        <v>900</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors</t>
+          <t>Anaphylactoid reaction events</t>
         </is>
       </c>
       <c r="C279">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>1043</v>
+        <v>901</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic</t>
+          <t>Persons with anemia</t>
         </is>
       </c>
       <c r="C280">
@@ -4029,11 +4039,11 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>1044</v>
+        <v>917</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic</t>
+          <t>Persons with anxiety</t>
         </is>
       </c>
       <c r="C281">
@@ -4042,11 +4052,11 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>1045</v>
+        <v>918</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic</t>
+          <t>Persons with bradycardia</t>
         </is>
       </c>
       <c r="C282">
@@ -4055,11 +4065,11 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>1046</v>
+        <v>919</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics nested in essential hypertension</t>
+          <t>Person with cardiac arrhythmia</t>
         </is>
       </c>
       <c r="C283">
@@ -4068,24 +4078,24 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>1047</v>
+        <v>920</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
+          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C284">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>1048</v>
+        <v>921</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers</t>
+          <t>Cardiovascular-related mortality</t>
         </is>
       </c>
       <c r="C285">
@@ -4094,11 +4104,11 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>1049</v>
+        <v>922</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in essential hypertension</t>
+          <t>Persons with chest pain or angina</t>
         </is>
       </c>
       <c r="C286">
@@ -4107,11 +4117,11 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>1050</v>
+        <v>923</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Left Heart Failure</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C287">
@@ -4120,37 +4130,37 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>1051</v>
+        <v>924</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
+          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C288">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>1052</v>
+        <v>925</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
+          <t>Cough events</t>
         </is>
       </c>
       <c r="C289">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>1053</v>
+        <v>927</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
+          <t>Persons with dementia</t>
         </is>
       </c>
       <c r="C290">
@@ -4159,11 +4169,11 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>1054</v>
+        <v>928</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
+          <t>Persons with depression</t>
         </is>
       </c>
       <c r="C291">
@@ -4172,24 +4182,24 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>1055</v>
+        <v>929</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
+          <t>Edema events</t>
         </is>
       </c>
       <c r="C292">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>1056</v>
+        <v>930</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
+          <t>Persons with end stage renal disease</t>
         </is>
       </c>
       <c r="C293">
@@ -4198,24 +4208,24 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>1057</v>
+        <v>931</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
+          <t>Fall events</t>
         </is>
       </c>
       <c r="C294">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>1058</v>
+        <v>932</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
+          <t>Persons with gout</t>
         </is>
       </c>
       <c r="C295">
@@ -4224,24 +4234,24 @@
     </row>
     <row r="296">
       <c r="A296">
-        <v>1059</v>
+        <v>933</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
+          <t>Headache events</t>
         </is>
       </c>
       <c r="C296">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>1060</v>
+        <v>934</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C297">
@@ -4250,24 +4260,24 @@
     </row>
     <row r="298">
       <c r="A298">
-        <v>1061</v>
+        <v>935</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
+          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
         </is>
       </c>
       <c r="C298">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>1062</v>
+        <v>936</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
+          <t>Persons with hepatic failure</t>
         </is>
       </c>
       <c r="C299">
@@ -4276,76 +4286,76 @@
     </row>
     <row r="300">
       <c r="A300">
-        <v>1063</v>
+        <v>938</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C300">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>1064</v>
+        <v>939</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
+          <t>Hospitalization with preinfarction syndrome events</t>
         </is>
       </c>
       <c r="C301">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="302">
       <c r="A302">
-        <v>1065</v>
+        <v>940</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
+          <t>Hyperkalemia events</t>
         </is>
       </c>
       <c r="C302">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>1066</v>
+        <v>941</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
+          <t>Hypokalemia events</t>
         </is>
       </c>
       <c r="C303">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>1067</v>
+        <v>942</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
+          <t>Hypomagnesemia events</t>
         </is>
       </c>
       <c r="C304">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>1068</v>
+        <v>943</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
+          <t>Persons with impotence</t>
         </is>
       </c>
       <c r="C305">
@@ -4354,24 +4364,24 @@
     </row>
     <row r="306">
       <c r="A306">
-        <v>1069</v>
+        <v>944</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
+          <t>Ischemic stroke events</t>
         </is>
       </c>
       <c r="C306">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>1070</v>
+        <v>945</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
+          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
         </is>
       </c>
       <c r="C307">
@@ -4380,11 +4390,11 @@
     </row>
     <row r="308">
       <c r="A308">
-        <v>1072</v>
+        <v>946</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Cytomegalovirus CMV Anterior Uveitis</t>
+          <t>Persons with measured renal dysfunction</t>
         </is>
       </c>
       <c r="C308">
@@ -4393,28 +4403,1510 @@
     </row>
     <row r="309">
       <c r="A309">
-        <v>1073</v>
+        <v>947</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
+          <t>Persons with neutropenia or agranulocytosis</t>
         </is>
       </c>
       <c r="C309">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>1074</v>
+        <v>948</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Serious Infection</t>
+          <t>Rash events</t>
         </is>
       </c>
       <c r="C310">
         <v>90</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311">
+        <v>950</v>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>Rhabdomyolysis events</t>
+        </is>
+      </c>
+      <c r="C311">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312">
+        <v>953</v>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>Sudden cardiac death events in inpatient</t>
+        </is>
+      </c>
+      <c r="C312">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313">
+        <v>954</v>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>Syncope events</t>
+        </is>
+      </c>
+      <c r="C313">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314">
+        <v>955</v>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>Persons with thrombocytopenia</t>
+        </is>
+      </c>
+      <c r="C314">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315">
+        <v>956</v>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>Transient ischemic attack events</t>
+        </is>
+      </c>
+      <c r="C315">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316">
+        <v>957</v>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>Persons with type 2 diabetes mellitus</t>
+        </is>
+      </c>
+      <c r="C316">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317">
+        <v>963</v>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>Vomiting events</t>
+        </is>
+      </c>
+      <c r="C317">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318">
+        <v>964</v>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
+        </is>
+      </c>
+      <c r="C318">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319">
+        <v>965</v>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>3-point MACE</t>
+        </is>
+      </c>
+      <c r="C319">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320">
+        <v>967</v>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>4-point MACE</t>
+        </is>
+      </c>
+      <c r="C320">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321">
+        <v>976</v>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>Glycemic control</t>
+        </is>
+      </c>
+      <c r="C321">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322">
+        <v>979</v>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>Hospitalization with heart failure indexed on hospitalization</t>
+        </is>
+      </c>
+      <c r="C322">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323">
+        <v>980</v>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>Coronary Vessel Revascularization</t>
+        </is>
+      </c>
+      <c r="C323">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324">
+        <v>982</v>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
+        </is>
+      </c>
+      <c r="C324">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325">
+        <v>986</v>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>Acute pancreatitis2</t>
+        </is>
+      </c>
+      <c r="C325">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326">
+        <v>989</v>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>Bladder Cancer</t>
+        </is>
+      </c>
+      <c r="C326">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327">
+        <v>990</v>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>Bone Fracture</t>
+        </is>
+      </c>
+      <c r="C327">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328">
+        <v>991</v>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>Breast cancer Malignant tumor of breast</t>
+        </is>
+      </c>
+      <c r="C328">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329">
+        <v>992</v>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
+        </is>
+      </c>
+      <c r="C329">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330">
+        <v>993</v>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>Diarrhea3</t>
+        </is>
+      </c>
+      <c r="C330">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331">
+        <v>994</v>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>Genitourinary infection3</t>
+        </is>
+      </c>
+      <c r="C331">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332">
+        <v>996</v>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>Hypoglycemia</t>
+        </is>
+      </c>
+      <c r="C332">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333">
+        <v>997</v>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>Hypotension</t>
+        </is>
+      </c>
+      <c r="C333">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334">
+        <v>998</v>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>Joint pain3</t>
+        </is>
+      </c>
+      <c r="C334">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335">
+        <v>999</v>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>Lower extremity amputation</t>
+        </is>
+      </c>
+      <c r="C335">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336">
+        <v>1000</v>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>Nausea3</t>
+        </is>
+      </c>
+      <c r="C336">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337">
+        <v>1001</v>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>Peripheral edema</t>
+        </is>
+      </c>
+      <c r="C337">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338">
+        <v>1002</v>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>Photosensitivity</t>
+        </is>
+      </c>
+      <c r="C338">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339">
+        <v>1003</v>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>Renal Cancer</t>
+        </is>
+      </c>
+      <c r="C339">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340">
+        <v>1004</v>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>Thyroid tumor</t>
+        </is>
+      </c>
+      <c r="C340">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341">
+        <v>1005</v>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>Venous thromboembolism</t>
+        </is>
+      </c>
+      <c r="C341">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342">
+        <v>1006</v>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>Vomiting</t>
+        </is>
+      </c>
+      <c r="C342">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343">
+        <v>1007</v>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>Earliest event of Epilepsy</t>
+        </is>
+      </c>
+      <c r="C343">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344">
+        <v>1009</v>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>Earliest event of Treatment resistant depression (TRD)</t>
+        </is>
+      </c>
+      <c r="C344">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345">
+        <v>1010</v>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
+        </is>
+      </c>
+      <c r="C345">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346">
+        <v>1011</v>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>Earliest event of Marginal zone lymphoma</t>
+        </is>
+      </c>
+      <c r="C346">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347">
+        <v>1012</v>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>Earliest event of Waldenstrom macroglobulinemia</t>
+        </is>
+      </c>
+      <c r="C347">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348">
+        <v>1013</v>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>Earliest event of Ankylosing Spondylitis</t>
+        </is>
+      </c>
+      <c r="C348">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349">
+        <v>1015</v>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>Earliest event of Pulmonary arterial hypertension (PAH)</t>
+        </is>
+      </c>
+      <c r="C349">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350">
+        <v>1016</v>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
+        </is>
+      </c>
+      <c r="C350">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351">
+        <v>1017</v>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
+        </is>
+      </c>
+      <c r="C351">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352">
+        <v>1018</v>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
+        </is>
+      </c>
+      <c r="C352">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353">
+        <v>1019</v>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
+        </is>
+      </c>
+      <c r="C353">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354">
+        <v>1020</v>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+        </is>
+      </c>
+      <c r="C354">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355">
+        <v>1021</v>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
+        </is>
+      </c>
+      <c r="C355">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356">
+        <v>1022</v>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>Earliest event of Depressive and Sleep Disorder</t>
+        </is>
+      </c>
+      <c r="C356">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357">
+        <v>1023</v>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
+        </is>
+      </c>
+      <c r="C357">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358">
+        <v>1024</v>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
+        </is>
+      </c>
+      <c r="C358">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359">
+        <v>1025</v>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
+        </is>
+      </c>
+      <c r="C359">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360">
+        <v>1026</v>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>Earliest Event of Multiple Sclerosis</t>
+        </is>
+      </c>
+      <c r="C360">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361">
+        <v>1027</v>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+        </is>
+      </c>
+      <c r="C361">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362">
+        <v>1028</v>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>Earliest event of Urothelial carcinoma</t>
+        </is>
+      </c>
+      <c r="C362">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363">
+        <v>1029</v>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>Earliest event of Mantle Cell Lymphoma</t>
+        </is>
+      </c>
+      <c r="C363">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364">
+        <v>1030</v>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>Earliest event of Prostate cancer, among adult males</t>
+        </is>
+      </c>
+      <c r="C364">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365">
+        <v>1031</v>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>Earliest event of Coronary artery disease (CAD)</t>
+        </is>
+      </c>
+      <c r="C365">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366">
+        <v>1032</v>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
+        </is>
+      </c>
+      <c r="C366">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367">
+        <v>1033</v>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
+        </is>
+      </c>
+      <c r="C367">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368">
+        <v>1034</v>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>All events of Respiratory syncytial virus infection, with 30 days washout</t>
+        </is>
+      </c>
+      <c r="C368">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369">
+        <v>1035</v>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>New users of Thiazide diuretics</t>
+        </is>
+      </c>
+      <c r="C369">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370">
+        <v>1036</v>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>New users of Beta blockers</t>
+        </is>
+      </c>
+      <c r="C370">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371">
+        <v>1037</v>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>New users of SGLT2 inhibitor</t>
+        </is>
+      </c>
+      <c r="C371">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372">
+        <v>1038</v>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>New users of GLP-1 receptor antagonists</t>
+        </is>
+      </c>
+      <c r="C372">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373">
+        <v>1039</v>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>New users of DPP-4 inhibitors</t>
+        </is>
+      </c>
+      <c r="C373">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374">
+        <v>1040</v>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
+        </is>
+      </c>
+      <c r="C374">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375">
+        <v>1041</v>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>New users of JAK inhibitors</t>
+        </is>
+      </c>
+      <c r="C375">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376">
+        <v>1042</v>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>New users of IL-23 inhibitors</t>
+        </is>
+      </c>
+      <c r="C376">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377">
+        <v>1043</v>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>New users of Fluoroquinolone systemic</t>
+        </is>
+      </c>
+      <c r="C377">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378">
+        <v>1044</v>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>New users of Cephalosporin systemetic</t>
+        </is>
+      </c>
+      <c r="C378">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379">
+        <v>1045</v>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>New users of Trimethoprim systemetic</t>
+        </is>
+      </c>
+      <c r="C379">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380">
+        <v>1046</v>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>New users of Thiazide diuretics nested in essential hypertension</t>
+        </is>
+      </c>
+      <c r="C380">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381">
+        <v>1047</v>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
+        </is>
+      </c>
+      <c r="C381">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382">
+        <v>1048</v>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>New users of dihydropyridine calcium channel blockers</t>
+        </is>
+      </c>
+      <c r="C382">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383">
+        <v>1049</v>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>New users of Beta blockers nested in essential hypertension</t>
+        </is>
+      </c>
+      <c r="C383">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384">
+        <v>1050</v>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>New users of Beta blockers nested in Left Heart Failure</t>
+        </is>
+      </c>
+      <c r="C384">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385">
+        <v>1051</v>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
+        </is>
+      </c>
+      <c r="C385">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386">
+        <v>1052</v>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
+        </is>
+      </c>
+      <c r="C386">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387">
+        <v>1053</v>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
+        </is>
+      </c>
+      <c r="C387">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388">
+        <v>1054</v>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
+        </is>
+      </c>
+      <c r="C388">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389">
+        <v>1055</v>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
+        </is>
+      </c>
+      <c r="C389">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390">
+        <v>1056</v>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
+        </is>
+      </c>
+      <c r="C390">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391">
+        <v>1057</v>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
+        </is>
+      </c>
+      <c r="C391">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392">
+        <v>1058</v>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
+        </is>
+      </c>
+      <c r="C392">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393">
+        <v>1059</v>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
+        </is>
+      </c>
+      <c r="C393">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394">
+        <v>1060</v>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
+        </is>
+      </c>
+      <c r="C394">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395">
+        <v>1061</v>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
+        </is>
+      </c>
+      <c r="C395">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396">
+        <v>1062</v>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
+        </is>
+      </c>
+      <c r="C396">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397">
+        <v>1063</v>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
+        </is>
+      </c>
+      <c r="C397">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398">
+        <v>1064</v>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
+        </is>
+      </c>
+      <c r="C398">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399">
+        <v>1065</v>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
+        </is>
+      </c>
+      <c r="C399">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400">
+        <v>1066</v>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
+        </is>
+      </c>
+      <c r="C400">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401">
+        <v>1067</v>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
+        </is>
+      </c>
+      <c r="C401">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402">
+        <v>1068</v>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
+        </is>
+      </c>
+      <c r="C402">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403">
+        <v>1069</v>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
+        </is>
+      </c>
+      <c r="C403">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404">
+        <v>1070</v>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
+        </is>
+      </c>
+      <c r="C404">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405">
+        <v>1072</v>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>Cytomegalovirus CMV Anterior Uveitis</t>
+        </is>
+      </c>
+      <c r="C405">
+        <v>9999</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406">
+        <v>1073</v>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
+        </is>
+      </c>
+      <c r="C406">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407">
+        <v>1074</v>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>Serious Infection</t>
+        </is>
+      </c>
+      <c r="C407">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408">
+        <v>1075</v>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>Narcolepsy</t>
+        </is>
+      </c>
+      <c r="C408">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409">
+        <v>1076</v>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>Anaphylaxis</t>
+        </is>
+      </c>
+      <c r="C409">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410">
+        <v>1077</v>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>Anaphylaxis v2</t>
+        </is>
+      </c>
+      <c r="C410">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411">
+        <v>1078</v>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>Bells Palsy</t>
+        </is>
+      </c>
+      <c r="C411">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412">
+        <v>1079</v>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>Encephalomyelitis</t>
+        </is>
+      </c>
+      <c r="C412">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413">
+        <v>1080</v>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>Guillain Barre Syndrome</t>
+        </is>
+      </c>
+      <c r="C413">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414">
+        <v>1081</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>Acute Myocardial Infarction</t>
+        </is>
+      </c>
+      <c r="C414">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415">
+        <v>1082</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>Myocarditis Pericarditis</t>
+        </is>
+      </c>
+      <c r="C415">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416">
+        <v>1083</v>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>Immune Thrombocytopenia (ITP)</t>
+        </is>
+      </c>
+      <c r="C416">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417">
+        <v>1084</v>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>Disseminated Intravascular Coagulation</t>
+        </is>
+      </c>
+      <c r="C417">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418">
+        <v>1085</v>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>Appendicitis</t>
+        </is>
+      </c>
+      <c r="C418">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419">
+        <v>1086</v>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>Transverse Myelitis</t>
+        </is>
+      </c>
+      <c r="C419">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420">
+        <v>1087</v>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>Hemorrhagic Stroke</t>
+        </is>
+      </c>
+      <c r="C420">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421">
+        <v>1088</v>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>Deep Vein Thrombosis (DVT)</t>
+        </is>
+      </c>
+      <c r="C421">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422">
+        <v>1089</v>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>Non-hemorrhagic Stroke</t>
+        </is>
+      </c>
+      <c r="C422">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423">
+        <v>1090</v>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>Pulmonary Embolism</t>
+        </is>
+      </c>
+      <c r="C423">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424">
+        <v>1091</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>Thrombosis with Thrombocytopenia (TWT)</t>
+        </is>
+      </c>
+      <c r="C424">
+        <v>365</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_specifications/analysis1.xlsx
+++ b/analysis_specifications/analysis1.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C424"/>
+  <dimension ref="A1:C470"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -420,7 +420,7 @@
         </is>
       </c>
       <c r="C2">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -433,7 +433,7 @@
         </is>
       </c>
       <c r="C3">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -446,7 +446,7 @@
         </is>
       </c>
       <c r="C4">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -459,7 +459,7 @@
         </is>
       </c>
       <c r="C5">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -472,7 +472,7 @@
         </is>
       </c>
       <c r="C6">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -485,7 +485,7 @@
         </is>
       </c>
       <c r="C7">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="C8">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="C9">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -524,7 +524,7 @@
         </is>
       </c>
       <c r="C10">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -537,7 +537,7 @@
         </is>
       </c>
       <c r="C11">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -550,7 +550,7 @@
         </is>
       </c>
       <c r="C12">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -563,7 +563,7 @@
         </is>
       </c>
       <c r="C13">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -589,7 +589,7 @@
         </is>
       </c>
       <c r="C15">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -615,276 +615,276 @@
         </is>
       </c>
       <c r="C17">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
       <c r="A18">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Obesity</t>
+          <t>Tuberculosis</t>
         </is>
       </c>
       <c r="C18">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
       <c r="A19">
-        <v>54</v>
+        <v>32</v>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Febrile seizure</t>
+          <t>Obesity</t>
         </is>
       </c>
       <c r="C19">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
       <c r="A20">
-        <v>63</v>
+        <v>33</v>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (1Ps, 0Era, 365W)</t>
+          <t>Dementia</t>
         </is>
       </c>
       <c r="C20">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
       <c r="A21">
-        <v>64</v>
+        <v>43</v>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>Composite Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia</t>
+          <t>Respiratory or pulmonary tuberculosis</t>
         </is>
       </c>
       <c r="C21">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
       <c r="A22">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction with inpatient admission</t>
+          <t>Febrile seizure</t>
         </is>
       </c>
       <c r="C22">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
       <c r="A23">
-        <v>95</v>
+        <v>61</v>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Delirium</t>
+          <t>Bradycardia or heart block with inpatient admission</t>
         </is>
       </c>
       <c r="C23">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
       <c r="A24">
-        <v>119</v>
+        <v>63</v>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
+          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (1Ps, 0Era, 365W)</t>
         </is>
       </c>
       <c r="C24">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="25">
       <c r="A25">
-        <v>134</v>
+        <v>64</v>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>Attention Deficit Hyperactivity Disorder indexed on diagnosis or treatment</t>
+          <t>Composite Flu-like symptoms fever, cough, malaise, fatigue, dyspnea, myalgia</t>
         </is>
       </c>
       <c r="C25">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="26">
       <c r="A26">
-        <v>191</v>
+        <v>71</v>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>Fatigue, Asthenia, Malaise, Lethargy, Anorexia</t>
+          <t>Acute myocardial infarction with inpatient admission</t>
         </is>
       </c>
       <c r="C26">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
       <c r="A27">
-        <v>192</v>
+        <v>74</v>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>Skin, Nasal or oral mucosal bleeding events often seen during thrombocytopenia</t>
+          <t>Hemorrhagic stroke (intracerebral bleeding) with inpatient admission</t>
         </is>
       </c>
       <c r="C27">
-        <v>14</v>
+        <v>365</v>
       </c>
     </row>
     <row r="28">
       <c r="A28">
-        <v>193</v>
+        <v>95</v>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>Jaundice or Itching</t>
+          <t>Delirium</t>
         </is>
       </c>
       <c r="C28">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
       <c r="A29">
-        <v>194</v>
+        <v>119</v>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>Encephalopathy or its presentations</t>
+          <t>Systemic lupus erythematosus indexed on signs, symptoms, treatment, or diagnosis (FP)</t>
         </is>
       </c>
       <c r="C29">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
       <c r="A30">
-        <v>207</v>
+        <v>134</v>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>Acquired Pure Red Cell Aplasia</t>
+          <t>Attention Deficit Hyperactivity Disorder indexed on diagnosis or treatment</t>
         </is>
       </c>
       <c r="C30">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31">
       <c r="A31">
-        <v>208</v>
+        <v>142</v>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>Febrile Neutropenia or Neutropenic Fever</t>
+          <t>Earliest of ST elevated Myocardial infarction or Acute MI with ST elevation</t>
         </is>
       </c>
       <c r="C31">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
       <c r="A32">
-        <v>211</v>
+        <v>191</v>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>Pancytopenia, Acquired</t>
+          <t>Fatigue, Asthenia, Malaise, Lethargy, Anorexia</t>
         </is>
       </c>
       <c r="C32">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
       <c r="A33">
-        <v>213</v>
+        <v>192</v>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>Neutropenia or unspecified leukopenia</t>
+          <t>Skin, Nasal or oral mucosal bleeding events often seen during thrombocytopenia</t>
         </is>
       </c>
       <c r="C33">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34">
       <c r="A34">
-        <v>215</v>
+        <v>193</v>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia</t>
+          <t>Jaundice or Itching</t>
         </is>
       </c>
       <c r="C34">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35">
       <c r="A35">
-        <v>216</v>
+        <v>194</v>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes</t>
+          <t>Encephalopathy or its presentations</t>
         </is>
       </c>
       <c r="C35">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
       <c r="A36">
-        <v>217</v>
+        <v>207</v>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Acquired Pure Red Cell Aplasia</t>
         </is>
       </c>
       <c r="C36">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37">
       <c r="A37">
-        <v>218</v>
+        <v>208</v>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>Rhabdomyolysis</t>
+          <t>Febrile Neutropenia or Neutropenic Fever</t>
         </is>
       </c>
       <c r="C37">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="38">
       <c r="A38">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>Sudden Cardiac arrest or cardiac death</t>
+          <t>Pancytopenia, Acquired</t>
         </is>
       </c>
       <c r="C38">
@@ -893,167 +893,167 @@
     </row>
     <row r="39">
       <c r="A39">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
+          <t>Neutropenia or unspecified leukopenia</t>
         </is>
       </c>
       <c r="C39">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="40">
       <c r="A40">
-        <v>229</v>
+        <v>215</v>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>Progressive multifocal leukoencephalopathy</t>
+          <t>Isolated Immune Thrombocytopenia</t>
         </is>
       </c>
       <c r="C40">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="41">
       <c r="A41">
-        <v>232</v>
+        <v>216</v>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>Paresthesia</t>
+          <t>Isolated Immune Thrombocytopenia in absence of common thrombocytopenia causes</t>
         </is>
       </c>
       <c r="C41">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="42">
       <c r="A42">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>Appendicitis (1Pe, 180Era)</t>
+          <t>Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
         </is>
       </c>
       <c r="C42">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
       <c r="A43">
-        <v>239</v>
+        <v>218</v>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>Narcolepsy events</t>
+          <t>Rhabdomyolysis</t>
         </is>
       </c>
       <c r="C43">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="44">
       <c r="A44">
-        <v>243</v>
+        <v>219</v>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>Tinnitus</t>
+          <t>Sudden Cardiac arrest or cardiac death</t>
         </is>
       </c>
       <c r="C44">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
       <c r="A45">
-        <v>244</v>
+        <v>222</v>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>Dizziness or giddiness including motion sickness and vertigo</t>
+          <t>Stevens-Johnson syndrome, toxic epidermal necrolysis spectrum</t>
         </is>
       </c>
       <c r="C45">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
       <c r="A46">
-        <v>256</v>
+        <v>229</v>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>Facial Palsy lower motor neuron including Bells Palsy</t>
+          <t>Progressive multifocal leukoencephalopathy</t>
         </is>
       </c>
       <c r="C46">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47">
-        <v>257</v>
+        <v>232</v>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>Emergency room visits or code</t>
+          <t>Paresthesia</t>
         </is>
       </c>
       <c r="C47">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48">
       <c r="A48">
-        <v>267</v>
+        <v>234</v>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>Acute Kidney Injury AKI, in persons with chronic kidney disease</t>
+          <t>Appendicitis (1Pe, 180Era)</t>
         </is>
       </c>
       <c r="C48">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="49">
       <c r="A49">
-        <v>275</v>
+        <v>235</v>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
+          <t>Guillain Barre syndrome inpatient</t>
         </is>
       </c>
       <c r="C49">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50">
       <c r="A50">
-        <v>276</v>
+        <v>236</v>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>Sudden Vision Loss</t>
+          <t>Idiopathic Peripheral Neuropathy</t>
         </is>
       </c>
       <c r="C50">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
       <c r="A51">
-        <v>277</v>
+        <v>239</v>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>Sudden Hearing Loss</t>
+          <t>Narcolepsy events</t>
         </is>
       </c>
       <c r="C51">
@@ -1062,1012 +1062,1012 @@
     </row>
     <row r="52">
       <c r="A52">
-        <v>278</v>
+        <v>240</v>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>Pain or ache that is Non Chronic</t>
+          <t>Muscle weakness or monoplegia</t>
         </is>
       </c>
       <c r="C52">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53">
       <c r="A53">
-        <v>279</v>
+        <v>243</v>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>Low Back Pain or injury</t>
+          <t>Tinnitus</t>
         </is>
       </c>
       <c r="C53">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54">
       <c r="A54">
-        <v>280</v>
+        <v>244</v>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>Abdominal Pain or acute abdomen</t>
+          <t>Dizziness or giddiness including motion sickness and vertigo</t>
         </is>
       </c>
       <c r="C54">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55">
       <c r="A55">
-        <v>281</v>
+        <v>248</v>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>Epigastric Pain</t>
+          <t>Disseminated intravascular coagulation DIC in inpatient visit</t>
         </is>
       </c>
       <c r="C55">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56">
       <c r="A56">
-        <v>282</v>
+        <v>251</v>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>Joint Pain</t>
+          <t>Acute pancreatitis</t>
         </is>
       </c>
       <c r="C56">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57">
       <c r="A57">
-        <v>296</v>
+        <v>253</v>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (180Pe, 180Era)</t>
+          <t>Drug Induced Acute pancreatitis</t>
         </is>
       </c>
       <c r="C57">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58">
       <c r="A58">
-        <v>298</v>
+        <v>256</v>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>Urinary bleed events in persons without renal glomerular disease</t>
+          <t>Facial Palsy lower motor neuron including Bells Palsy</t>
         </is>
       </c>
       <c r="C58">
-        <v>14</v>
+        <v>180</v>
       </c>
     </row>
     <row r="59">
       <c r="A59">
-        <v>299</v>
+        <v>257</v>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>Acute gastrointestinal bleeding or perforation events</t>
+          <t>Emergency room visits or code</t>
         </is>
       </c>
       <c r="C59">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="60">
       <c r="A60">
-        <v>300</v>
+        <v>267</v>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>Heavy menstrual bleeding (menorrhagia) events</t>
+          <t>Acute Kidney Injury AKI, in persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C60">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
       <c r="A61">
-        <v>304</v>
+        <v>275</v>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>Neurofibromatosis type 1 (FP)</t>
+          <t>Polymorphic Ventricular Tachycardia or Torsades de Pointes</t>
         </is>
       </c>
       <c r="C61">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
       <c r="A62">
-        <v>305</v>
+        <v>276</v>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>Neurofibromatosis type 1 without Type 2 (FP)</t>
+          <t>Sudden Vision Loss</t>
         </is>
       </c>
       <c r="C62">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="63">
       <c r="A63">
-        <v>306</v>
+        <v>277</v>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>Optical pathway glioma and neurofibromatosis (FP)</t>
+          <t>Sudden Hearing Loss</t>
         </is>
       </c>
       <c r="C63">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="64">
       <c r="A64">
-        <v>307</v>
+        <v>278</v>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>Optical pathway glioma or non malignant neoplasm of optic nerve w neurofibromatosis</t>
+          <t>Pain or ache that is Non Chronic</t>
         </is>
       </c>
       <c r="C64">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="65">
       <c r="A65">
-        <v>308</v>
+        <v>279</v>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>Optical pathway glioma with MRI imaging and ophthalmology visits Neurofibromatosis</t>
+          <t>Low Back Pain or injury</t>
         </is>
       </c>
       <c r="C65">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="66">
       <c r="A66">
-        <v>324</v>
+        <v>280</v>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>Pain</t>
+          <t>Abdominal Pain or acute abdomen</t>
         </is>
       </c>
       <c r="C66">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
       <c r="A67">
-        <v>325</v>
+        <v>281</v>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>Inpatient Hospitalization By Site of care or type of service</t>
+          <t>Epigastric Pain</t>
         </is>
       </c>
       <c r="C67">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="68">
       <c r="A68">
-        <v>328</v>
+        <v>282</v>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>Wheezing</t>
+          <t>Joint Pain</t>
         </is>
       </c>
       <c r="C68">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="69">
       <c r="A69">
-        <v>331</v>
+        <v>296</v>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>Encephalopathy</t>
+          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis (180Pe, 180Era)</t>
         </is>
       </c>
       <c r="C69">
-        <v>365</v>
+        <v>180</v>
       </c>
     </row>
     <row r="70">
       <c r="A70">
-        <v>332</v>
+        <v>298</v>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>Pain or ache that is Chronic</t>
+          <t>Urinary bleed events in persons without renal glomerular disease</t>
         </is>
       </c>
       <c r="C70">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71">
       <c r="A71">
-        <v>333</v>
+        <v>299</v>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>Alcohol Use Disorder</t>
+          <t>Acute gastrointestinal bleeding or perforation events</t>
         </is>
       </c>
       <c r="C71">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72">
       <c r="A72">
-        <v>340</v>
+        <v>300</v>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>Hives, Erythema, Eruption, Urticaria</t>
+          <t>Heavy menstrual bleeding (menorrhagia) events</t>
         </is>
       </c>
       <c r="C72">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73">
       <c r="A73">
-        <v>341</v>
+        <v>304</v>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>Loss of mentation including comma, syncope, altered consciousness</t>
+          <t>Neurofibromatosis type 1 (FP)</t>
         </is>
       </c>
       <c r="C73">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74">
       <c r="A74">
-        <v>343</v>
+        <v>305</v>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>Fecal Incontinence</t>
+          <t>Neurofibromatosis type 1 without Type 2 (FP)</t>
         </is>
       </c>
       <c r="C74">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
       <c r="A75">
-        <v>346</v>
+        <v>306</v>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
+          <t>Optical pathway glioma and neurofibromatosis (FP)</t>
         </is>
       </c>
       <c r="C75">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76">
       <c r="A76">
-        <v>347</v>
+        <v>307</v>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>Ambulance utilization</t>
+          <t>Optical pathway glioma or non malignant neoplasm of optic nerve w neurofibromatosis</t>
         </is>
       </c>
       <c r="C76">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77">
       <c r="A77">
-        <v>349</v>
+        <v>308</v>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>Lower gastrointestinal bleeding events</t>
+          <t>Optical pathway glioma with MRI imaging and ophthalmology visits Neurofibromatosis</t>
         </is>
       </c>
       <c r="C77">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
       <c r="A78">
-        <v>351</v>
+        <v>324</v>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>Nasal Polyp present</t>
+          <t>Pain</t>
         </is>
       </c>
       <c r="C78">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
       <c r="A79">
-        <v>354</v>
+        <v>325</v>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>Nasal Congestion or Rhinitis or Common Cold</t>
+          <t>Inpatient Hospitalization By Site of care or type of service</t>
         </is>
       </c>
       <c r="C79">
-        <v>14</v>
+        <v>1</v>
       </c>
     </row>
     <row r="80">
       <c r="A80">
-        <v>355</v>
+        <v>328</v>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>Laryngitis</t>
+          <t>Wheezing</t>
         </is>
       </c>
       <c r="C80">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81">
       <c r="A81">
-        <v>356</v>
+        <v>329</v>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>Epistaxis</t>
+          <t>Pneumonitis and lung infections</t>
         </is>
       </c>
       <c r="C81">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82">
       <c r="A82">
-        <v>358</v>
+        <v>331</v>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure among persons with no chronic respiratory failure</t>
+          <t>Encephalopathy</t>
         </is>
       </c>
       <c r="C82">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
       <c r="A83">
-        <v>359</v>
+        <v>332</v>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure</t>
+          <t>Pain or ache that is Chronic</t>
         </is>
       </c>
       <c r="C83">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
       <c r="A84">
-        <v>360</v>
+        <v>333</v>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>Pleural Effusion</t>
+          <t>Alcohol Use Disorder</t>
         </is>
       </c>
       <c r="C84">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85">
       <c r="A85">
-        <v>362</v>
+        <v>334</v>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>Acute Kidney Injury AKI</t>
+          <t>Asthma</t>
         </is>
       </c>
       <c r="C85">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
       <c r="A86">
-        <v>365</v>
+        <v>340</v>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>Dysuria</t>
+          <t>Hives, Erythema, Eruption, Urticaria</t>
         </is>
       </c>
       <c r="C86">
-        <v>14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87">
       <c r="A87">
-        <v>370</v>
+        <v>341</v>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>Allergic disorder</t>
+          <t>Loss of mentation including comma, syncope, altered consciousness</t>
         </is>
       </c>
       <c r="C87">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88">
       <c r="A88">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>Claudication Pain</t>
+          <t>Fecal Incontinence</t>
         </is>
       </c>
       <c r="C88">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="89">
       <c r="A89">
-        <v>379</v>
+        <v>346</v>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>Ecchymosis</t>
+          <t>Non urgent outpatient visit without overlapping inpatient or emergency visit</t>
         </is>
       </c>
       <c r="C89">
-        <v>9999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="90">
       <c r="A90">
-        <v>381</v>
+        <v>347</v>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>Skin Itching</t>
+          <t>Ambulance utilization</t>
         </is>
       </c>
       <c r="C90">
-        <v>30</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91">
       <c r="A91">
-        <v>382</v>
+        <v>349</v>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>Prurititc Rash</t>
+          <t>Lower gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C91">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92">
       <c r="A92">
-        <v>391</v>
+        <v>351</v>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>Hearing Loss</t>
+          <t>Nasal Polyp present</t>
         </is>
       </c>
       <c r="C92">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
       <c r="A93">
-        <v>392</v>
+        <v>354</v>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>Otalgia or Otitis</t>
+          <t>Nasal Congestion or Rhinitis or Common Cold</t>
         </is>
       </c>
       <c r="C93">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="94">
       <c r="A94">
-        <v>393</v>
+        <v>355</v>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>Low Back Pain or Injury</t>
+          <t>Laryngitis</t>
         </is>
       </c>
       <c r="C94">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="95">
       <c r="A95">
-        <v>398</v>
+        <v>356</v>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>Bladder Outflow Obstruction</t>
+          <t>Epistaxis</t>
         </is>
       </c>
       <c r="C95">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="96">
       <c r="A96">
-        <v>402</v>
+        <v>358</v>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>Ventilatory assist for respiratory findings with Acute Respiratory Failure</t>
+          <t>Acute Respiratory Failure among persons with no chronic respiratory failure</t>
         </is>
       </c>
       <c r="C96">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
       <c r="A97">
-        <v>403</v>
+        <v>359</v>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure in inpatient or Emergency room</t>
+          <t>Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C97">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
       <c r="A98">
-        <v>410</v>
+        <v>360</v>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>Acute Urinary tract infections UTI</t>
+          <t>Pleural Effusion</t>
         </is>
       </c>
       <c r="C98">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="99">
       <c r="A99">
-        <v>412</v>
+        <v>362</v>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>Transverse myelitis indexed on diagnosis (1Ps, 0Era, 365W)</t>
+          <t>Acute Kidney Injury AKI</t>
         </is>
       </c>
       <c r="C99">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="100">
       <c r="A100">
-        <v>414</v>
+        <v>365</v>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>Acute Skin Eruption symptoms</t>
+          <t>Dysuria</t>
         </is>
       </c>
       <c r="C100">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="101">
       <c r="A101">
-        <v>416</v>
+        <v>370</v>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>Skin Rash</t>
+          <t>Allergic disorder</t>
         </is>
       </c>
       <c r="C101">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102">
       <c r="A102">
-        <v>417</v>
+        <v>371</v>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>Acute gastrointestinal bleeding events</t>
+          <t>Claudication Pain</t>
         </is>
       </c>
       <c r="C102">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103">
       <c r="A103">
-        <v>466</v>
+        <v>372</v>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>Atopic dermatitis</t>
+          <t>Otitis media</t>
         </is>
       </c>
       <c r="C103">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104">
       <c r="A104">
-        <v>470</v>
+        <v>373</v>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>Chronic lymphoid leukemia, disease</t>
+          <t>Iron deficiency Anemia</t>
         </is>
       </c>
       <c r="C104">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105">
       <c r="A105">
-        <v>521</v>
+        <v>375</v>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>Asthma</t>
+          <t>Gall stone disorder</t>
         </is>
       </c>
       <c r="C105">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106">
       <c r="A106">
-        <v>533</v>
+        <v>379</v>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>Otitis media</t>
+          <t>Ecchymosis</t>
         </is>
       </c>
       <c r="C106">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="107">
       <c r="A107">
-        <v>591</v>
+        <v>381</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>Autism spectrum disorder</t>
+          <t>Skin Itching</t>
         </is>
       </c>
       <c r="C107">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="108">
       <c r="A108">
-        <v>667</v>
+        <v>382</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>Guttate psoriasis</t>
+          <t>Prurititc Rash</t>
         </is>
       </c>
       <c r="C108">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="109">
       <c r="A109">
-        <v>690</v>
+        <v>383</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>Suicide</t>
+          <t>Eczematous Atopic Dermatitis and non hyperkeratotic dermatosis</t>
         </is>
       </c>
       <c r="C109">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="110">
       <c r="A110">
-        <v>691</v>
+        <v>389</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis</t>
+          <t>Peripheral Neuropathy or Neuritits</t>
         </is>
       </c>
       <c r="C110">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="111">
       <c r="A111">
-        <v>692</v>
+        <v>391</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>Transverse myelitis indexed on diagnosis</t>
+          <t>Hearing Loss</t>
         </is>
       </c>
       <c r="C111">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="112">
       <c r="A112">
-        <v>693</v>
+        <v>392</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>Acquired Neutropenia or unspecified leukopenia</t>
+          <t>Otalgia or Otitis</t>
         </is>
       </c>
       <c r="C112">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="113">
       <c r="A113">
-        <v>694</v>
+        <v>393</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>Appendicitis during Inpatient visit</t>
+          <t>Low Back Pain or Injury</t>
         </is>
       </c>
       <c r="C113">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="114">
       <c r="A114">
-        <v>707</v>
+        <v>394</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
+          <t>Gastroesophageal reflux disease</t>
         </is>
       </c>
       <c r="C114">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="115">
       <c r="A115">
-        <v>713</v>
+        <v>395</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>Alcoholic hepatitis or alcohol liver disorder</t>
+          <t>Dysmenorrhea</t>
         </is>
       </c>
       <c r="C115">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="116">
       <c r="A116">
-        <v>720</v>
+        <v>398</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>Aplastic Anemia</t>
+          <t>Bladder Outflow Obstruction</t>
         </is>
       </c>
       <c r="C116">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="117">
       <c r="A117">
-        <v>722</v>
+        <v>401</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>Endometriosis</t>
+          <t>Uterine Fibroids or benign uterine tumors</t>
         </is>
       </c>
       <c r="C117">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="118">
       <c r="A118">
-        <v>723</v>
+        <v>403</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure</t>
+          <t>Acute Respiratory Failure in inpatient or Emergency room</t>
         </is>
       </c>
       <c r="C118">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="119">
       <c r="A119">
-        <v>724</v>
+        <v>404</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>Ventricular Tachycardia, in an Inpatient or Emergency room setting</t>
         </is>
       </c>
       <c r="C119">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="120">
       <c r="A120">
-        <v>725</v>
+        <v>405</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>All events of Acute Kidney Injury (AKI)</t>
+          <t>Atrial Fibrillation or Flutter</t>
         </is>
       </c>
       <c r="C120">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="121">
       <c r="A121">
-        <v>726</v>
+        <v>410</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>All events of Anaphylaxis, Mini-Sentinel</t>
+          <t>Acute Urinary tract infections UTI</t>
         </is>
       </c>
       <c r="C121">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="122">
       <c r="A122">
-        <v>727</v>
+        <v>411</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>Angioedema</t>
+          <t>Sepsis or Septic Shock</t>
         </is>
       </c>
       <c r="C122">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="123">
       <c r="A123">
-        <v>728</v>
+        <v>412</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>Autoimmune hemolytic anemia</t>
+          <t>Transverse myelitis indexed on diagnosis (1Ps, 0Era, 365W)</t>
         </is>
       </c>
       <c r="C123">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="124">
       <c r="A124">
-        <v>729</v>
+        <v>414</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
+          <t>Acute Skin Eruption symptoms</t>
         </is>
       </c>
       <c r="C124">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="125">
       <c r="A125">
-        <v>730</v>
+        <v>416</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>All events Acute pancreatitis, indexed on visit with NO chronic or hereditary pancreatitis</t>
+          <t>Skin Rash</t>
         </is>
       </c>
       <c r="C125">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="126">
       <c r="A126">
-        <v>731</v>
+        <v>417</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
+          <t>Acute gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C126">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="127">
       <c r="A127">
-        <v>732</v>
+        <v>466</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
+          <t>Atopic dermatitis</t>
         </is>
       </c>
       <c r="C127">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="128">
       <c r="A128">
-        <v>733</v>
+        <v>470</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Chronic lymphoid leukemia, disease</t>
         </is>
       </c>
       <c r="C128">
-        <v>365</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="129">
       <c r="A129">
-        <v>734</v>
+        <v>521</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
+          <t>Asthma</t>
         </is>
       </c>
       <c r="C129">
@@ -2076,63 +2076,63 @@
     </row>
     <row r="130">
       <c r="A130">
-        <v>735</v>
+        <v>533</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury</t>
+          <t>Otitis media</t>
         </is>
       </c>
       <c r="C130">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="131">
       <c r="A131">
-        <v>736</v>
+        <v>591</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
+          <t>Autism spectrum disorder</t>
         </is>
       </c>
       <c r="C131">
-        <v>90</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="132">
       <c r="A132">
-        <v>737</v>
+        <v>667</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>Neutropenic Fever, Inpatient or ER, indexed on fever or Infection, 90 days era</t>
+          <t>Guttate psoriasis</t>
         </is>
       </c>
       <c r="C132">
-        <v>180</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="133">
       <c r="A133">
-        <v>738</v>
+        <v>690</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>Autoimmune hemolytic anemia</t>
+          <t>Suicide</t>
         </is>
       </c>
       <c r="C133">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="134">
       <c r="A134">
-        <v>739</v>
+        <v>691</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
+          <t>Transverse myelitis or symptoms indexed on symptoms or diagnosis</t>
         </is>
       </c>
       <c r="C134">
@@ -2141,37 +2141,37 @@
     </row>
     <row r="135">
       <c r="A135">
-        <v>740</v>
+        <v>692</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension (PAH)</t>
+          <t>Transverse myelitis indexed on diagnosis</t>
         </is>
       </c>
       <c r="C135">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="136">
       <c r="A136">
-        <v>741</v>
+        <v>693</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
+          <t>Acquired Neutropenia or unspecified leukopenia</t>
         </is>
       </c>
       <c r="C136">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="137">
       <c r="A137">
-        <v>742</v>
+        <v>694</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>Parasomnia or Sleep dysfunction with arousal disturbance</t>
+          <t>Appendicitis during Inpatient visit</t>
         </is>
       </c>
       <c r="C137">
@@ -2180,2091 +2180,2091 @@
     </row>
     <row r="138">
       <c r="A138">
-        <v>743</v>
+        <v>702</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>Diabetic ketoacidosis identified during the inpatient or emergency room SNOMED concept</t>
+          <t>Alanine aminotransferase (ALT) elevated</t>
         </is>
       </c>
       <c r="C138">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="139">
       <c r="A139">
-        <v>744</v>
+        <v>703</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>Pulmonary Hypertension</t>
+          <t>Aspartate aminotransferase (AST) elevated</t>
         </is>
       </c>
       <c r="C139">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="140">
       <c r="A140">
-        <v>745</v>
+        <v>705</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Total Bilirubin elevated</t>
         </is>
       </c>
       <c r="C140">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="141">
       <c r="A141">
-        <v>746</v>
+        <v>706</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
+          <t>Prothrombin time (PT) elevated</t>
         </is>
       </c>
       <c r="C141">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="142">
       <c r="A142">
-        <v>747</v>
+        <v>707</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>Pulmonary Arterial Hypertension</t>
+          <t>Inpatient Hospitalization (0Pe, 1Era)</t>
         </is>
       </c>
       <c r="C142">
-        <v>9999</v>
+        <v>1</v>
       </c>
     </row>
     <row r="143">
       <c r="A143">
-        <v>748</v>
+        <v>710</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>Psoriatic arthritis</t>
+          <t>Cirrhosis of liver or its sequela</t>
         </is>
       </c>
       <c r="C143">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="144">
       <c r="A144">
-        <v>749</v>
+        <v>712</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>Plaque Psoriasis</t>
+          <t>Viral hepatitis including history of</t>
         </is>
       </c>
       <c r="C144">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="145">
       <c r="A145">
-        <v>750</v>
+        <v>715</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Hepatic fibrosis</t>
         </is>
       </c>
       <c r="C145">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="146">
       <c r="A146">
-        <v>751</v>
+        <v>716</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Acute Hepatic Injury</t>
         </is>
       </c>
       <c r="C146">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="147">
       <c r="A147">
-        <v>752</v>
+        <v>717</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>Firearm Accidents (FA)</t>
+          <t>Portal vein thrombosis</t>
         </is>
       </c>
       <c r="C147">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="148">
       <c r="A148">
-        <v>753</v>
+        <v>720</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>Motor Vehicle Accidents (MVA)</t>
+          <t>Aplastic Anemia</t>
         </is>
       </c>
       <c r="C148">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="149">
       <c r="A149">
-        <v>754</v>
+        <v>722</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>Down Syndrome</t>
+          <t>Endometriosis</t>
         </is>
       </c>
       <c r="C149">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="150">
       <c r="A150">
-        <v>755</v>
+        <v>723</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>Non-infectious uveitis and iridocyclitis</t>
+          <t>Earliest event of Acute Hepatic Failure</t>
         </is>
       </c>
       <c r="C150">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151">
       <c r="A151">
-        <v>756</v>
+        <v>724</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>Cystic Fibrosis</t>
+          <t>Earliest event of Acute Hepatic Failure, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C151">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152">
       <c r="A152">
-        <v>757</v>
+        <v>725</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>All events of Acute Kidney Injury (AKI)</t>
         </is>
       </c>
       <c r="C152">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153">
       <c r="A153">
-        <v>759</v>
+        <v>726</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
+          <t>All events of Anaphylaxis, Mini-Sentinel</t>
         </is>
       </c>
       <c r="C153">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="154">
       <c r="A154">
-        <v>760</v>
+        <v>727</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>Angioedema</t>
         </is>
       </c>
       <c r="C154">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="155">
       <c r="A155">
-        <v>761</v>
+        <v>728</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
+          <t>Autoimmune hemolytic anemia</t>
         </is>
       </c>
       <c r="C155">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="156">
       <c r="A156">
-        <v>762</v>
+        <v>729</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>Endothelin receptor antagonists</t>
+          <t>All events of Autoimmune hepatitis, with a washout period of 365 days</t>
         </is>
       </c>
       <c r="C156">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="157">
       <c r="A157">
-        <v>763</v>
+        <v>730</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
+          <t>All events Acute pancreatitis, indexed on visit with NO chronic or hereditary pancreatitis</t>
         </is>
       </c>
       <c r="C157">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158">
       <c r="A158">
-        <v>764</v>
+        <v>731</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
+          <t>All events of Sudden Hearing Loss, No congenital anomaly or middle or inner ear conditions</t>
         </is>
       </c>
       <c r="C158">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159">
       <c r="A159">
-        <v>765</v>
+        <v>732</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>Left Heart Failure</t>
+          <t>All events of Severe Cutaneous Adverse Reaction (SCAR = SJS+TEN+DRESS)</t>
         </is>
       </c>
       <c r="C159">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="160">
       <c r="A160">
-        <v>766</v>
+        <v>733</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>Right Heart Failure</t>
+          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
         </is>
       </c>
       <c r="C160">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161">
       <c r="A161">
-        <v>767</v>
+        <v>734</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>Sarcoidosis</t>
+          <t>All events Drug Rash with Eosinophilia and Systemic Symptoms (DRESS)</t>
         </is>
       </c>
       <c r="C161">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162">
       <c r="A162">
-        <v>768</v>
+        <v>735</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>Sickle Cell Anemia</t>
+          <t>All events of Acute Liver Injury</t>
         </is>
       </c>
       <c r="C162">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="163">
       <c r="A163">
-        <v>769</v>
+        <v>736</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>Scleroderma</t>
+          <t>All events of Acute Liver Injury, NO viral hepatitis or alcoholic hepatic failure</t>
         </is>
       </c>
       <c r="C163">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="164">
       <c r="A164">
-        <v>770</v>
+        <v>737</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>Essential Hypertension</t>
+          <t>Neutropenic Fever, Inpatient or ER, indexed on fever or Infection, 90 days era</t>
         </is>
       </c>
       <c r="C164">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="165">
       <c r="A165">
-        <v>771</v>
+        <v>738</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Autoimmune hemolytic anemia</t>
         </is>
       </c>
       <c r="C165">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="166">
       <c r="A166">
-        <v>772</v>
+        <v>739</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Isolated Immune Thrombocytopenia (ITP), with a washout period of 365 days</t>
         </is>
       </c>
       <c r="C166">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167">
       <c r="A167">
-        <v>773</v>
+        <v>740</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>Congenital Heart Disease</t>
+          <t>Pulmonary arterial hypertension (PAH)</t>
         </is>
       </c>
       <c r="C167">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168">
       <c r="A168">
-        <v>774</v>
+        <v>741</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>Portal Hypertension</t>
+          <t>Earliest event of Thrombotic microangiopathy (TMA) or Microangiopathic hemolytic anemia (MAHA)</t>
         </is>
       </c>
       <c r="C168">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169">
       <c r="A169">
-        <v>775</v>
+        <v>742</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Parasomnia or Sleep dysfunction with arousal disturbance</t>
         </is>
       </c>
       <c r="C169">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="170">
       <c r="A170">
-        <v>776</v>
+        <v>743</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>Antisynthetase syndrome</t>
+          <t>Diabetic ketoacidosis identified during the inpatient or emergency room SNOMED concept</t>
         </is>
       </c>
       <c r="C170">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171">
       <c r="A171">
-        <v>777</v>
+        <v>744</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>Mixed connective tissue disease</t>
+          <t>Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C171">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172">
       <c r="A172">
-        <v>778</v>
+        <v>745</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>Undifferentiated connective tissue disease</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
       <c r="C172">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173">
       <c r="A173">
-        <v>779</v>
+        <v>746</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>Overlap syndrome</t>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C173">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174">
       <c r="A174">
-        <v>780</v>
+        <v>747</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
+          <t>Pulmonary Arterial Hypertension</t>
         </is>
       </c>
       <c r="C174">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175">
       <c r="A175">
-        <v>781</v>
+        <v>748</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Antiphospholipid syndrome</t>
+          <t>Psoriatic arthritis</t>
         </is>
       </c>
       <c r="C175">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176">
       <c r="A176">
-        <v>782</v>
+        <v>749</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
+          <t>Plaque Psoriasis</t>
         </is>
       </c>
       <c r="C176">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177">
       <c r="A177">
-        <v>783</v>
+        <v>750</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pulmonary endarterectomy</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C177">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178">
       <c r="A178">
-        <v>784</v>
+        <v>751</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Balloon Pulmonary Angioplasty</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C178">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>785</v>
+        <v>752</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Skin Burns</t>
+          <t>Firearm Accidents (FA)</t>
         </is>
       </c>
       <c r="C179">
-        <v>365</v>
+        <v>30</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>786</v>
+        <v>753</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Non-small cell lung cancer (NSCLC)</t>
+          <t>Motor Vehicle Accidents (MVA)</t>
         </is>
       </c>
       <c r="C180">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>787</v>
+        <v>754</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Lung cancer</t>
+          <t>Down Syndrome</t>
         </is>
       </c>
       <c r="C181">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182">
       <c r="A182">
-        <v>788</v>
+        <v>755</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Breast cancer</t>
+          <t>Non-infectious uveitis and iridocyclitis</t>
         </is>
       </c>
       <c r="C182">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183">
       <c r="A183">
-        <v>789</v>
+        <v>756</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Glioblastoma multiforme (GBM)</t>
+          <t>Cystic Fibrosis</t>
         </is>
       </c>
       <c r="C183">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184">
       <c r="A184">
-        <v>790</v>
+        <v>757</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Colorectal Cancer</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C184">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185">
       <c r="A185">
-        <v>791</v>
+        <v>759</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Multiple Myeloma</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C185">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186">
       <c r="A186">
-        <v>792</v>
+        <v>760</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
+          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C186">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187">
       <c r="A187">
-        <v>793</v>
+        <v>761</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
+          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
         </is>
       </c>
       <c r="C187">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188">
       <c r="A188">
-        <v>794</v>
+        <v>762</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Hemorrhage of digestive system</t>
+          <t>Endothelin receptor antagonists</t>
         </is>
       </c>
       <c r="C188">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189">
       <c r="A189">
-        <v>795</v>
+        <v>763</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Antineoplastic drugs against colorectal cancer</t>
+          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
         </is>
       </c>
       <c r="C189">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190">
       <c r="A190">
-        <v>796</v>
+        <v>764</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Potential curative surgery for colorectal cancer</t>
+          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
         </is>
       </c>
       <c r="C190">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191">
       <c r="A191">
-        <v>797</v>
+        <v>765</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Radiotherapy against colorectal cancer</t>
+          <t>Left Heart Failure</t>
         </is>
       </c>
       <c r="C191">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192">
       <c r="A192">
-        <v>798</v>
+        <v>766</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum</t>
+          <t>Right Heart Failure</t>
         </is>
       </c>
       <c r="C192">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193">
       <c r="A193">
-        <v>802</v>
+        <v>767</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure</t>
+          <t>Sarcoidosis</t>
         </is>
       </c>
       <c r="C193">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194">
       <c r="A194">
-        <v>803</v>
+        <v>768</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Fascial dehiscence and evisceration</t>
+          <t>Sickle Cell Anemia</t>
         </is>
       </c>
       <c r="C194">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195">
       <c r="A195">
-        <v>804</v>
+        <v>769</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Anastomotic leak or dehiscence</t>
+          <t>Scleroderma</t>
         </is>
       </c>
       <c r="C195">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196">
       <c r="A196">
-        <v>805</v>
+        <v>770</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Essential Hypertension</t>
         </is>
       </c>
       <c r="C196">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197">
       <c r="A197">
-        <v>806</v>
+        <v>771</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Intraabdominal abscess</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C197">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198">
       <c r="A198">
-        <v>807</v>
+        <v>772</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Perioperative aspiration</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C198">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199">
       <c r="A199">
-        <v>808</v>
+        <v>773</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Postoperative hemorrhage</t>
+          <t>Congenital Heart Disease</t>
         </is>
       </c>
       <c r="C199">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200">
       <c r="A200">
-        <v>809</v>
+        <v>774</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Surgical wound infection (narrow)</t>
+          <t>Portal Hypertension</t>
         </is>
       </c>
       <c r="C200">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="201">
       <c r="A201">
-        <v>810</v>
+        <v>775</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (wide)</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
       <c r="C201">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="202">
       <c r="A202">
-        <v>811</v>
+        <v>776</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Local recurrence after colorectal cancer</t>
+          <t>Antisynthetase syndrome</t>
         </is>
       </c>
       <c r="C202">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="203">
       <c r="A203">
-        <v>812</v>
+        <v>777</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Mixed connective tissue disease</t>
         </is>
       </c>
       <c r="C203">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="204">
       <c r="A204">
-        <v>813</v>
+        <v>778</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
+          <t>Undifferentiated connective tissue disease</t>
         </is>
       </c>
       <c r="C204">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="205">
       <c r="A205">
-        <v>814</v>
+        <v>779</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Overlap syndrome</t>
         </is>
       </c>
       <c r="C205">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="206">
       <c r="A206">
-        <v>817</v>
+        <v>780</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
         </is>
       </c>
       <c r="C206">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>818</v>
+        <v>781</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Antiphospholipid syndrome</t>
         </is>
       </c>
       <c r="C207">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>819</v>
+        <v>782</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C208">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>820</v>
+        <v>783</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
+          <t>Pulmonary endarterectomy</t>
         </is>
       </c>
       <c r="C209">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>821</v>
+        <v>784</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>Balloon Pulmonary Angioplasty</t>
         </is>
       </c>
       <c r="C210">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>822</v>
+        <v>785</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>Skin Burns</t>
         </is>
       </c>
       <c r="C211">
-        <v>9999</v>
+        <v>365</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>823</v>
+        <v>786</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
+          <t>Non-small cell lung cancer (NSCLC)</t>
         </is>
       </c>
       <c r="C212">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="213">
       <c r="A213">
-        <v>824</v>
+        <v>787</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
+          <t>Lung cancer</t>
         </is>
       </c>
       <c r="C213">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="214">
       <c r="A214">
-        <v>825</v>
+        <v>788</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon</t>
+          <t>Breast cancer</t>
         </is>
       </c>
       <c r="C214">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="215">
       <c r="A215">
-        <v>826</v>
+        <v>789</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
+          <t>Glioblastoma multiforme (GBM)</t>
         </is>
       </c>
       <c r="C215">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="216">
       <c r="A216">
-        <v>827</v>
+        <v>790</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon surgical treatment</t>
+          <t>Colorectal Cancer</t>
         </is>
       </c>
       <c r="C216">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="217">
       <c r="A217">
-        <v>828</v>
+        <v>791</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
+          <t>Multiple Myeloma</t>
         </is>
       </c>
       <c r="C217">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>829</v>
+        <v>792</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
         </is>
       </c>
       <c r="C218">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="219">
       <c r="A219">
-        <v>830</v>
+        <v>793</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
         </is>
       </c>
       <c r="C219">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="220">
       <c r="A220">
-        <v>831</v>
+        <v>794</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>Hemorrhage of digestive system</t>
         </is>
       </c>
       <c r="C220">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>832</v>
+        <v>795</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>Antineoplastic drugs against colorectal cancer</t>
         </is>
       </c>
       <c r="C221">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222">
       <c r="A222">
-        <v>833</v>
+        <v>796</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
+          <t>Potential curative surgery for colorectal cancer</t>
         </is>
       </c>
       <c r="C222">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223">
       <c r="A223">
-        <v>834</v>
+        <v>797</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
+          <t>Radiotherapy against colorectal cancer</t>
         </is>
       </c>
       <c r="C223">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224">
       <c r="A224">
-        <v>835</v>
+        <v>798</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of the colon or rectum</t>
         </is>
       </c>
       <c r="C224">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225">
       <c r="A225">
-        <v>836</v>
+        <v>802</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C225">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226">
       <c r="A226">
-        <v>837</v>
+        <v>803</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum</t>
+          <t>Fascial dehiscence and evisceration</t>
         </is>
       </c>
       <c r="C226">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227">
       <c r="A227">
-        <v>838</v>
+        <v>804</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
+          <t>Anastomotic leak or dehiscence</t>
         </is>
       </c>
       <c r="C227">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228">
       <c r="A228">
-        <v>839</v>
+        <v>805</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C228">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229">
       <c r="A229">
-        <v>840</v>
+        <v>806</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Intraabdominal abscess</t>
         </is>
       </c>
       <c r="C229">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230">
       <c r="A230">
-        <v>841</v>
+        <v>807</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>Perioperative aspiration</t>
         </is>
       </c>
       <c r="C230">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231">
       <c r="A231">
-        <v>842</v>
+        <v>808</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Postoperative hemorrhage</t>
         </is>
       </c>
       <c r="C231">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232">
       <c r="A232">
-        <v>843</v>
+        <v>809</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>Surgical wound infection (narrow)</t>
         </is>
       </c>
       <c r="C232">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233">
       <c r="A233">
-        <v>844</v>
+        <v>810</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
+          <t>Distant metastasis following colorectal cancer (wide)</t>
         </is>
       </c>
       <c r="C233">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234">
       <c r="A234">
-        <v>845</v>
+        <v>811</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
+          <t>Local recurrence after colorectal cancer</t>
         </is>
       </c>
       <c r="C234">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235">
       <c r="A235">
-        <v>846</v>
+        <v>812</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C235">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236">
       <c r="A236">
-        <v>847</v>
+        <v>813</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum surgical treatment</t>
+          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C236">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237">
       <c r="A237">
-        <v>848</v>
+        <v>814</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C237">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238">
       <c r="A238">
-        <v>850</v>
+        <v>817</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C238">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239">
       <c r="A239">
-        <v>851</v>
+        <v>818</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Intraabdominal obstruction</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C239">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240">
       <c r="A240">
-        <v>852</v>
+        <v>819</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Surgical wound infection (broad)</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
         </is>
       </c>
       <c r="C240">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241">
       <c r="A241">
-        <v>854</v>
+        <v>820</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (medium)</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
         </is>
       </c>
       <c r="C241">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242">
       <c r="A242">
-        <v>855</v>
+        <v>821</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (narrow)</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C242">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243">
       <c r="A243">
-        <v>856</v>
+        <v>822</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine, including history of migraine</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C243">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244">
       <c r="A244">
-        <v>857</v>
+        <v>823</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
         </is>
       </c>
       <c r="C244">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245">
       <c r="A245">
-        <v>858</v>
+        <v>824</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C245">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246">
       <c r="A246">
-        <v>859</v>
+        <v>825</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Primary adenocarcinoma of colon</t>
         </is>
       </c>
       <c r="C246">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247">
       <c r="A247">
-        <v>860</v>
+        <v>826</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Earliest event of Ulcerative colitis</t>
+          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C247">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248">
       <c r="A248">
-        <v>861</v>
+        <v>827</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Earliest event of Urinary tract infections (UTI)</t>
+          <t>Primary adenocarcinoma of colon surgical treatment</t>
         </is>
       </c>
       <c r="C248">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249">
       <c r="A249">
-        <v>862</v>
+        <v>828</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C249">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250">
       <c r="A250">
-        <v>863</v>
+        <v>829</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Cognitive impairment, incident</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C250">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251">
       <c r="A251">
-        <v>864</v>
+        <v>830</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Earliest event of Dementia</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
         </is>
       </c>
       <c r="C251">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252">
       <c r="A252">
-        <v>865</v>
+        <v>831</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Non-Emergent Major Non Cardiac Surgery</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C252">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253">
       <c r="A253">
-        <v>866</v>
+        <v>832</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>AAA repair</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C253">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254">
       <c r="A254">
-        <v>867</v>
+        <v>833</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Lower Extremity Bypass</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C254">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255">
       <c r="A255">
-        <v>868</v>
+        <v>834</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Carotid Endarterectomy</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C255">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256">
       <c r="A256">
-        <v>869</v>
+        <v>835</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Lung Resection</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C256">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257">
       <c r="A257">
-        <v>870</v>
+        <v>836</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Esophagectomy</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C257">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258">
       <c r="A258">
-        <v>871</v>
+        <v>837</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Pancreatectomy</t>
+          <t>Primary adenocarcinoma of rectum</t>
         </is>
       </c>
       <c r="C258">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259">
       <c r="A259">
-        <v>872</v>
+        <v>838</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Colectomy</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C259">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260">
       <c r="A260">
-        <v>873</v>
+        <v>839</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Cystectomy</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C260">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261">
       <c r="A261">
-        <v>874</v>
+        <v>840</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Nephrectomy</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C261">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262">
       <c r="A262">
-        <v>875</v>
+        <v>841</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Coronary Artery Bypass Graft Surgery</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C262">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263">
       <c r="A263">
-        <v>876</v>
+        <v>842</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Aortic or Mitral Valve Repair or Replacement'</t>
+          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C263">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264">
       <c r="A264">
-        <v>877</v>
+        <v>843</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C264">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265">
       <c r="A265">
-        <v>878</v>
+        <v>844</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
         </is>
       </c>
       <c r="C265">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266">
       <c r="A266">
-        <v>881</v>
+        <v>845</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction events</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C266">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267">
       <c r="A267">
-        <v>882</v>
+        <v>846</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Persons with decreased libido</t>
+          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C267">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268">
       <c r="A268">
-        <v>884</v>
+        <v>847</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Diarrhea events</t>
+          <t>Primary adenocarcinoma of rectum surgical treatment</t>
         </is>
       </c>
       <c r="C268">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269">
       <c r="A269">
-        <v>888</v>
+        <v>848</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Gastrointestinal bleeding events</t>
+          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C269">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270">
       <c r="A270">
-        <v>889</v>
+        <v>850</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Hyponatremia events</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C270">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271">
       <c r="A271">
-        <v>890</v>
+        <v>851</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Hypotension events</t>
+          <t>Intraabdominal obstruction</t>
         </is>
       </c>
       <c r="C271">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272">
       <c r="A272">
-        <v>891</v>
+        <v>852</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Nausea events</t>
+          <t>Surgical wound infection (broad)</t>
         </is>
       </c>
       <c r="C272">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273">
       <c r="A273">
-        <v>892</v>
+        <v>854</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
+          <t>Distant metastasis following colorectal cancer (medium)</t>
         </is>
       </c>
       <c r="C273">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274">
       <c r="A274">
-        <v>893</v>
+        <v>855</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Persons with vertigo</t>
+          <t>Distant metastasis following colorectal cancer (narrow)</t>
         </is>
       </c>
       <c r="C274">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275">
       <c r="A275">
-        <v>894</v>
+        <v>856</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Abdominal pain events</t>
+          <t>Earliest event of Migraine, including history of migraine</t>
         </is>
       </c>
       <c r="C275">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276">
       <c r="A276">
-        <v>895</v>
+        <v>857</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Abnormal weight gain events</t>
+          <t>Earliest event of Migraine</t>
         </is>
       </c>
       <c r="C276">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277">
       <c r="A277">
-        <v>896</v>
+        <v>858</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Abnormal weight loss events</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
       <c r="C277">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278">
       <c r="A278">
-        <v>898</v>
+        <v>859</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Acute renal failure events</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
       <c r="C278">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279">
       <c r="A279">
-        <v>900</v>
+        <v>860</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Anaphylactoid reaction events</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
       <c r="C279">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280">
       <c r="A280">
-        <v>901</v>
+        <v>861</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Persons with anemia</t>
+          <t>Earliest event of Urinary tract infections (UTI)</t>
         </is>
       </c>
       <c r="C280">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281">
       <c r="A281">
-        <v>917</v>
+        <v>862</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Persons with anxiety</t>
+          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
         </is>
       </c>
       <c r="C281">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282">
       <c r="A282">
-        <v>918</v>
+        <v>863</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Persons with bradycardia</t>
+          <t>Cognitive impairment, incident</t>
         </is>
       </c>
       <c r="C282">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283">
       <c r="A283">
-        <v>919</v>
+        <v>864</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Person with cardiac arrhythmia</t>
+          <t>Earliest event of Dementia</t>
         </is>
       </c>
       <c r="C283">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="284">
       <c r="A284">
-        <v>920</v>
+        <v>865</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+          <t>Non-Emergent Major Non Cardiac Surgery</t>
         </is>
       </c>
       <c r="C284">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285">
       <c r="A285">
-        <v>921</v>
+        <v>866</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>Cardiovascular-related mortality</t>
+          <t>AAA repair</t>
         </is>
       </c>
       <c r="C285">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="286">
       <c r="A286">
-        <v>922</v>
+        <v>867</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Persons with chest pain or angina</t>
+          <t>Lower Extremity Bypass</t>
         </is>
       </c>
       <c r="C286">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="287">
       <c r="A287">
-        <v>923</v>
+        <v>868</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Carotid Endarterectomy</t>
         </is>
       </c>
       <c r="C287">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="288">
       <c r="A288">
-        <v>924</v>
+        <v>869</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
+          <t>Lung Resection</t>
         </is>
       </c>
       <c r="C288">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="289">
       <c r="A289">
-        <v>925</v>
+        <v>870</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Cough events</t>
+          <t>Esophagectomy</t>
         </is>
       </c>
       <c r="C289">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290">
       <c r="A290">
-        <v>927</v>
+        <v>871</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Persons with dementia</t>
+          <t>Pancreatectomy</t>
         </is>
       </c>
       <c r="C290">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="291">
       <c r="A291">
-        <v>928</v>
+        <v>872</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Persons with depression</t>
+          <t>Colectomy</t>
         </is>
       </c>
       <c r="C291">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="292">
       <c r="A292">
-        <v>929</v>
+        <v>873</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Edema events</t>
+          <t>Cystectomy</t>
         </is>
       </c>
       <c r="C292">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="293">
       <c r="A293">
-        <v>930</v>
+        <v>874</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Persons with end stage renal disease</t>
+          <t>Nephrectomy</t>
         </is>
       </c>
       <c r="C293">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="294">
       <c r="A294">
-        <v>931</v>
+        <v>875</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Fall events</t>
+          <t>Coronary Artery Bypass Graft Surgery</t>
         </is>
       </c>
       <c r="C294">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="295">
       <c r="A295">
-        <v>932</v>
+        <v>876</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Persons with gout</t>
+          <t>Aortic or Mitral Valve Repair or Replacement'</t>
         </is>
       </c>
       <c r="C295">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>933</v>
+        <v>877</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Headache events</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
         </is>
       </c>
       <c r="C296">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="297">
       <c r="A297">
-        <v>934</v>
+        <v>878</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
         </is>
       </c>
       <c r="C297">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>935</v>
+        <v>881</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
+          <t>Acute myocardial infarction events</t>
         </is>
       </c>
       <c r="C298">
@@ -4273,24 +4273,24 @@
     </row>
     <row r="299">
       <c r="A299">
-        <v>936</v>
+        <v>882</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Persons with hepatic failure</t>
+          <t>Persons with decreased libido</t>
         </is>
       </c>
       <c r="C299">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>938</v>
+        <v>884</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Diarrhea events</t>
         </is>
       </c>
       <c r="C300">
@@ -4299,11 +4299,11 @@
     </row>
     <row r="301">
       <c r="A301">
-        <v>939</v>
+        <v>888</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Hospitalization with preinfarction syndrome events</t>
+          <t>Gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C301">
@@ -4312,11 +4312,11 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>940</v>
+        <v>889</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Hyperkalemia events</t>
+          <t>Hyponatremia events</t>
         </is>
       </c>
       <c r="C302">
@@ -4325,11 +4325,11 @@
     </row>
     <row r="303">
       <c r="A303">
-        <v>941</v>
+        <v>890</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Hypokalemia events</t>
+          <t>Hypotension events</t>
         </is>
       </c>
       <c r="C303">
@@ -4338,219 +4338,219 @@
     </row>
     <row r="304">
       <c r="A304">
-        <v>942</v>
+        <v>891</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Hypomagnesemia events</t>
+          <t>Nausea events</t>
         </is>
       </c>
       <c r="C304">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>943</v>
+        <v>892</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Persons with impotence</t>
+          <t>Stroke (ischemic or hemorrhagic) events</t>
         </is>
       </c>
       <c r="C305">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>944</v>
+        <v>893</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Ischemic stroke events</t>
+          <t>Persons with vertigo</t>
         </is>
       </c>
       <c r="C306">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>945</v>
+        <v>894</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
+          <t>Abdominal pain events</t>
         </is>
       </c>
       <c r="C307">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>946</v>
+        <v>895</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Persons with measured renal dysfunction</t>
+          <t>Abnormal weight gain events</t>
         </is>
       </c>
       <c r="C308">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>947</v>
+        <v>896</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Persons with neutropenia or agranulocytosis</t>
+          <t>Abnormal weight loss events</t>
         </is>
       </c>
       <c r="C309">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>948</v>
+        <v>898</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Rash events</t>
+          <t>Acute renal failure events</t>
         </is>
       </c>
       <c r="C310">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Rhabdomyolysis events</t>
+          <t>Anaphylactoid reaction events</t>
         </is>
       </c>
       <c r="C311">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="312">
       <c r="A312">
-        <v>953</v>
+        <v>901</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Sudden cardiac death events in inpatient</t>
+          <t>Persons with anemia</t>
         </is>
       </c>
       <c r="C312">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="313">
       <c r="A313">
-        <v>954</v>
+        <v>917</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Syncope events</t>
+          <t>Persons with anxiety</t>
         </is>
       </c>
       <c r="C313">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>955</v>
+        <v>918</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Persons with thrombocytopenia</t>
+          <t>Persons with bradycardia</t>
         </is>
       </c>
       <c r="C314">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="315">
       <c r="A315">
-        <v>956</v>
+        <v>919</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Transient ischemic attack events</t>
+          <t>Person with cardiac arrhythmia</t>
         </is>
       </c>
       <c r="C315">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="316">
       <c r="A316">
-        <v>957</v>
+        <v>920</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Persons with type 2 diabetes mellitus</t>
+          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C316">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>963</v>
+        <v>921</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Vomiting events</t>
+          <t>Cardiovascular-related mortality</t>
         </is>
       </c>
       <c r="C317">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>964</v>
+        <v>922</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
+          <t>Persons with chest pain or angina</t>
         </is>
       </c>
       <c r="C318">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>965</v>
+        <v>923</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C319">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="320">
       <c r="A320">
-        <v>967</v>
+        <v>924</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C320">
@@ -4559,11 +4559,11 @@
     </row>
     <row r="321">
       <c r="A321">
-        <v>976</v>
+        <v>925</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Glycemic control</t>
+          <t>Cough events</t>
         </is>
       </c>
       <c r="C321">
@@ -4572,37 +4572,37 @@
     </row>
     <row r="322">
       <c r="A322">
-        <v>979</v>
+        <v>927</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure indexed on hospitalization</t>
+          <t>Persons with dementia</t>
         </is>
       </c>
       <c r="C322">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="323">
       <c r="A323">
-        <v>980</v>
+        <v>928</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Coronary Vessel Revascularization</t>
+          <t>Persons with depression</t>
         </is>
       </c>
       <c r="C323">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>982</v>
+        <v>929</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
+          <t>Edema events</t>
         </is>
       </c>
       <c r="C324">
@@ -4611,102 +4611,102 @@
     </row>
     <row r="325">
       <c r="A325">
-        <v>986</v>
+        <v>930</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Acute pancreatitis2</t>
+          <t>Persons with end stage renal disease</t>
         </is>
       </c>
       <c r="C325">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>989</v>
+        <v>931</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Bladder Cancer</t>
+          <t>Fall events</t>
         </is>
       </c>
       <c r="C326">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>990</v>
+        <v>932</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Bone Fracture</t>
+          <t>Persons with gout</t>
         </is>
       </c>
       <c r="C327">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>991</v>
+        <v>933</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Breast cancer Malignant tumor of breast</t>
+          <t>Headache events</t>
         </is>
       </c>
       <c r="C328">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>992</v>
+        <v>934</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C329">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>993</v>
+        <v>935</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Diarrhea3</t>
+          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
         </is>
       </c>
       <c r="C330">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>994</v>
+        <v>936</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Genitourinary infection3</t>
+          <t>Persons with hepatic failure</t>
         </is>
       </c>
       <c r="C331">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>996</v>
+        <v>938</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Hypoglycemia</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C332">
@@ -4715,24 +4715,24 @@
     </row>
     <row r="333">
       <c r="A333">
-        <v>997</v>
+        <v>939</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Hypotension</t>
+          <t>Hospitalization with preinfarction syndrome events</t>
         </is>
       </c>
       <c r="C333">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>998</v>
+        <v>940</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Joint pain3</t>
+          <t>Hyperkalemia events</t>
         </is>
       </c>
       <c r="C334">
@@ -4741,245 +4741,245 @@
     </row>
     <row r="335">
       <c r="A335">
-        <v>999</v>
+        <v>941</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Lower extremity amputation</t>
+          <t>Hypokalemia events</t>
         </is>
       </c>
       <c r="C335">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>1000</v>
+        <v>942</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Nausea3</t>
+          <t>Hypomagnesemia events</t>
         </is>
       </c>
       <c r="C336">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>1001</v>
+        <v>943</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Peripheral edema</t>
+          <t>Persons with impotence</t>
         </is>
       </c>
       <c r="C337">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="338">
       <c r="A338">
-        <v>1002</v>
+        <v>944</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Photosensitivity</t>
+          <t>Ischemic stroke events</t>
         </is>
       </c>
       <c r="C338">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>1003</v>
+        <v>945</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Renal Cancer</t>
+          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
         </is>
       </c>
       <c r="C339">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>1004</v>
+        <v>946</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Thyroid tumor</t>
+          <t>Persons with measured renal dysfunction</t>
         </is>
       </c>
       <c r="C340">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>1005</v>
+        <v>947</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Venous thromboembolism</t>
+          <t>Persons with neutropenia or agranulocytosis</t>
         </is>
       </c>
       <c r="C341">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>1006</v>
+        <v>948</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Rash events</t>
         </is>
       </c>
       <c r="C342">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>1007</v>
+        <v>950</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Earliest event of Epilepsy</t>
+          <t>Rhabdomyolysis events</t>
         </is>
       </c>
       <c r="C343">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>1009</v>
+        <v>953</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Earliest event of Treatment resistant depression (TRD)</t>
+          <t>Sudden cardiac death events in inpatient</t>
         </is>
       </c>
       <c r="C344">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>1010</v>
+        <v>954</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
+          <t>Syncope events</t>
         </is>
       </c>
       <c r="C345">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>1011</v>
+        <v>955</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Earliest event of Marginal zone lymphoma</t>
+          <t>Persons with thrombocytopenia</t>
         </is>
       </c>
       <c r="C346">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>1012</v>
+        <v>956</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Earliest event of Waldenstrom macroglobulinemia</t>
+          <t>Transient ischemic attack events</t>
         </is>
       </c>
       <c r="C347">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>1013</v>
+        <v>957</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Earliest event of Ankylosing Spondylitis</t>
+          <t>Persons with type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C348">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>1015</v>
+        <v>963</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Earliest event of Pulmonary arterial hypertension (PAH)</t>
+          <t>Vomiting events</t>
         </is>
       </c>
       <c r="C349">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>1016</v>
+        <v>964</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
+          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
         </is>
       </c>
       <c r="C350">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>1017</v>
+        <v>965</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C351">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>1018</v>
+        <v>967</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C352">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>1019</v>
+        <v>976</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
+          <t>Glycemic control</t>
         </is>
       </c>
       <c r="C353">
@@ -4988,180 +4988,180 @@
     </row>
     <row r="354">
       <c r="A354">
-        <v>1020</v>
+        <v>979</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+          <t>Hospitalization with heart failure indexed on hospitalization</t>
         </is>
       </c>
       <c r="C354">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="355">
       <c r="A355">
-        <v>1021</v>
+        <v>980</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
+          <t>Coronary Vessel Revascularization</t>
         </is>
       </c>
       <c r="C355">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>1022</v>
+        <v>982</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Earliest event of Depressive and Sleep Disorder</t>
+          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
         </is>
       </c>
       <c r="C356">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>1023</v>
+        <v>986</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
+          <t>Acute pancreatitis2</t>
         </is>
       </c>
       <c r="C357">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>1024</v>
+        <v>989</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
+          <t>Bladder Cancer</t>
         </is>
       </c>
       <c r="C358">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>1025</v>
+        <v>990</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
+          <t>Bone Fracture</t>
         </is>
       </c>
       <c r="C359">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>1026</v>
+        <v>991</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Earliest Event of Multiple Sclerosis</t>
+          <t>Breast cancer Malignant tumor of breast</t>
         </is>
       </c>
       <c r="C360">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>1027</v>
+        <v>992</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
         </is>
       </c>
       <c r="C361">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>1028</v>
+        <v>993</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Earliest event of Urothelial carcinoma</t>
+          <t>Diarrhea3</t>
         </is>
       </c>
       <c r="C362">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>1029</v>
+        <v>994</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Earliest event of Mantle Cell Lymphoma</t>
+          <t>Genitourinary infection3</t>
         </is>
       </c>
       <c r="C363">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>1030</v>
+        <v>996</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Earliest event of Prostate cancer, among adult males</t>
+          <t>Hypoglycemia</t>
         </is>
       </c>
       <c r="C364">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>1031</v>
+        <v>997</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Earliest event of Coronary artery disease (CAD)</t>
+          <t>Hypotension</t>
         </is>
       </c>
       <c r="C365">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="366">
       <c r="A366">
-        <v>1032</v>
+        <v>998</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
+          <t>Joint pain3</t>
         </is>
       </c>
       <c r="C366">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>1033</v>
+        <v>999</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
+          <t>Lower extremity amputation</t>
         </is>
       </c>
       <c r="C367">
@@ -5170,11 +5170,11 @@
     </row>
     <row r="368">
       <c r="A368">
-        <v>1034</v>
+        <v>1000</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>All events of Respiratory syncytial virus infection, with 30 days washout</t>
+          <t>Nausea3</t>
         </is>
       </c>
       <c r="C368">
@@ -5183,730 +5183,1328 @@
     </row>
     <row r="369">
       <c r="A369">
-        <v>1035</v>
+        <v>1001</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics</t>
+          <t>Peripheral edema</t>
         </is>
       </c>
       <c r="C369">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1036</v>
+        <v>1002</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>New users of Beta blockers</t>
+          <t>Photosensitivity</t>
         </is>
       </c>
       <c r="C370">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1037</v>
+        <v>1003</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
       <c r="C371">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="372">
       <c r="A372">
-        <v>1038</v>
+        <v>1004</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists</t>
+          <t>Thyroid tumor</t>
         </is>
       </c>
       <c r="C372">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="373">
       <c r="A373">
-        <v>1039</v>
+        <v>1005</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors</t>
+          <t>Venous thromboembolism</t>
         </is>
       </c>
       <c r="C373">
-        <v>9999</v>
+        <v>180</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1040</v>
+        <v>1006</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
+          <t>Vomiting</t>
         </is>
       </c>
       <c r="C374">
-        <v>9999</v>
+        <v>30</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1041</v>
+        <v>1007</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors</t>
+          <t>Earliest event of Epilepsy</t>
         </is>
       </c>
       <c r="C375">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="376">
       <c r="A376">
-        <v>1042</v>
+        <v>1009</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors</t>
+          <t>Earliest event of Treatment resistant depression (TRD)</t>
         </is>
       </c>
       <c r="C376">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="377">
       <c r="A377">
-        <v>1043</v>
+        <v>1010</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic</t>
+          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
         </is>
       </c>
       <c r="C377">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="378">
       <c r="A378">
-        <v>1044</v>
+        <v>1011</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic</t>
+          <t>Earliest event of Marginal zone lymphoma</t>
         </is>
       </c>
       <c r="C378">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="379">
       <c r="A379">
-        <v>1045</v>
+        <v>1012</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic</t>
+          <t>Earliest event of Waldenstrom macroglobulinemia</t>
         </is>
       </c>
       <c r="C379">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1046</v>
+        <v>1013</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics nested in essential hypertension</t>
+          <t>Earliest event of Ankylosing Spondylitis</t>
         </is>
       </c>
       <c r="C380">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="381">
       <c r="A381">
-        <v>1047</v>
+        <v>1015</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
+          <t>Earliest event of Pulmonary arterial hypertension (PAH)</t>
         </is>
       </c>
       <c r="C381">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="382">
       <c r="A382">
-        <v>1048</v>
+        <v>1016</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers</t>
+          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
         </is>
       </c>
       <c r="C382">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="383">
       <c r="A383">
-        <v>1049</v>
+        <v>1017</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in essential hypertension</t>
+          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
         </is>
       </c>
       <c r="C383">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="384">
       <c r="A384">
-        <v>1050</v>
+        <v>1018</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Left Heart Failure</t>
+          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
         </is>
       </c>
       <c r="C384">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="385">
       <c r="A385">
-        <v>1051</v>
+        <v>1019</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
+          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
         </is>
       </c>
       <c r="C385">
-        <v>9999</v>
+        <v>90</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1052</v>
+        <v>1020</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
+          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
         </is>
       </c>
       <c r="C386">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="387">
       <c r="A387">
-        <v>1053</v>
+        <v>1021</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
+          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
         </is>
       </c>
       <c r="C387">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="388">
       <c r="A388">
-        <v>1054</v>
+        <v>1022</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
+          <t>Earliest event of Depressive and Sleep Disorder</t>
         </is>
       </c>
       <c r="C388">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="389">
       <c r="A389">
-        <v>1055</v>
+        <v>1023</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
+          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
         </is>
       </c>
       <c r="C389">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="390">
       <c r="A390">
-        <v>1056</v>
+        <v>1024</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
+          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
         </is>
       </c>
       <c r="C390">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="391">
       <c r="A391">
-        <v>1057</v>
+        <v>1025</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
+          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
         </is>
       </c>
       <c r="C391">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="392">
       <c r="A392">
-        <v>1058</v>
+        <v>1026</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
+          <t>Earliest Event of Multiple Sclerosis</t>
         </is>
       </c>
       <c r="C392">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="393">
       <c r="A393">
-        <v>1059</v>
+        <v>1027</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
+          <t>Earliest event of Chronic Leukocytic Leukemia</t>
         </is>
       </c>
       <c r="C393">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="394">
       <c r="A394">
-        <v>1060</v>
+        <v>1028</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
+          <t>Earliest event of Urothelial carcinoma</t>
         </is>
       </c>
       <c r="C394">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="395">
       <c r="A395">
-        <v>1061</v>
+        <v>1029</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
+          <t>Earliest event of Mantle Cell Lymphoma</t>
         </is>
       </c>
       <c r="C395">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="396">
       <c r="A396">
-        <v>1062</v>
+        <v>1030</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
+          <t>Earliest event of Prostate cancer, among adult males</t>
         </is>
       </c>
       <c r="C396">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="397">
       <c r="A397">
-        <v>1063</v>
+        <v>1031</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
+          <t>Earliest event of Coronary artery disease (CAD)</t>
         </is>
       </c>
       <c r="C397">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="398">
       <c r="A398">
-        <v>1064</v>
+        <v>1032</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
+          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
         </is>
       </c>
       <c r="C398">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="399">
       <c r="A399">
-        <v>1065</v>
+        <v>1033</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
+          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
         </is>
       </c>
       <c r="C399">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="400">
       <c r="A400">
-        <v>1066</v>
+        <v>1034</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
+          <t>All events of Respiratory syncytial virus infection, with 30 days washout</t>
         </is>
       </c>
       <c r="C400">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="401">
       <c r="A401">
-        <v>1067</v>
+        <v>1035</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
+          <t>New users of Thiazide diuretics</t>
         </is>
       </c>
       <c r="C401">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="402">
       <c r="A402">
-        <v>1068</v>
+        <v>1036</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
+          <t>New users of Beta blockers</t>
         </is>
       </c>
       <c r="C402">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="403">
       <c r="A403">
-        <v>1069</v>
+        <v>1037</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
+          <t>New users of SGLT2 inhibitor</t>
         </is>
       </c>
       <c r="C403">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="404">
       <c r="A404">
-        <v>1070</v>
+        <v>1038</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
+          <t>New users of GLP-1 receptor antagonists</t>
         </is>
       </c>
       <c r="C404">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="405">
       <c r="A405">
-        <v>1072</v>
+        <v>1039</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>Cytomegalovirus CMV Anterior Uveitis</t>
+          <t>New users of DPP-4 inhibitors</t>
         </is>
       </c>
       <c r="C405">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="406">
       <c r="A406">
-        <v>1073</v>
+        <v>1040</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
         </is>
       </c>
       <c r="C406">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="407">
       <c r="A407">
-        <v>1074</v>
+        <v>1041</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>Serious Infection</t>
+          <t>New users of JAK inhibitors</t>
         </is>
       </c>
       <c r="C407">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="408">
       <c r="A408">
-        <v>1075</v>
+        <v>1042</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>Narcolepsy</t>
+          <t>New users of IL-23 inhibitors</t>
         </is>
       </c>
       <c r="C408">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="409">
       <c r="A409">
-        <v>1076</v>
+        <v>1043</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>Anaphylaxis</t>
+          <t>New users of Fluoroquinolone systemic</t>
         </is>
       </c>
       <c r="C409">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="410">
       <c r="A410">
-        <v>1077</v>
+        <v>1044</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>Anaphylaxis v2</t>
+          <t>New users of Cephalosporin systemetic</t>
         </is>
       </c>
       <c r="C410">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="411">
       <c r="A411">
-        <v>1078</v>
+        <v>1045</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>Bells Palsy</t>
+          <t>New users of Trimethoprim systemetic</t>
         </is>
       </c>
       <c r="C411">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="412">
       <c r="A412">
-        <v>1079</v>
+        <v>1046</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>Encephalomyelitis</t>
+          <t>New users of Thiazide diuretics nested in essential hypertension</t>
         </is>
       </c>
       <c r="C412">
-        <v>183</v>
+        <v>0</v>
       </c>
     </row>
     <row r="413">
       <c r="A413">
-        <v>1080</v>
+        <v>1047</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>Guillain Barre Syndrome</t>
+          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
         </is>
       </c>
       <c r="C413">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="414">
       <c r="A414">
-        <v>1081</v>
+        <v>1048</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction</t>
+          <t>New users of dihydropyridine calcium channel blockers</t>
         </is>
       </c>
       <c r="C414">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="415">
       <c r="A415">
-        <v>1082</v>
+        <v>1049</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>Myocarditis Pericarditis</t>
+          <t>New users of Beta blockers nested in essential hypertension</t>
         </is>
       </c>
       <c r="C415">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="416">
       <c r="A416">
-        <v>1083</v>
+        <v>1050</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
+          <t>New users of Beta blockers nested in Left Heart Failure</t>
         </is>
       </c>
       <c r="C416">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="417">
       <c r="A417">
-        <v>1084</v>
+        <v>1051</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>Disseminated Intravascular Coagulation</t>
+          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
         </is>
       </c>
       <c r="C417">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="418">
       <c r="A418">
-        <v>1085</v>
+        <v>1052</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>Appendicitis</t>
+          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
         </is>
       </c>
       <c r="C418">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="419">
       <c r="A419">
-        <v>1086</v>
+        <v>1053</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>Transverse Myelitis</t>
+          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C419">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="420">
       <c r="A420">
-        <v>1087</v>
+        <v>1054</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>Hemorrhagic Stroke</t>
+          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C420">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="421">
       <c r="A421">
-        <v>1088</v>
+        <v>1055</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C421">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="422">
       <c r="A422">
-        <v>1089</v>
+        <v>1056</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>Non-hemorrhagic Stroke</t>
+          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
         </is>
       </c>
       <c r="C422">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="423">
       <c r="A423">
-        <v>1090</v>
+        <v>1057</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>Pulmonary Embolism</t>
+          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
         </is>
       </c>
       <c r="C423">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="424">
       <c r="A424">
+        <v>1058</v>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
+        </is>
+      </c>
+      <c r="C424">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425">
+        <v>1059</v>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
+        </is>
+      </c>
+      <c r="C425">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426">
+        <v>1060</v>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
+        </is>
+      </c>
+      <c r="C426">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427">
+        <v>1061</v>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
+        </is>
+      </c>
+      <c r="C427">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428">
+        <v>1062</v>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
+        </is>
+      </c>
+      <c r="C428">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429">
+        <v>1063</v>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
+        </is>
+      </c>
+      <c r="C429">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430">
+        <v>1064</v>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
+        </is>
+      </c>
+      <c r="C430">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431">
+        <v>1065</v>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
+        </is>
+      </c>
+      <c r="C431">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432">
+        <v>1066</v>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
+        </is>
+      </c>
+      <c r="C432">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433">
+        <v>1067</v>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
+        </is>
+      </c>
+      <c r="C433">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434">
+        <v>1068</v>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
+        </is>
+      </c>
+      <c r="C434">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435">
+        <v>1069</v>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
+        </is>
+      </c>
+      <c r="C435">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436">
+        <v>1070</v>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
+        </is>
+      </c>
+      <c r="C436">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437">
+        <v>1072</v>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>Cytomegalovirus CMV Anterior Uveitis</t>
+        </is>
+      </c>
+      <c r="C437">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438">
+        <v>1073</v>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
+        </is>
+      </c>
+      <c r="C438">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439">
+        <v>1074</v>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>Serious Infection</t>
+        </is>
+      </c>
+      <c r="C439">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440">
+        <v>1075</v>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>Narcolepsy</t>
+        </is>
+      </c>
+      <c r="C440">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441">
+        <v>1076</v>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>Anaphylaxis</t>
+        </is>
+      </c>
+      <c r="C441">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442">
+        <v>1077</v>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>Anaphylaxis v2</t>
+        </is>
+      </c>
+      <c r="C442">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443">
+        <v>1078</v>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>Bells Palsy</t>
+        </is>
+      </c>
+      <c r="C443">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444">
+        <v>1079</v>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>Encephalomyelitis</t>
+        </is>
+      </c>
+      <c r="C444">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445">
+        <v>1080</v>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>Guillain Barre Syndrome</t>
+        </is>
+      </c>
+      <c r="C445">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446">
+        <v>1081</v>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>Acute Myocardial Infarction including its complications</t>
+        </is>
+      </c>
+      <c r="C446">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447">
+        <v>1082</v>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>Myocarditis Pericarditis</t>
+        </is>
+      </c>
+      <c r="C447">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448">
+        <v>1083</v>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>Immune Thrombocytopenia (ITP)</t>
+        </is>
+      </c>
+      <c r="C448">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449">
+        <v>1084</v>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>Disseminated Intravascular Coagulation</t>
+        </is>
+      </c>
+      <c r="C449">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450">
+        <v>1085</v>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>Appendicitis</t>
+        </is>
+      </c>
+      <c r="C450">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451">
+        <v>1086</v>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>Transverse Myelitis</t>
+        </is>
+      </c>
+      <c r="C451">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452">
+        <v>1087</v>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>Hemorrhagic Stroke</t>
+        </is>
+      </c>
+      <c r="C452">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453">
+        <v>1088</v>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>Deep Vein Thrombosis (DVT)</t>
+        </is>
+      </c>
+      <c r="C453">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454">
+        <v>1089</v>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>Non-hemorrhagic Stroke</t>
+        </is>
+      </c>
+      <c r="C454">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455">
+        <v>1090</v>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>Pulmonary Embolism</t>
+        </is>
+      </c>
+      <c r="C455">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456">
         <v>1091</v>
       </c>
-      <c r="B424" t="inlineStr">
+      <c r="B456" t="inlineStr">
         <is>
           <t>Thrombosis with Thrombocytopenia (TWT)</t>
         </is>
       </c>
-      <c r="C424">
+      <c r="C456">
         <v>365</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457">
+        <v>1093</v>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>Abdominal Aoritc Aneurysm repair - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C457">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458">
+        <v>1094</v>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>Lower Extremity Bypass - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C458">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459">
+        <v>1095</v>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>Carotid Endarterectomy - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C459">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460">
+        <v>1096</v>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>Lung Resection - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C460">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461">
+        <v>1097</v>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>Esophagectomy - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C461">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462">
+        <v>1098</v>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>Pancreatectomy - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C462">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463">
+        <v>1099</v>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>Colectomy - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C463">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464">
+        <v>1100</v>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>Cystectomy - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C464">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465">
+        <v>1101</v>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>Nephrectomy - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C465">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466">
+        <v>1102</v>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>Coronary Artery Bypass Graft Surgery - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C466">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467">
+        <v>1103</v>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>Aortic or Mitral Valve Repair or Replacement - post op new Afib (any)</t>
+        </is>
+      </c>
+      <c r="C467">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468">
+        <v>1104</v>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
+        </is>
+      </c>
+      <c r="C468">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469">
+        <v>1105</v>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>Clostridium difficile - first episode</t>
+        </is>
+      </c>
+      <c r="C469">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470">
+        <v>1106</v>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>Non-Emergent Major Non Cardiac Surgery no prior Opioid</t>
+        </is>
+      </c>
+      <c r="C470">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/analysis_specifications/analysis1.xlsx
+++ b/analysis_specifications/analysis1.xlsx
@@ -387,7 +387,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C470"/>
+  <dimension ref="A1:C464"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2648,11 +2648,11 @@
     </row>
     <row r="174">
       <c r="A174">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>Pulmonary Arterial Hypertension</t>
+          <t>Psoriatic arthritis</t>
         </is>
       </c>
       <c r="C174">
@@ -2661,11 +2661,11 @@
     </row>
     <row r="175">
       <c r="A175">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>Psoriatic arthritis</t>
+          <t>Plaque Psoriasis</t>
         </is>
       </c>
       <c r="C175">
@@ -2674,11 +2674,11 @@
     </row>
     <row r="176">
       <c r="A176">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>Plaque Psoriasis</t>
+          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
         </is>
       </c>
       <c r="C176">
@@ -2687,11 +2687,11 @@
     </row>
     <row r="177">
       <c r="A177">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
         </is>
       </c>
       <c r="C177">
@@ -2700,50 +2700,50 @@
     </row>
     <row r="178">
       <c r="A178">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Firearm Accidents (FA)</t>
         </is>
       </c>
       <c r="C178">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="179">
       <c r="A179">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>Firearm Accidents (FA)</t>
+          <t>Motor Vehicle Accidents (MVA)</t>
         </is>
       </c>
       <c r="C179">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="180">
       <c r="A180">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>Motor Vehicle Accidents (MVA)</t>
+          <t>Down Syndrome</t>
         </is>
       </c>
       <c r="C180">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181">
       <c r="A181">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>Down Syndrome</t>
+          <t>Non-infectious uveitis and iridocyclitis</t>
         </is>
       </c>
       <c r="C181">
@@ -2752,11 +2752,11 @@
     </row>
     <row r="182">
       <c r="A182">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>Non-infectious uveitis and iridocyclitis</t>
+          <t>Cystic Fibrosis</t>
         </is>
       </c>
       <c r="C182">
@@ -2765,11 +2765,11 @@
     </row>
     <row r="183">
       <c r="A183">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>Cystic Fibrosis</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C183">
@@ -2778,11 +2778,11 @@
     </row>
     <row r="184">
       <c r="A184">
-        <v>757</v>
+        <v>759</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C184">
@@ -2791,11 +2791,11 @@
     </row>
     <row r="185">
       <c r="A185">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>Concomitant TNF - alpha Inhibitors and IL23 Inhibitors - GE 30D overlap</t>
+          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
         </is>
       </c>
       <c r="C185">
@@ -2804,11 +2804,11 @@
     </row>
     <row r="186">
       <c r="A186">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>Concomitant IL 23 Inhibitors and IL12_23 Inhibitors - GE 30D overlap</t>
+          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
         </is>
       </c>
       <c r="C186">
@@ -2817,11 +2817,11 @@
     </row>
     <row r="187">
       <c r="A187">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>Pulmonary arterial hypertension with Prior Left Heart or Vice Versa</t>
+          <t>Endothelin receptor antagonists</t>
         </is>
       </c>
       <c r="C187">
@@ -2830,11 +2830,11 @@
     </row>
     <row r="188">
       <c r="A188">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>Endothelin receptor antagonists</t>
+          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
         </is>
       </c>
       <c r="C188">
@@ -2843,11 +2843,11 @@
     </row>
     <row r="189">
       <c r="A189">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>Phosphodiesterase 5 inhibitors and guanylate cyclase stimulators</t>
+          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
         </is>
       </c>
       <c r="C189">
@@ -2856,11 +2856,11 @@
     </row>
     <row r="190">
       <c r="A190">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>Prostacyclin analogues and prostacyclin receptor agonists</t>
+          <t>Left Heart Failure</t>
         </is>
       </c>
       <c r="C190">
@@ -2869,11 +2869,11 @@
     </row>
     <row r="191">
       <c r="A191">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>Left Heart Failure</t>
+          <t>Right Heart Failure</t>
         </is>
       </c>
       <c r="C191">
@@ -2882,11 +2882,11 @@
     </row>
     <row r="192">
       <c r="A192">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>Right Heart Failure</t>
+          <t>Sarcoidosis</t>
         </is>
       </c>
       <c r="C192">
@@ -2895,11 +2895,11 @@
     </row>
     <row r="193">
       <c r="A193">
-        <v>767</v>
+        <v>768</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>Sarcoidosis</t>
+          <t>Sickle Cell Anemia</t>
         </is>
       </c>
       <c r="C193">
@@ -2908,11 +2908,11 @@
     </row>
     <row r="194">
       <c r="A194">
-        <v>768</v>
+        <v>769</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>Sickle Cell Anemia</t>
+          <t>Scleroderma</t>
         </is>
       </c>
       <c r="C194">
@@ -2921,11 +2921,11 @@
     </row>
     <row r="195">
       <c r="A195">
-        <v>769</v>
+        <v>770</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>Scleroderma</t>
+          <t>Essential Hypertension</t>
         </is>
       </c>
       <c r="C195">
@@ -2934,11 +2934,11 @@
     </row>
     <row r="196">
       <c r="A196">
-        <v>770</v>
+        <v>773</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>Essential Hypertension</t>
+          <t>Congenital Heart Disease</t>
         </is>
       </c>
       <c r="C196">
@@ -2947,11 +2947,11 @@
     </row>
     <row r="197">
       <c r="A197">
-        <v>771</v>
+        <v>774</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with left heart disease (WHO Group 2)</t>
+          <t>Portal Hypertension</t>
         </is>
       </c>
       <c r="C197">
@@ -2960,11 +2960,11 @@
     </row>
     <row r="198">
       <c r="A198">
-        <v>772</v>
+        <v>775</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>Pulmonary hypertension associated with lung diseases and/or hypoxia (WHO Group 3)</t>
+          <t>Inflammatory Bowel Disease</t>
         </is>
       </c>
       <c r="C198">
@@ -2973,11 +2973,11 @@
     </row>
     <row r="199">
       <c r="A199">
-        <v>773</v>
+        <v>776</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>Congenital Heart Disease</t>
+          <t>Antisynthetase syndrome</t>
         </is>
       </c>
       <c r="C199">
@@ -2986,11 +2986,11 @@
     </row>
     <row r="200">
       <c r="A200">
-        <v>774</v>
+        <v>777</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>Portal Hypertension</t>
+          <t>Mixed connective tissue disease</t>
         </is>
       </c>
       <c r="C200">
@@ -2999,11 +2999,11 @@
     </row>
     <row r="201">
       <c r="A201">
-        <v>775</v>
+        <v>778</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>Inflammatory Bowel Disease</t>
+          <t>Undifferentiated connective tissue disease</t>
         </is>
       </c>
       <c r="C201">
@@ -3012,11 +3012,11 @@
     </row>
     <row r="202">
       <c r="A202">
-        <v>776</v>
+        <v>779</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>Antisynthetase syndrome</t>
+          <t>Overlap syndrome</t>
         </is>
       </c>
       <c r="C202">
@@ -3025,11 +3025,11 @@
     </row>
     <row r="203">
       <c r="A203">
-        <v>777</v>
+        <v>780</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>Mixed connective tissue disease</t>
+          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
         </is>
       </c>
       <c r="C203">
@@ -3038,11 +3038,11 @@
     </row>
     <row r="204">
       <c r="A204">
-        <v>778</v>
+        <v>781</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>Undifferentiated connective tissue disease</t>
+          <t>Antiphospholipid syndrome</t>
         </is>
       </c>
       <c r="C204">
@@ -3051,11 +3051,11 @@
     </row>
     <row r="205">
       <c r="A205">
-        <v>779</v>
+        <v>782</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>Overlap syndrome</t>
+          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
         </is>
       </c>
       <c r="C205">
@@ -3064,89 +3064,89 @@
     </row>
     <row r="206">
       <c r="A206">
-        <v>780</v>
+        <v>783</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>Raynaud’s disease or Raynaud’s phenomenon</t>
+          <t>Pulmonary endarterectomy</t>
         </is>
       </c>
       <c r="C206">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="207">
       <c r="A207">
-        <v>781</v>
+        <v>784</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>Antiphospholipid syndrome</t>
+          <t>Balloon Pulmonary Angioplasty</t>
         </is>
       </c>
       <c r="C207">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="208">
       <c r="A208">
-        <v>782</v>
+        <v>785</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>Chronic Thromboembolic Pulmonary Hypertension</t>
+          <t>Skin Burns</t>
         </is>
       </c>
       <c r="C208">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="209">
       <c r="A209">
-        <v>783</v>
+        <v>786</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>Pulmonary endarterectomy</t>
+          <t>Non-small cell lung cancer (NSCLC)</t>
         </is>
       </c>
       <c r="C209">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="210">
       <c r="A210">
-        <v>784</v>
+        <v>787</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>Balloon Pulmonary Angioplasty</t>
+          <t>Lung cancer</t>
         </is>
       </c>
       <c r="C210">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="211">
       <c r="A211">
-        <v>785</v>
+        <v>788</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>Skin Burns</t>
+          <t>Breast cancer</t>
         </is>
       </c>
       <c r="C211">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="212">
       <c r="A212">
-        <v>786</v>
+        <v>789</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>Non-small cell lung cancer (NSCLC)</t>
+          <t>Glioblastoma multiforme (GBM)</t>
         </is>
       </c>
       <c r="C212">
@@ -3155,11 +3155,11 @@
     </row>
     <row r="213">
       <c r="A213">
-        <v>787</v>
+        <v>790</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>Lung cancer</t>
+          <t>Colorectal Cancer</t>
         </is>
       </c>
       <c r="C213">
@@ -3168,11 +3168,11 @@
     </row>
     <row r="214">
       <c r="A214">
-        <v>788</v>
+        <v>791</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>Breast cancer</t>
+          <t>Multiple Myeloma</t>
         </is>
       </c>
       <c r="C214">
@@ -3181,11 +3181,11 @@
     </row>
     <row r="215">
       <c r="A215">
-        <v>789</v>
+        <v>792</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>Glioblastoma multiforme (GBM)</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
         </is>
       </c>
       <c r="C215">
@@ -3194,11 +3194,11 @@
     </row>
     <row r="216">
       <c r="A216">
-        <v>790</v>
+        <v>793</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>Colorectal Cancer</t>
+          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
         </is>
       </c>
       <c r="C216">
@@ -3207,24 +3207,24 @@
     </row>
     <row r="217">
       <c r="A217">
-        <v>791</v>
+        <v>794</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>Multiple Myeloma</t>
+          <t>Hemorrhage of digestive system</t>
         </is>
       </c>
       <c r="C217">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="218">
       <c r="A218">
-        <v>792</v>
+        <v>795</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Synchronous</t>
+          <t>Antineoplastic drugs against colorectal cancer</t>
         </is>
       </c>
       <c r="C218">
@@ -3233,11 +3233,11 @@
     </row>
     <row r="219">
       <c r="A219">
-        <v>793</v>
+        <v>796</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>Metastatic Hormone-Sensitive Prostate Cancer Metachronus</t>
+          <t>Potential curative surgery for colorectal cancer</t>
         </is>
       </c>
       <c r="C219">
@@ -3246,24 +3246,24 @@
     </row>
     <row r="220">
       <c r="A220">
-        <v>794</v>
+        <v>797</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>Hemorrhage of digestive system</t>
+          <t>Radiotherapy against colorectal cancer</t>
         </is>
       </c>
       <c r="C220">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="221">
       <c r="A221">
-        <v>795</v>
+        <v>798</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>Antineoplastic drugs against colorectal cancer</t>
+          <t>Primary adenocarcinoma of the colon or rectum</t>
         </is>
       </c>
       <c r="C221">
@@ -3272,11 +3272,11 @@
     </row>
     <row r="222">
       <c r="A222">
-        <v>796</v>
+        <v>802</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>Potential curative surgery for colorectal cancer</t>
+          <t>Acute Respiratory Failure</t>
         </is>
       </c>
       <c r="C222">
@@ -3285,11 +3285,11 @@
     </row>
     <row r="223">
       <c r="A223">
-        <v>797</v>
+        <v>803</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>Radiotherapy against colorectal cancer</t>
+          <t>Fascial dehiscence and evisceration</t>
         </is>
       </c>
       <c r="C223">
@@ -3298,11 +3298,11 @@
     </row>
     <row r="224">
       <c r="A224">
-        <v>798</v>
+        <v>804</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum</t>
+          <t>Anastomotic leak or dehiscence</t>
         </is>
       </c>
       <c r="C224">
@@ -3311,11 +3311,11 @@
     </row>
     <row r="225">
       <c r="A225">
-        <v>802</v>
+        <v>805</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>Acute Respiratory Failure</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C225">
@@ -3324,11 +3324,11 @@
     </row>
     <row r="226">
       <c r="A226">
-        <v>803</v>
+        <v>806</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>Fascial dehiscence and evisceration</t>
+          <t>Intraabdominal abscess</t>
         </is>
       </c>
       <c r="C226">
@@ -3337,11 +3337,11 @@
     </row>
     <row r="227">
       <c r="A227">
-        <v>804</v>
+        <v>807</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>Anastomotic leak or dehiscence</t>
+          <t>Perioperative aspiration</t>
         </is>
       </c>
       <c r="C227">
@@ -3350,11 +3350,11 @@
     </row>
     <row r="228">
       <c r="A228">
-        <v>805</v>
+        <v>808</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Postoperative hemorrhage</t>
         </is>
       </c>
       <c r="C228">
@@ -3363,11 +3363,11 @@
     </row>
     <row r="229">
       <c r="A229">
-        <v>806</v>
+        <v>809</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>Intraabdominal abscess</t>
+          <t>Surgical wound infection (narrow)</t>
         </is>
       </c>
       <c r="C229">
@@ -3376,11 +3376,11 @@
     </row>
     <row r="230">
       <c r="A230">
-        <v>807</v>
+        <v>810</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>Perioperative aspiration</t>
+          <t>Distant metastasis following colorectal cancer (wide)</t>
         </is>
       </c>
       <c r="C230">
@@ -3389,11 +3389,11 @@
     </row>
     <row r="231">
       <c r="A231">
-        <v>808</v>
+        <v>811</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>Postoperative hemorrhage</t>
+          <t>Local recurrence after colorectal cancer</t>
         </is>
       </c>
       <c r="C231">
@@ -3402,11 +3402,11 @@
     </row>
     <row r="232">
       <c r="A232">
-        <v>809</v>
+        <v>812</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>Surgical wound infection (narrow)</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C232">
@@ -3415,11 +3415,11 @@
     </row>
     <row r="233">
       <c r="A233">
-        <v>810</v>
+        <v>813</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (wide)</t>
+          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C233">
@@ -3428,11 +3428,11 @@
     </row>
     <row r="234">
       <c r="A234">
-        <v>811</v>
+        <v>814</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>Local recurrence after colorectal cancer</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C234">
@@ -3441,11 +3441,11 @@
     </row>
     <row r="235">
       <c r="A235">
-        <v>812</v>
+        <v>817</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
         </is>
       </c>
       <c r="C235">
@@ -3454,11 +3454,11 @@
     </row>
     <row r="236">
       <c r="A236">
-        <v>813</v>
+        <v>818</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum treated with potentially curative surgery</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C236">
@@ -3467,11 +3467,11 @@
     </row>
     <row r="237">
       <c r="A237">
-        <v>814</v>
+        <v>819</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
         </is>
       </c>
       <c r="C237">
@@ -3480,11 +3480,11 @@
     </row>
     <row r="238">
       <c r="A238">
-        <v>817</v>
+        <v>820</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, no curative intended surgery and oncological treatment</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
         </is>
       </c>
       <c r="C238">
@@ -3493,11 +3493,11 @@
     </row>
     <row r="239">
       <c r="A239">
-        <v>818</v>
+        <v>821</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C239">
@@ -3506,11 +3506,11 @@
     </row>
     <row r="240">
       <c r="A240">
-        <v>819</v>
+        <v>822</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, treated with curative intended surgery</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C240">
@@ -3519,11 +3519,11 @@
     </row>
     <row r="241">
       <c r="A241">
-        <v>820</v>
+        <v>823</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no curative surgery</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
         </is>
       </c>
       <c r="C241">
@@ -3532,11 +3532,11 @@
     </row>
     <row r="242">
       <c r="A242">
-        <v>821</v>
+        <v>824</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of the colon or rectum, MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C242">
@@ -3545,11 +3545,11 @@
     </row>
     <row r="243">
       <c r="A243">
-        <v>822</v>
+        <v>825</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>Primary adenocarcinoma of colon</t>
         </is>
       </c>
       <c r="C243">
@@ -3558,11 +3558,11 @@
     </row>
     <row r="244">
       <c r="A244">
-        <v>823</v>
+        <v>826</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR, oncological treatment no surgery</t>
+          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C244">
@@ -3571,11 +3571,11 @@
     </row>
     <row r="245">
       <c r="A245">
-        <v>824</v>
+        <v>827</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon or rectum, MSI-H or dMMR</t>
+          <t>Primary adenocarcinoma of colon surgical treatment</t>
         </is>
       </c>
       <c r="C245">
@@ -3584,11 +3584,11 @@
     </row>
     <row r="246">
       <c r="A246">
-        <v>825</v>
+        <v>828</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon</t>
+          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C246">
@@ -3597,11 +3597,11 @@
     </row>
     <row r="247">
       <c r="A247">
-        <v>826</v>
+        <v>829</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C247">
@@ -3610,11 +3610,11 @@
     </row>
     <row r="248">
       <c r="A248">
-        <v>827</v>
+        <v>830</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon surgical treatment</t>
+          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
         </is>
       </c>
       <c r="C248">
@@ -3623,11 +3623,11 @@
     </row>
     <row r="249">
       <c r="A249">
-        <v>828</v>
+        <v>831</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C249">
@@ -3636,11 +3636,11 @@
     </row>
     <row r="250">
       <c r="A250">
-        <v>829</v>
+        <v>832</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C250">
@@ -3649,11 +3649,11 @@
     </row>
     <row r="251">
       <c r="A251">
-        <v>830</v>
+        <v>833</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon, MSI-L, MSI-indeterminate, MSS or pMMR, surgically treated</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C251">
@@ -3662,11 +3662,11 @@
     </row>
     <row r="252">
       <c r="A252">
-        <v>831</v>
+        <v>834</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C252">
@@ -3675,11 +3675,11 @@
     </row>
     <row r="253">
       <c r="A253">
-        <v>832</v>
+        <v>835</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-L, MSI-indeterminate, MSS or pMMR, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C253">
@@ -3688,11 +3688,11 @@
     </row>
     <row r="254">
       <c r="A254">
-        <v>833</v>
+        <v>836</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR</t>
+          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C254">
@@ -3701,11 +3701,11 @@
     </row>
     <row r="255">
       <c r="A255">
-        <v>834</v>
+        <v>837</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, surgical treatment</t>
+          <t>Primary adenocarcinoma of rectum</t>
         </is>
       </c>
       <c r="C255">
@@ -3714,11 +3714,11 @@
     </row>
     <row r="256">
       <c r="A256">
-        <v>835</v>
+        <v>838</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
         </is>
       </c>
       <c r="C256">
@@ -3727,11 +3727,11 @@
     </row>
     <row r="257">
       <c r="A257">
-        <v>836</v>
+        <v>839</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of colon MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C257">
@@ -3740,11 +3740,11 @@
     </row>
     <row r="258">
       <c r="A258">
-        <v>837</v>
+        <v>840</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum</t>
+          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C258">
@@ -3753,11 +3753,11 @@
     </row>
     <row r="259">
       <c r="A259">
-        <v>838</v>
+        <v>841</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR</t>
+          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
         </is>
       </c>
       <c r="C259">
@@ -3766,11 +3766,11 @@
     </row>
     <row r="260">
       <c r="A260">
-        <v>839</v>
+        <v>842</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, no surgery or oncological treatment</t>
+          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
         </is>
       </c>
       <c r="C260">
@@ -3779,11 +3779,11 @@
     </row>
     <row r="261">
       <c r="A261">
-        <v>840</v>
+        <v>843</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-H or dMMR, oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C261">
@@ -3792,11 +3792,11 @@
     </row>
     <row r="262">
       <c r="A262">
-        <v>841</v>
+        <v>844</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-H or dMMR, surgical treatment</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
         </is>
       </c>
       <c r="C262">
@@ -3805,11 +3805,11 @@
     </row>
     <row r="263">
       <c r="A263">
-        <v>842</v>
+        <v>845</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, MSI-L, MSI-indeterminate, MSS or pMMR</t>
+          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
         </is>
       </c>
       <c r="C263">
@@ -3818,11 +3818,11 @@
     </row>
     <row r="264">
       <c r="A264">
-        <v>843</v>
+        <v>846</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, oncological treatment, no surgery</t>
+          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
         </is>
       </c>
       <c r="C264">
@@ -3831,11 +3831,11 @@
     </row>
     <row r="265">
       <c r="A265">
-        <v>844</v>
+        <v>847</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, no surgery and no oncological treatment</t>
+          <t>Primary adenocarcinoma of rectum surgical treatment</t>
         </is>
       </c>
       <c r="C265">
@@ -3844,11 +3844,11 @@
     </row>
     <row r="266">
       <c r="A266">
-        <v>845</v>
+        <v>848</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum MSI-L, MSI-indeterminate, MSS or pMMR, treated with potentially curative surgery</t>
+          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
         </is>
       </c>
       <c r="C266">
@@ -3857,11 +3857,11 @@
     </row>
     <row r="267">
       <c r="A267">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum oncological treatment, no surgery</t>
+          <t>Intestinal obstruction</t>
         </is>
       </c>
       <c r="C267">
@@ -3870,11 +3870,11 @@
     </row>
     <row r="268">
       <c r="A268">
-        <v>847</v>
+        <v>851</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum surgical treatment</t>
+          <t>Intraabdominal obstruction</t>
         </is>
       </c>
       <c r="C268">
@@ -3883,11 +3883,11 @@
     </row>
     <row r="269">
       <c r="A269">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>Primary adenocarcinoma of rectum, no surgery or oncological treatment</t>
+          <t>Surgical wound infection (broad)</t>
         </is>
       </c>
       <c r="C269">
@@ -3896,11 +3896,11 @@
     </row>
     <row r="270">
       <c r="A270">
-        <v>850</v>
+        <v>854</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>Intestinal obstruction</t>
+          <t>Distant metastasis following colorectal cancer (medium)</t>
         </is>
       </c>
       <c r="C270">
@@ -3909,11 +3909,11 @@
     </row>
     <row r="271">
       <c r="A271">
-        <v>851</v>
+        <v>855</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>Intraabdominal obstruction</t>
+          <t>Distant metastasis following colorectal cancer (narrow)</t>
         </is>
       </c>
       <c r="C271">
@@ -3922,11 +3922,11 @@
     </row>
     <row r="272">
       <c r="A272">
-        <v>852</v>
+        <v>856</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>Surgical wound infection (broad)</t>
+          <t>Earliest event of Migraine, including history of migraine</t>
         </is>
       </c>
       <c r="C272">
@@ -3935,11 +3935,11 @@
     </row>
     <row r="273">
       <c r="A273">
-        <v>854</v>
+        <v>857</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (medium)</t>
+          <t>Earliest event of Migraine</t>
         </is>
       </c>
       <c r="C273">
@@ -3948,11 +3948,11 @@
     </row>
     <row r="274">
       <c r="A274">
-        <v>855</v>
+        <v>858</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>Distant metastasis following colorectal cancer (narrow)</t>
+          <t>Earliest event of Rheumatoid Arthritis</t>
         </is>
       </c>
       <c r="C274">
@@ -3961,11 +3961,11 @@
     </row>
     <row r="275">
       <c r="A275">
-        <v>856</v>
+        <v>859</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine, including history of migraine</t>
+          <t>Earliest event of Crohns disease</t>
         </is>
       </c>
       <c r="C275">
@@ -3974,11 +3974,11 @@
     </row>
     <row r="276">
       <c r="A276">
-        <v>857</v>
+        <v>860</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>Earliest event of Migraine</t>
+          <t>Earliest event of Ulcerative colitis</t>
         </is>
       </c>
       <c r="C276">
@@ -3987,11 +3987,11 @@
     </row>
     <row r="277">
       <c r="A277">
-        <v>858</v>
+        <v>861</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>Earliest event of Rheumatoid Arthritis</t>
+          <t>Earliest event of Urinary tract infections (UTI)</t>
         </is>
       </c>
       <c r="C277">
@@ -4000,11 +4000,11 @@
     </row>
     <row r="278">
       <c r="A278">
-        <v>859</v>
+        <v>862</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>Earliest event of Crohns disease</t>
+          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
         </is>
       </c>
       <c r="C278">
@@ -4013,11 +4013,11 @@
     </row>
     <row r="279">
       <c r="A279">
-        <v>860</v>
+        <v>863</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>Earliest event of Ulcerative colitis</t>
+          <t>Cognitive impairment, incident</t>
         </is>
       </c>
       <c r="C279">
@@ -4026,11 +4026,11 @@
     </row>
     <row r="280">
       <c r="A280">
-        <v>861</v>
+        <v>864</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>Earliest event of Urinary tract infections (UTI)</t>
+          <t>Earliest event of Dementia</t>
         </is>
       </c>
       <c r="C280">
@@ -4039,11 +4039,11 @@
     </row>
     <row r="281">
       <c r="A281">
-        <v>862</v>
+        <v>865</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>Earliest event of Alzheimer's disease derived from Imfeld, 2</t>
+          <t>Non-Emergent Major Non Cardiac Surgery</t>
         </is>
       </c>
       <c r="C281">
@@ -4052,11 +4052,11 @@
     </row>
     <row r="282">
       <c r="A282">
-        <v>863</v>
+        <v>866</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>Cognitive impairment, incident</t>
+          <t>AAA repair</t>
         </is>
       </c>
       <c r="C282">
@@ -4065,11 +4065,11 @@
     </row>
     <row r="283">
       <c r="A283">
-        <v>864</v>
+        <v>867</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>Earliest event of Dementia</t>
+          <t>Lower Extremity Bypass</t>
         </is>
       </c>
       <c r="C283">
@@ -4078,11 +4078,11 @@
     </row>
     <row r="284">
       <c r="A284">
-        <v>865</v>
+        <v>868</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>Non-Emergent Major Non Cardiac Surgery</t>
+          <t>Carotid Endarterectomy</t>
         </is>
       </c>
       <c r="C284">
@@ -4091,11 +4091,11 @@
     </row>
     <row r="285">
       <c r="A285">
-        <v>866</v>
+        <v>869</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>AAA repair</t>
+          <t>Lung Resection</t>
         </is>
       </c>
       <c r="C285">
@@ -4104,11 +4104,11 @@
     </row>
     <row r="286">
       <c r="A286">
-        <v>867</v>
+        <v>870</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>Lower Extremity Bypass</t>
+          <t>Esophagectomy</t>
         </is>
       </c>
       <c r="C286">
@@ -4117,11 +4117,11 @@
     </row>
     <row r="287">
       <c r="A287">
-        <v>868</v>
+        <v>871</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>Carotid Endarterectomy</t>
+          <t>Pancreatectomy</t>
         </is>
       </c>
       <c r="C287">
@@ -4130,11 +4130,11 @@
     </row>
     <row r="288">
       <c r="A288">
-        <v>869</v>
+        <v>872</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Lung Resection</t>
+          <t>Colectomy</t>
         </is>
       </c>
       <c r="C288">
@@ -4143,11 +4143,11 @@
     </row>
     <row r="289">
       <c r="A289">
-        <v>870</v>
+        <v>873</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>Esophagectomy</t>
+          <t>Cystectomy</t>
         </is>
       </c>
       <c r="C289">
@@ -4156,11 +4156,11 @@
     </row>
     <row r="290">
       <c r="A290">
-        <v>871</v>
+        <v>874</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>Pancreatectomy</t>
+          <t>Nephrectomy</t>
         </is>
       </c>
       <c r="C290">
@@ -4169,11 +4169,11 @@
     </row>
     <row r="291">
       <c r="A291">
-        <v>872</v>
+        <v>875</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>Colectomy</t>
+          <t>Coronary Artery Bypass Graft Surgery</t>
         </is>
       </c>
       <c r="C291">
@@ -4182,11 +4182,11 @@
     </row>
     <row r="292">
       <c r="A292">
-        <v>873</v>
+        <v>876</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>Cystectomy</t>
+          <t>Aortic or Mitral Valve Repair or Replacement'</t>
         </is>
       </c>
       <c r="C292">
@@ -4195,11 +4195,11 @@
     </row>
     <row r="293">
       <c r="A293">
-        <v>874</v>
+        <v>877</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>Nephrectomy</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
         </is>
       </c>
       <c r="C293">
@@ -4208,11 +4208,11 @@
     </row>
     <row r="294">
       <c r="A294">
-        <v>875</v>
+        <v>878</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>Coronary Artery Bypass Graft Surgery</t>
+          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
         </is>
       </c>
       <c r="C294">
@@ -4221,24 +4221,24 @@
     </row>
     <row r="295">
       <c r="A295">
-        <v>876</v>
+        <v>881</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>Aortic or Mitral Valve Repair or Replacement'</t>
+          <t>Acute myocardial infarction events</t>
         </is>
       </c>
       <c r="C295">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="296">
       <c r="A296">
-        <v>877</v>
+        <v>882</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (parox)</t>
+          <t>Persons with decreased libido</t>
         </is>
       </c>
       <c r="C296">
@@ -4247,63 +4247,63 @@
     </row>
     <row r="297">
       <c r="A297">
-        <v>878</v>
+        <v>884</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>Non-Emergent MNCS (age 18 or greater), post op Afib (any)</t>
+          <t>Diarrhea events</t>
         </is>
       </c>
       <c r="C297">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="298">
       <c r="A298">
-        <v>881</v>
+        <v>888</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>Acute myocardial infarction events</t>
+          <t>Gastrointestinal bleeding events</t>
         </is>
       </c>
       <c r="C298">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="299">
       <c r="A299">
-        <v>882</v>
+        <v>889</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>Persons with decreased libido</t>
+          <t>Hyponatremia events</t>
         </is>
       </c>
       <c r="C299">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="300">
       <c r="A300">
-        <v>884</v>
+        <v>890</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>Diarrhea events</t>
+          <t>Hypotension events</t>
         </is>
       </c>
       <c r="C300">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="301">
       <c r="A301">
-        <v>888</v>
+        <v>891</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>Gastrointestinal bleeding events</t>
+          <t>Nausea events</t>
         </is>
       </c>
       <c r="C301">
@@ -4312,128 +4312,128 @@
     </row>
     <row r="302">
       <c r="A302">
-        <v>889</v>
+        <v>892</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>Hyponatremia events</t>
+          <t>Stroke (ischemic or hemorrhagic) events</t>
         </is>
       </c>
       <c r="C302">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="303">
       <c r="A303">
-        <v>890</v>
+        <v>893</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>Hypotension events</t>
+          <t>Persons with vertigo</t>
         </is>
       </c>
       <c r="C303">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="304">
       <c r="A304">
-        <v>891</v>
+        <v>894</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>Nausea events</t>
+          <t>Abdominal pain events</t>
         </is>
       </c>
       <c r="C304">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="305">
       <c r="A305">
-        <v>892</v>
+        <v>895</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) events</t>
+          <t>Abnormal weight gain events</t>
         </is>
       </c>
       <c r="C305">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="306">
       <c r="A306">
-        <v>893</v>
+        <v>896</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>Persons with vertigo</t>
+          <t>Abnormal weight loss events</t>
         </is>
       </c>
       <c r="C306">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="307">
       <c r="A307">
-        <v>894</v>
+        <v>898</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>Abdominal pain events</t>
+          <t>Acute renal failure events</t>
         </is>
       </c>
       <c r="C307">
-        <v>90</v>
+        <v>30</v>
       </c>
     </row>
     <row r="308">
       <c r="A308">
-        <v>895</v>
+        <v>900</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>Abnormal weight gain events</t>
+          <t>Anaphylactoid reaction events</t>
         </is>
       </c>
       <c r="C308">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="309">
       <c r="A309">
-        <v>896</v>
+        <v>901</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>Abnormal weight loss events</t>
+          <t>Persons with anemia</t>
         </is>
       </c>
       <c r="C309">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="310">
       <c r="A310">
-        <v>898</v>
+        <v>917</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>Acute renal failure events</t>
+          <t>Persons with anxiety</t>
         </is>
       </c>
       <c r="C310">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="311">
       <c r="A311">
-        <v>900</v>
+        <v>918</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>Anaphylactoid reaction events</t>
+          <t>Persons with bradycardia</t>
         </is>
       </c>
       <c r="C311">
@@ -4442,11 +4442,11 @@
     </row>
     <row r="312">
       <c r="A312">
-        <v>901</v>
+        <v>919</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>Persons with anemia</t>
+          <t>Person with cardiac arrhythmia</t>
         </is>
       </c>
       <c r="C312">
@@ -4455,24 +4455,24 @@
     </row>
     <row r="313">
       <c r="A313">
-        <v>917</v>
+        <v>920</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>Persons with anxiety</t>
+          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C313">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="314">
       <c r="A314">
-        <v>918</v>
+        <v>921</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>Persons with bradycardia</t>
+          <t>Cardiovascular-related mortality</t>
         </is>
       </c>
       <c r="C314">
@@ -4481,11 +4481,11 @@
     </row>
     <row r="315">
       <c r="A315">
-        <v>919</v>
+        <v>922</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>Person with cardiac arrhythmia</t>
+          <t>Persons with chest pain or angina</t>
         </is>
       </c>
       <c r="C315">
@@ -4494,50 +4494,50 @@
     </row>
     <row r="316">
       <c r="A316">
-        <v>920</v>
+        <v>923</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>Total cardiovascular disease events (ischemic stroke, hemorrhagic stroke, heart failure, acute myocardial infarction or sudden cardiac death)</t>
+          <t>Persons with chronic kidney disease</t>
         </is>
       </c>
       <c r="C316">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="317">
       <c r="A317">
-        <v>921</v>
+        <v>924</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>Cardiovascular-related mortality</t>
+          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
         </is>
       </c>
       <c r="C317">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="318">
       <c r="A318">
-        <v>922</v>
+        <v>925</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>Persons with chest pain or angina</t>
+          <t>Cough events</t>
         </is>
       </c>
       <c r="C318">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="319">
       <c r="A319">
-        <v>923</v>
+        <v>927</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease</t>
+          <t>Persons with dementia</t>
         </is>
       </c>
       <c r="C319">
@@ -4546,37 +4546,37 @@
     </row>
     <row r="320">
       <c r="A320">
-        <v>924</v>
+        <v>928</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>Coronary heart disease events (acute myocardial infarction or sudden cardiac death)</t>
+          <t>Persons with depression</t>
         </is>
       </c>
       <c r="C320">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="321">
       <c r="A321">
-        <v>925</v>
+        <v>929</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>Cough events</t>
+          <t>Edema events</t>
         </is>
       </c>
       <c r="C321">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="322">
       <c r="A322">
-        <v>927</v>
+        <v>930</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>Persons with dementia</t>
+          <t>Persons with end stage renal disease</t>
         </is>
       </c>
       <c r="C322">
@@ -4585,193 +4585,193 @@
     </row>
     <row r="323">
       <c r="A323">
-        <v>928</v>
+        <v>931</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>Persons with depression</t>
+          <t>Fall events</t>
         </is>
       </c>
       <c r="C323">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="324">
       <c r="A324">
-        <v>929</v>
+        <v>932</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>Edema events</t>
+          <t>Persons with gout</t>
         </is>
       </c>
       <c r="C324">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="325">
       <c r="A325">
-        <v>930</v>
+        <v>933</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>Persons with end stage renal disease</t>
+          <t>Headache events</t>
         </is>
       </c>
       <c r="C325">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="326">
       <c r="A326">
-        <v>931</v>
+        <v>934</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>Fall events</t>
+          <t>Persons with heart failure</t>
         </is>
       </c>
       <c r="C326">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="327">
       <c r="A327">
-        <v>932</v>
+        <v>935</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>Persons with gout</t>
+          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
         </is>
       </c>
       <c r="C327">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="328">
       <c r="A328">
-        <v>933</v>
+        <v>936</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>Headache events</t>
+          <t>Persons with hepatic failure</t>
         </is>
       </c>
       <c r="C328">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="329">
       <c r="A329">
-        <v>934</v>
+        <v>938</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>Persons with heart failure</t>
+          <t>Hospitalization with heart failure events</t>
         </is>
       </c>
       <c r="C329">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="330">
       <c r="A330">
-        <v>935</v>
+        <v>939</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>Hemorrhagic stroke (intracerebral bleeding) events</t>
+          <t>Hospitalization with preinfarction syndrome events</t>
         </is>
       </c>
       <c r="C330">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="331">
       <c r="A331">
-        <v>936</v>
+        <v>940</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>Persons with hepatic failure</t>
+          <t>Hyperkalemia events</t>
         </is>
       </c>
       <c r="C331">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="332">
       <c r="A332">
-        <v>938</v>
+        <v>941</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure events</t>
+          <t>Hypokalemia events</t>
         </is>
       </c>
       <c r="C332">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="333">
       <c r="A333">
-        <v>939</v>
+        <v>942</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>Hospitalization with preinfarction syndrome events</t>
+          <t>Hypomagnesemia events</t>
         </is>
       </c>
       <c r="C333">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="334">
       <c r="A334">
-        <v>940</v>
+        <v>943</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>Hyperkalemia events</t>
+          <t>Persons with impotence</t>
         </is>
       </c>
       <c r="C334">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="335">
       <c r="A335">
-        <v>941</v>
+        <v>944</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>Hypokalemia events</t>
+          <t>Ischemic stroke events</t>
         </is>
       </c>
       <c r="C335">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="336">
       <c r="A336">
-        <v>942</v>
+        <v>945</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>Hypomagnesemia events</t>
+          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
         </is>
       </c>
       <c r="C336">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="337">
       <c r="A337">
-        <v>943</v>
+        <v>946</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>Persons with impotence</t>
+          <t>Persons with measured renal dysfunction</t>
         </is>
       </c>
       <c r="C337">
@@ -4780,219 +4780,219 @@
     </row>
     <row r="338">
       <c r="A338">
-        <v>944</v>
+        <v>947</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>Ischemic stroke events</t>
+          <t>Persons with neutropenia or agranulocytosis</t>
         </is>
       </c>
       <c r="C338">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="339">
       <c r="A339">
-        <v>945</v>
+        <v>948</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>Persons with a malignant neoplasm other than non-melanoma skin cancer</t>
+          <t>Rash events</t>
         </is>
       </c>
       <c r="C339">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="340">
       <c r="A340">
-        <v>946</v>
+        <v>950</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>Persons with measured renal dysfunction</t>
+          <t>Rhabdomyolysis events</t>
         </is>
       </c>
       <c r="C340">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="341">
       <c r="A341">
-        <v>947</v>
+        <v>953</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>Persons with neutropenia or agranulocytosis</t>
+          <t>Sudden cardiac death events in inpatient</t>
         </is>
       </c>
       <c r="C341">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="342">
       <c r="A342">
-        <v>948</v>
+        <v>954</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>Rash events</t>
+          <t>Syncope events</t>
         </is>
       </c>
       <c r="C342">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="343">
       <c r="A343">
-        <v>950</v>
+        <v>955</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>Rhabdomyolysis events</t>
+          <t>Persons with thrombocytopenia</t>
         </is>
       </c>
       <c r="C343">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="344">
       <c r="A344">
-        <v>953</v>
+        <v>956</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>Sudden cardiac death events in inpatient</t>
+          <t>Transient ischemic attack events</t>
         </is>
       </c>
       <c r="C344">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="345">
       <c r="A345">
-        <v>954</v>
+        <v>957</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>Syncope events</t>
+          <t>Persons with type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C345">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="346">
       <c r="A346">
-        <v>955</v>
+        <v>963</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>Persons with thrombocytopenia</t>
+          <t>Vomiting events</t>
         </is>
       </c>
       <c r="C346">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="347">
       <c r="A347">
-        <v>956</v>
+        <v>964</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>Transient ischemic attack events</t>
+          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
         </is>
       </c>
       <c r="C347">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="348">
       <c r="A348">
-        <v>957</v>
+        <v>965</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>Persons with type 2 diabetes mellitus</t>
+          <t>3-point MACE</t>
         </is>
       </c>
       <c r="C348">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="349">
       <c r="A349">
-        <v>963</v>
+        <v>967</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>Vomiting events</t>
+          <t>4-point MACE</t>
         </is>
       </c>
       <c r="C349">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="350">
       <c r="A350">
-        <v>964</v>
+        <v>976</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>Persons with chronic kidney disease with 2+ diagnoses across 30d or 2+ dialysis</t>
+          <t>Glycemic control</t>
         </is>
       </c>
       <c r="C350">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="351">
       <c r="A351">
-        <v>965</v>
+        <v>979</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>3-point MACE</t>
+          <t>Hospitalization with heart failure indexed on hospitalization</t>
         </is>
       </c>
       <c r="C351">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="352">
       <c r="A352">
-        <v>967</v>
+        <v>980</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>4-point MACE</t>
+          <t>Coronary Vessel Revascularization</t>
         </is>
       </c>
       <c r="C352">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="353">
       <c r="A353">
-        <v>976</v>
+        <v>982</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>Glycemic control</t>
+          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
         </is>
       </c>
       <c r="C353">
-        <v>90</v>
+        <v>180</v>
       </c>
     </row>
     <row r="354">
       <c r="A354">
-        <v>979</v>
+        <v>986</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>Hospitalization with heart failure indexed on hospitalization</t>
+          <t>Acute pancreatitis2</t>
         </is>
       </c>
       <c r="C354">
@@ -5001,141 +5001,141 @@
     </row>
     <row r="355">
       <c r="A355">
-        <v>980</v>
+        <v>989</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>Coronary Vessel Revascularization</t>
+          <t>Bladder Cancer</t>
         </is>
       </c>
       <c r="C355">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="356">
       <c r="A356">
-        <v>982</v>
+        <v>990</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>Stroke (ischemic or hemorrhagic) in inpatient</t>
+          <t>Bone Fracture</t>
         </is>
       </c>
       <c r="C356">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="357">
       <c r="A357">
-        <v>986</v>
+        <v>991</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>Acute pancreatitis2</t>
+          <t>Breast cancer Malignant tumor of breast</t>
         </is>
       </c>
       <c r="C357">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="358">
       <c r="A358">
-        <v>989</v>
+        <v>992</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>Bladder Cancer</t>
+          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
         </is>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>180</v>
       </c>
     </row>
     <row r="359">
       <c r="A359">
-        <v>990</v>
+        <v>994</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>Bone Fracture</t>
+          <t>Genitourinary infection3</t>
         </is>
       </c>
       <c r="C359">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="360">
       <c r="A360">
-        <v>991</v>
+        <v>996</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>Breast cancer Malignant tumor of breast</t>
+          <t>Hypoglycemia</t>
         </is>
       </c>
       <c r="C360">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="361">
       <c r="A361">
-        <v>992</v>
+        <v>998</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>Diabetic ketoacidosis with inpatient or ER visit</t>
+          <t>Joint pain3</t>
         </is>
       </c>
       <c r="C361">
-        <v>180</v>
+        <v>90</v>
       </c>
     </row>
     <row r="362">
       <c r="A362">
-        <v>993</v>
+        <v>999</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>Diarrhea3</t>
+          <t>Lower extremity amputation</t>
         </is>
       </c>
       <c r="C362">
-        <v>30</v>
+        <v>9999</v>
       </c>
     </row>
     <row r="363">
       <c r="A363">
-        <v>994</v>
+        <v>1000</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>Genitourinary infection3</t>
+          <t>Nausea3</t>
         </is>
       </c>
       <c r="C363">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="364">
       <c r="A364">
-        <v>996</v>
+        <v>1001</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>Hypoglycemia</t>
+          <t>Peripheral edema</t>
         </is>
       </c>
       <c r="C364">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="365">
       <c r="A365">
-        <v>997</v>
+        <v>1002</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>Hypotension</t>
+          <t>Photosensitivity</t>
         </is>
       </c>
       <c r="C365">
@@ -5144,76 +5144,76 @@
     </row>
     <row r="366">
       <c r="A366">
-        <v>998</v>
+        <v>1003</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>Joint pain3</t>
+          <t>Renal Cancer</t>
         </is>
       </c>
       <c r="C366">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="367">
       <c r="A367">
-        <v>999</v>
+        <v>1004</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>Lower extremity amputation</t>
+          <t>Thyroid tumor</t>
         </is>
       </c>
       <c r="C367">
-        <v>9999</v>
+        <v>0</v>
       </c>
     </row>
     <row r="368">
       <c r="A368">
-        <v>1000</v>
+        <v>1005</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>Nausea3</t>
+          <t>Venous thromboembolism</t>
         </is>
       </c>
       <c r="C368">
-        <v>30</v>
+        <v>180</v>
       </c>
     </row>
     <row r="369">
       <c r="A369">
-        <v>1001</v>
+        <v>1006</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>Peripheral edema</t>
+          <t>Vomiting</t>
         </is>
       </c>
       <c r="C369">
-        <v>180</v>
+        <v>30</v>
       </c>
     </row>
     <row r="370">
       <c r="A370">
-        <v>1002</v>
+        <v>1007</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>Photosensitivity</t>
+          <t>Earliest event of Epilepsy</t>
         </is>
       </c>
       <c r="C370">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="371">
       <c r="A371">
-        <v>1003</v>
+        <v>1009</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>Renal Cancer</t>
+          <t>Earliest event of Treatment resistant depression (TRD)</t>
         </is>
       </c>
       <c r="C371">
@@ -5222,11 +5222,11 @@
     </row>
     <row r="372">
       <c r="A372">
-        <v>1004</v>
+        <v>1010</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>Thyroid tumor</t>
+          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
         </is>
       </c>
       <c r="C372">
@@ -5235,37 +5235,37 @@
     </row>
     <row r="373">
       <c r="A373">
-        <v>1005</v>
+        <v>1011</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>Venous thromboembolism</t>
+          <t>Earliest event of Marginal zone lymphoma</t>
         </is>
       </c>
       <c r="C373">
-        <v>180</v>
+        <v>0</v>
       </c>
     </row>
     <row r="374">
       <c r="A374">
-        <v>1006</v>
+        <v>1012</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>Vomiting</t>
+          <t>Earliest event of Waldenstrom macroglobulinemia</t>
         </is>
       </c>
       <c r="C374">
-        <v>30</v>
+        <v>0</v>
       </c>
     </row>
     <row r="375">
       <c r="A375">
-        <v>1007</v>
+        <v>1013</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>Earliest event of Epilepsy</t>
+          <t>Earliest event of Ankylosing Spondylitis</t>
         </is>
       </c>
       <c r="C375">
@@ -5274,11 +5274,11 @@
     </row>
     <row r="376">
       <c r="A376">
-        <v>1009</v>
+        <v>1016</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>Earliest event of Treatment resistant depression (TRD)</t>
+          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
         </is>
       </c>
       <c r="C376">
@@ -5287,11 +5287,11 @@
     </row>
     <row r="377">
       <c r="A377">
-        <v>1010</v>
+        <v>1017</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Graft Versus Host Disease (GVHD)</t>
+          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
         </is>
       </c>
       <c r="C377">
@@ -5300,11 +5300,11 @@
     </row>
     <row r="378">
       <c r="A378">
-        <v>1011</v>
+        <v>1018</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>Earliest event of Marginal zone lymphoma</t>
+          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
         </is>
       </c>
       <c r="C378">
@@ -5313,24 +5313,24 @@
     </row>
     <row r="379">
       <c r="A379">
-        <v>1012</v>
+        <v>1019</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>Earliest event of Waldenstrom macroglobulinemia</t>
+          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
         </is>
       </c>
       <c r="C379">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="380">
       <c r="A380">
-        <v>1013</v>
+        <v>1020</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>Earliest event of Ankylosing Spondylitis</t>
+          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
         </is>
       </c>
       <c r="C380">
@@ -5339,11 +5339,11 @@
     </row>
     <row r="381">
       <c r="A381">
-        <v>1015</v>
+        <v>1021</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>Earliest event of Pulmonary arterial hypertension (PAH)</t>
+          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
         </is>
       </c>
       <c r="C381">
@@ -5352,11 +5352,11 @@
     </row>
     <row r="382">
       <c r="A382">
-        <v>1016</v>
+        <v>1022</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>Earliest event of Polyarticular juvenile idiopathic arthritis (JIA)</t>
+          <t>Earliest event of Depressive and Sleep Disorder</t>
         </is>
       </c>
       <c r="C382">
@@ -5365,11 +5365,11 @@
     </row>
     <row r="383">
       <c r="A383">
-        <v>1017</v>
+        <v>1023</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>Earliest event of Neonatal Thrombocytopenia (NT), less than 1 year old</t>
+          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
         </is>
       </c>
       <c r="C383">
@@ -5378,11 +5378,11 @@
     </row>
     <row r="384">
       <c r="A384">
-        <v>1018</v>
+        <v>1024</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>Earliest event of Warm Autoimmune Hemolytic Anemia (wAIHA), occurring on or after October 2020</t>
+          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
         </is>
       </c>
       <c r="C384">
@@ -5391,24 +5391,24 @@
     </row>
     <row r="385">
       <c r="A385">
-        <v>1019</v>
+        <v>1025</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>All events of Hemolytic Disease Fetus and Newborn (HDFN), RhD type, with a pregnancy episode</t>
+          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
         </is>
       </c>
       <c r="C385">
-        <v>90</v>
+        <v>0</v>
       </c>
     </row>
     <row r="386">
       <c r="A386">
-        <v>1020</v>
+        <v>1026</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>Earliest event of Major depressive disorder, with NO occurrence of certain psychiatric disorder</t>
+          <t>Earliest Event of Multiple Sclerosis</t>
         </is>
       </c>
       <c r="C386">
@@ -5417,11 +5417,11 @@
     </row>
     <row r="387">
       <c r="A387">
-        <v>1021</v>
+        <v>1027</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>Earliest event of Myasthenia Gravis, inpatient, 2nd diagnosis or treatment, age gte 18</t>
+          <t>Earliest event of Chronic Leukocytic Leukemia</t>
         </is>
       </c>
       <c r="C387">
@@ -5430,11 +5430,11 @@
     </row>
     <row r="388">
       <c r="A388">
-        <v>1022</v>
+        <v>1028</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>Earliest event of Depressive and Sleep Disorder</t>
+          <t>Earliest event of Urothelial carcinoma</t>
         </is>
       </c>
       <c r="C388">
@@ -5443,11 +5443,11 @@
     </row>
     <row r="389">
       <c r="A389">
-        <v>1023</v>
+        <v>1029</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Suicidal Ideation or Attempt Prevalent</t>
+          <t>Earliest event of Mantle Cell Lymphoma</t>
         </is>
       </c>
       <c r="C389">
@@ -5456,11 +5456,11 @@
     </row>
     <row r="390">
       <c r="A390">
-        <v>1024</v>
+        <v>1030</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>Earliest Event of Depressive Disorder with Anhedonia</t>
+          <t>Earliest event of Prostate cancer, among adult males</t>
         </is>
       </c>
       <c r="C390">
@@ -5469,11 +5469,11 @@
     </row>
     <row r="391">
       <c r="A391">
-        <v>1025</v>
+        <v>1031</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>First event of Attention-deficit hyperactivity (ADHD) disorder or procedure</t>
+          <t>Earliest event of Coronary artery disease (CAD)</t>
         </is>
       </c>
       <c r="C391">
@@ -5482,11 +5482,11 @@
     </row>
     <row r="392">
       <c r="A392">
-        <v>1026</v>
+        <v>1032</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>Earliest Event of Multiple Sclerosis</t>
+          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
         </is>
       </c>
       <c r="C392">
@@ -5495,11 +5495,11 @@
     </row>
     <row r="393">
       <c r="A393">
-        <v>1027</v>
+        <v>1033</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>Earliest event of Chronic Leukocytic Leukemia</t>
+          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
         </is>
       </c>
       <c r="C393">
@@ -5508,11 +5508,11 @@
     </row>
     <row r="394">
       <c r="A394">
-        <v>1028</v>
+        <v>1034</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>Earliest event of Urothelial carcinoma</t>
+          <t>All events of Respiratory syncytial virus infection, with 30 days washout</t>
         </is>
       </c>
       <c r="C394">
@@ -5521,11 +5521,11 @@
     </row>
     <row r="395">
       <c r="A395">
-        <v>1029</v>
+        <v>1035</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>Earliest event of Mantle Cell Lymphoma</t>
+          <t>New users of Thiazide diuretics</t>
         </is>
       </c>
       <c r="C395">
@@ -5534,11 +5534,11 @@
     </row>
     <row r="396">
       <c r="A396">
-        <v>1030</v>
+        <v>1036</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>Earliest event of Prostate cancer, among adult males</t>
+          <t>New users of Beta blockers</t>
         </is>
       </c>
       <c r="C396">
@@ -5547,11 +5547,11 @@
     </row>
     <row r="397">
       <c r="A397">
-        <v>1031</v>
+        <v>1037</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>Earliest event of Coronary artery disease (CAD)</t>
+          <t>New users of SGLT2 inhibitor</t>
         </is>
       </c>
       <c r="C397">
@@ -5560,11 +5560,11 @@
     </row>
     <row r="398">
       <c r="A398">
-        <v>1032</v>
+        <v>1038</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>Earliest event of Type 2 Diabetes Mellitus (DM), with no type 1 or secondary DM</t>
+          <t>New users of GLP-1 receptor antagonists</t>
         </is>
       </c>
       <c r="C398">
@@ -5573,11 +5573,11 @@
     </row>
     <row r="399">
       <c r="A399">
-        <v>1033</v>
+        <v>1039</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>Earliest event of Human Immunodeficiency Virus I (HIV), with treatment, lab or 2nd diagnosis</t>
+          <t>New users of DPP-4 inhibitors</t>
         </is>
       </c>
       <c r="C399">
@@ -5586,11 +5586,11 @@
     </row>
     <row r="400">
       <c r="A400">
-        <v>1034</v>
+        <v>1040</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>All events of Respiratory syncytial virus infection, with 30 days washout</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
         </is>
       </c>
       <c r="C400">
@@ -5599,11 +5599,11 @@
     </row>
     <row r="401">
       <c r="A401">
-        <v>1035</v>
+        <v>1041</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics</t>
+          <t>New users of JAK inhibitors</t>
         </is>
       </c>
       <c r="C401">
@@ -5612,11 +5612,11 @@
     </row>
     <row r="402">
       <c r="A402">
-        <v>1036</v>
+        <v>1042</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>New users of Beta blockers</t>
+          <t>New users of IL-23 inhibitors</t>
         </is>
       </c>
       <c r="C402">
@@ -5625,11 +5625,11 @@
     </row>
     <row r="403">
       <c r="A403">
-        <v>1037</v>
+        <v>1043</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor</t>
+          <t>New users of Fluoroquinolone systemic</t>
         </is>
       </c>
       <c r="C403">
@@ -5638,11 +5638,11 @@
     </row>
     <row r="404">
       <c r="A404">
-        <v>1038</v>
+        <v>1044</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists</t>
+          <t>New users of Cephalosporin systemetic</t>
         </is>
       </c>
       <c r="C404">
@@ -5651,11 +5651,11 @@
     </row>
     <row r="405">
       <c r="A405">
-        <v>1039</v>
+        <v>1045</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors</t>
+          <t>New users of Trimethoprim systemetic</t>
         </is>
       </c>
       <c r="C405">
@@ -5664,11 +5664,11 @@
     </row>
     <row r="406">
       <c r="A406">
-        <v>1040</v>
+        <v>1046</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors</t>
+          <t>New users of Thiazide diuretics nested in essential hypertension</t>
         </is>
       </c>
       <c r="C406">
@@ -5677,11 +5677,11 @@
     </row>
     <row r="407">
       <c r="A407">
-        <v>1041</v>
+        <v>1047</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors</t>
+          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
         </is>
       </c>
       <c r="C407">
@@ -5690,11 +5690,11 @@
     </row>
     <row r="408">
       <c r="A408">
-        <v>1042</v>
+        <v>1048</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors</t>
+          <t>New users of dihydropyridine calcium channel blockers</t>
         </is>
       </c>
       <c r="C408">
@@ -5703,11 +5703,11 @@
     </row>
     <row r="409">
       <c r="A409">
-        <v>1043</v>
+        <v>1049</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic</t>
+          <t>New users of Beta blockers nested in essential hypertension</t>
         </is>
       </c>
       <c r="C409">
@@ -5716,11 +5716,11 @@
     </row>
     <row r="410">
       <c r="A410">
-        <v>1044</v>
+        <v>1050</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic</t>
+          <t>New users of Beta blockers nested in Left Heart Failure</t>
         </is>
       </c>
       <c r="C410">
@@ -5729,11 +5729,11 @@
     </row>
     <row r="411">
       <c r="A411">
-        <v>1045</v>
+        <v>1051</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic</t>
+          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
         </is>
       </c>
       <c r="C411">
@@ -5742,11 +5742,11 @@
     </row>
     <row r="412">
       <c r="A412">
-        <v>1046</v>
+        <v>1052</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>New users of Thiazide diuretics nested in essential hypertension</t>
+          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
         </is>
       </c>
       <c r="C412">
@@ -5755,11 +5755,11 @@
     </row>
     <row r="413">
       <c r="A413">
-        <v>1047</v>
+        <v>1053</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers nested in essential hypertension</t>
+          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C413">
@@ -5768,11 +5768,11 @@
     </row>
     <row r="414">
       <c r="A414">
-        <v>1048</v>
+        <v>1054</v>
       </c>
       <c r="B414" t="inlineStr">
         <is>
-          <t>New users of dihydropyridine calcium channel blockers</t>
+          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C414">
@@ -5781,11 +5781,11 @@
     </row>
     <row r="415">
       <c r="A415">
-        <v>1049</v>
+        <v>1055</v>
       </c>
       <c r="B415" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in essential hypertension</t>
+          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
         </is>
       </c>
       <c r="C415">
@@ -5794,11 +5794,11 @@
     </row>
     <row r="416">
       <c r="A416">
-        <v>1050</v>
+        <v>1056</v>
       </c>
       <c r="B416" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Left Heart Failure</t>
+          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
         </is>
       </c>
       <c r="C416">
@@ -5807,11 +5807,11 @@
     </row>
     <row r="417">
       <c r="A417">
-        <v>1051</v>
+        <v>1057</v>
       </c>
       <c r="B417" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Left Heart Failure</t>
+          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
         </is>
       </c>
       <c r="C417">
@@ -5820,11 +5820,11 @@
     </row>
     <row r="418">
       <c r="A418">
-        <v>1052</v>
+        <v>1058</v>
       </c>
       <c r="B418" t="inlineStr">
         <is>
-          <t>New users of Beta blockers nested in Acute Myocardial Infarction</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
         </is>
       </c>
       <c r="C418">
@@ -5833,11 +5833,11 @@
     </row>
     <row r="419">
       <c r="A419">
-        <v>1053</v>
+        <v>1059</v>
       </c>
       <c r="B419" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in Type 2 diabetes mellitus</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
         </is>
       </c>
       <c r="C419">
@@ -5846,11 +5846,11 @@
     </row>
     <row r="420">
       <c r="A420">
-        <v>1054</v>
+        <v>1060</v>
       </c>
       <c r="B420" t="inlineStr">
         <is>
-          <t>New users of SGLT2 inhibitor nested in Type 2 diabetes mellitus</t>
+          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
         </is>
       </c>
       <c r="C420">
@@ -5859,11 +5859,11 @@
     </row>
     <row r="421">
       <c r="A421">
-        <v>1055</v>
+        <v>1061</v>
       </c>
       <c r="B421" t="inlineStr">
         <is>
-          <t>New users of DPP-4 inhibitors nested in Type 2 diabetes mellitus</t>
+          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
         </is>
       </c>
       <c r="C421">
@@ -5872,11 +5872,11 @@
     </row>
     <row r="422">
       <c r="A422">
-        <v>1056</v>
+        <v>1062</v>
       </c>
       <c r="B422" t="inlineStr">
         <is>
-          <t>New users of GLP-1 receptor antagonists nested in obesity</t>
+          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
         </is>
       </c>
       <c r="C422">
@@ -5885,11 +5885,11 @@
     </row>
     <row r="423">
       <c r="A423">
-        <v>1057</v>
+        <v>1063</v>
       </c>
       <c r="B423" t="inlineStr">
         <is>
-          <t>New users of IL-23 inhibitors nested in Plaque psoriasis</t>
+          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
       <c r="C423">
@@ -5898,11 +5898,11 @@
     </row>
     <row r="424">
       <c r="A424">
-        <v>1058</v>
+        <v>1064</v>
       </c>
       <c r="B424" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Plaque psoriasis</t>
+          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
       <c r="C424">
@@ -5911,11 +5911,11 @@
     </row>
     <row r="425">
       <c r="A425">
-        <v>1059</v>
+        <v>1065</v>
       </c>
       <c r="B425" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Psoriatic Arthritis</t>
+          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
         </is>
       </c>
       <c r="C425">
@@ -5924,11 +5924,11 @@
     </row>
     <row r="426">
       <c r="A426">
-        <v>1060</v>
+        <v>1066</v>
       </c>
       <c r="B426" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Urinary Tract Infection</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
         </is>
       </c>
       <c r="C426">
@@ -5937,11 +5937,11 @@
     </row>
     <row r="427">
       <c r="A427">
-        <v>1061</v>
+        <v>1067</v>
       </c>
       <c r="B427" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Urinary Tract Infection</t>
+          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
         </is>
       </c>
       <c r="C427">
@@ -5950,11 +5950,11 @@
     </row>
     <row r="428">
       <c r="A428">
-        <v>1062</v>
+        <v>1068</v>
       </c>
       <c r="B428" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Urinary Tract Infection</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
         </is>
       </c>
       <c r="C428">
@@ -5963,11 +5963,11 @@
     </row>
     <row r="429">
       <c r="A429">
-        <v>1063</v>
+        <v>1069</v>
       </c>
       <c r="B429" t="inlineStr">
         <is>
-          <t>New users of Fluoroquinolone systemic nested in Acute Typical Pneumonia</t>
+          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
         </is>
       </c>
       <c r="C429">
@@ -5976,11 +5976,11 @@
     </row>
     <row r="430">
       <c r="A430">
-        <v>1064</v>
+        <v>1070</v>
       </c>
       <c r="B430" t="inlineStr">
         <is>
-          <t>New users of Cephalosporin systemetic nested in Acute Typical Pneumonia</t>
+          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
         </is>
       </c>
       <c r="C430">
@@ -5989,11 +5989,11 @@
     </row>
     <row r="431">
       <c r="A431">
-        <v>1065</v>
+        <v>1072</v>
       </c>
       <c r="B431" t="inlineStr">
         <is>
-          <t>New users of Trimethoprim systemetic nested in Acute Typical Pneumonia</t>
+          <t>Cytomegalovirus CMV Anterior Uveitis</t>
         </is>
       </c>
       <c r="C431">
@@ -6002,115 +6002,115 @@
     </row>
     <row r="432">
       <c r="A432">
-        <v>1066</v>
+        <v>1073</v>
       </c>
       <c r="B432" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Rheumatoid arthritis</t>
+          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
         </is>
       </c>
       <c r="C432">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="433">
       <c r="A433">
-        <v>1067</v>
+        <v>1074</v>
       </c>
       <c r="B433" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors nested in Ulcerative colitis</t>
+          <t>Serious Infection</t>
         </is>
       </c>
       <c r="C433">
-        <v>0</v>
+        <v>90</v>
       </c>
     </row>
     <row r="434">
       <c r="A434">
-        <v>1068</v>
+        <v>1075</v>
       </c>
       <c r="B434" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Ulcerative colitis</t>
+          <t>Narcolepsy</t>
         </is>
       </c>
       <c r="C434">
-        <v>0</v>
+        <v>365</v>
       </c>
     </row>
     <row r="435">
       <c r="A435">
-        <v>1069</v>
+        <v>1076</v>
       </c>
       <c r="B435" t="inlineStr">
         <is>
-          <t>New users of Tumor Necrosis Factor alpha (TNFa) inhibitors nested in Crohns disease</t>
+          <t>Anaphylaxis</t>
         </is>
       </c>
       <c r="C435">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="436">
       <c r="A436">
-        <v>1070</v>
+        <v>1077</v>
       </c>
       <c r="B436" t="inlineStr">
         <is>
-          <t>New users of JAK inhibitors nested in Rheumatoid arthritis</t>
+          <t>Anaphylaxis v2</t>
         </is>
       </c>
       <c r="C436">
-        <v>0</v>
+        <v>30</v>
       </c>
     </row>
     <row r="437">
       <c r="A437">
-        <v>1072</v>
+        <v>1078</v>
       </c>
       <c r="B437" t="inlineStr">
         <is>
-          <t>Cytomegalovirus CMV Anterior Uveitis</t>
+          <t>Bells Palsy</t>
         </is>
       </c>
       <c r="C437">
-        <v>0</v>
+        <v>183</v>
       </c>
     </row>
     <row r="438">
       <c r="A438">
-        <v>1073</v>
+        <v>1079</v>
       </c>
       <c r="B438" t="inlineStr">
         <is>
-          <t>Serious Infection, opportunistic infections and other infections of interest event</t>
+          <t>Encephalomyelitis</t>
         </is>
       </c>
       <c r="C438">
-        <v>90</v>
+        <v>183</v>
       </c>
     </row>
     <row r="439">
       <c r="A439">
-        <v>1074</v>
+        <v>1080</v>
       </c>
       <c r="B439" t="inlineStr">
         <is>
-          <t>Serious Infection</t>
+          <t>Guillain Barre Syndrome</t>
         </is>
       </c>
       <c r="C439">
-        <v>90</v>
+        <v>365</v>
       </c>
     </row>
     <row r="440">
       <c r="A440">
-        <v>1075</v>
+        <v>1081</v>
       </c>
       <c r="B440" t="inlineStr">
         <is>
-          <t>Narcolepsy</t>
+          <t>Acute Myocardial Infarction including its complications</t>
         </is>
       </c>
       <c r="C440">
@@ -6119,63 +6119,63 @@
     </row>
     <row r="441">
       <c r="A441">
-        <v>1076</v>
+        <v>1082</v>
       </c>
       <c r="B441" t="inlineStr">
         <is>
-          <t>Anaphylaxis</t>
+          <t>Myocarditis Pericarditis</t>
         </is>
       </c>
       <c r="C441">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="442">
       <c r="A442">
-        <v>1077</v>
+        <v>1083</v>
       </c>
       <c r="B442" t="inlineStr">
         <is>
-          <t>Anaphylaxis v2</t>
+          <t>Immune Thrombocytopenia (ITP)</t>
         </is>
       </c>
       <c r="C442">
-        <v>30</v>
+        <v>365</v>
       </c>
     </row>
     <row r="443">
       <c r="A443">
-        <v>1078</v>
+        <v>1084</v>
       </c>
       <c r="B443" t="inlineStr">
         <is>
-          <t>Bells Palsy</t>
+          <t>Disseminated Intravascular Coagulation</t>
         </is>
       </c>
       <c r="C443">
-        <v>183</v>
+        <v>365</v>
       </c>
     </row>
     <row r="444">
       <c r="A444">
-        <v>1079</v>
+        <v>1085</v>
       </c>
       <c r="B444" t="inlineStr">
         <is>
-          <t>Encephalomyelitis</t>
+          <t>Appendicitis</t>
         </is>
       </c>
       <c r="C444">
-        <v>183</v>
+        <v>365</v>
       </c>
     </row>
     <row r="445">
       <c r="A445">
-        <v>1080</v>
+        <v>1086</v>
       </c>
       <c r="B445" t="inlineStr">
         <is>
-          <t>Guillain Barre Syndrome</t>
+          <t>Transverse Myelitis</t>
         </is>
       </c>
       <c r="C445">
@@ -6184,11 +6184,11 @@
     </row>
     <row r="446">
       <c r="A446">
-        <v>1081</v>
+        <v>1087</v>
       </c>
       <c r="B446" t="inlineStr">
         <is>
-          <t>Acute Myocardial Infarction including its complications</t>
+          <t>Hemorrhagic Stroke</t>
         </is>
       </c>
       <c r="C446">
@@ -6197,11 +6197,11 @@
     </row>
     <row r="447">
       <c r="A447">
-        <v>1082</v>
+        <v>1088</v>
       </c>
       <c r="B447" t="inlineStr">
         <is>
-          <t>Myocarditis Pericarditis</t>
+          <t>Deep Vein Thrombosis (DVT)</t>
         </is>
       </c>
       <c r="C447">
@@ -6210,11 +6210,11 @@
     </row>
     <row r="448">
       <c r="A448">
-        <v>1083</v>
+        <v>1089</v>
       </c>
       <c r="B448" t="inlineStr">
         <is>
-          <t>Immune Thrombocytopenia (ITP)</t>
+          <t>Non-hemorrhagic Stroke</t>
         </is>
       </c>
       <c r="C448">
@@ -6223,11 +6223,11 @@
     </row>
     <row r="449">
       <c r="A449">
-        <v>1084</v>
+        <v>1090</v>
       </c>
       <c r="B449" t="inlineStr">
         <is>
-          <t>Disseminated Intravascular Coagulation</t>
+          <t>Pulmonary Embolism</t>
         </is>
       </c>
       <c r="C449">
@@ -6236,11 +6236,11 @@
     </row>
     <row r="450">
       <c r="A450">
-        <v>1085</v>
+        <v>1091</v>
       </c>
       <c r="B450" t="inlineStr">
         <is>
-          <t>Appendicitis</t>
+          <t>Thrombosis with Thrombocytopenia (TWT)</t>
         </is>
       </c>
       <c r="C450">
@@ -6249,89 +6249,89 @@
     </row>
     <row r="451">
       <c r="A451">
-        <v>1086</v>
+        <v>1093</v>
       </c>
       <c r="B451" t="inlineStr">
         <is>
-          <t>Transverse Myelitis</t>
+          <t>Abdominal Aoritc Aneurysm repair - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C451">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="452">
       <c r="A452">
-        <v>1087</v>
+        <v>1094</v>
       </c>
       <c r="B452" t="inlineStr">
         <is>
-          <t>Hemorrhagic Stroke</t>
+          <t>Lower Extremity Bypass - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C452">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="453">
       <c r="A453">
-        <v>1088</v>
+        <v>1095</v>
       </c>
       <c r="B453" t="inlineStr">
         <is>
-          <t>Deep Vein Thrombosis (DVT)</t>
+          <t>Carotid Endarterectomy - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C453">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="454">
       <c r="A454">
-        <v>1089</v>
+        <v>1096</v>
       </c>
       <c r="B454" t="inlineStr">
         <is>
-          <t>Non-hemorrhagic Stroke</t>
+          <t>Lung Resection - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C454">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="455">
       <c r="A455">
-        <v>1090</v>
+        <v>1097</v>
       </c>
       <c r="B455" t="inlineStr">
         <is>
-          <t>Pulmonary Embolism</t>
+          <t>Esophagectomy - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C455">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="456">
       <c r="A456">
-        <v>1091</v>
+        <v>1098</v>
       </c>
       <c r="B456" t="inlineStr">
         <is>
-          <t>Thrombosis with Thrombocytopenia (TWT)</t>
+          <t>Pancreatectomy - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C456">
-        <v>365</v>
+        <v>0</v>
       </c>
     </row>
     <row r="457">
       <c r="A457">
-        <v>1093</v>
+        <v>1099</v>
       </c>
       <c r="B457" t="inlineStr">
         <is>
-          <t>Abdominal Aoritc Aneurysm repair - post op new Afib (any)</t>
+          <t>Colectomy - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C457">
@@ -6340,11 +6340,11 @@
     </row>
     <row r="458">
       <c r="A458">
-        <v>1094</v>
+        <v>1100</v>
       </c>
       <c r="B458" t="inlineStr">
         <is>
-          <t>Lower Extremity Bypass - post op new Afib (any)</t>
+          <t>Cystectomy - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C458">
@@ -6353,11 +6353,11 @@
     </row>
     <row r="459">
       <c r="A459">
-        <v>1095</v>
+        <v>1101</v>
       </c>
       <c r="B459" t="inlineStr">
         <is>
-          <t>Carotid Endarterectomy - post op new Afib (any)</t>
+          <t>Nephrectomy - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C459">
@@ -6366,11 +6366,11 @@
     </row>
     <row r="460">
       <c r="A460">
-        <v>1096</v>
+        <v>1102</v>
       </c>
       <c r="B460" t="inlineStr">
         <is>
-          <t>Lung Resection - post op new Afib (any)</t>
+          <t>Coronary Artery Bypass Graft Surgery - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C460">
@@ -6379,11 +6379,11 @@
     </row>
     <row r="461">
       <c r="A461">
-        <v>1097</v>
+        <v>1103</v>
       </c>
       <c r="B461" t="inlineStr">
         <is>
-          <t>Esophagectomy - post op new Afib (any)</t>
+          <t>Aortic or Mitral Valve Repair or Replacement - post op new Afib (any)</t>
         </is>
       </c>
       <c r="C461">
@@ -6392,11 +6392,11 @@
     </row>
     <row r="462">
       <c r="A462">
-        <v>1098</v>
+        <v>1104</v>
       </c>
       <c r="B462" t="inlineStr">
         <is>
-          <t>Pancreatectomy - post op new Afib (any)</t>
+          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
         </is>
       </c>
       <c r="C462">
@@ -6405,11 +6405,11 @@
     </row>
     <row r="463">
       <c r="A463">
-        <v>1099</v>
+        <v>1105</v>
       </c>
       <c r="B463" t="inlineStr">
         <is>
-          <t>Colectomy - post op new Afib (any)</t>
+          <t>Clostridium difficile - first episode</t>
         </is>
       </c>
       <c r="C463">
@@ -6418,92 +6418,14 @@
     </row>
     <row r="464">
       <c r="A464">
-        <v>1100</v>
+        <v>1106</v>
       </c>
       <c r="B464" t="inlineStr">
         <is>
-          <t>Cystectomy - post op new Afib (any)</t>
+          <t>Non-Emergent Major Non Cardiac Surgery no prior Opioid</t>
         </is>
       </c>
       <c r="C464">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465">
-        <v>1101</v>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>Nephrectomy - post op new Afib (any)</t>
-        </is>
-      </c>
-      <c r="C465">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466">
-        <v>1102</v>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>Coronary Artery Bypass Graft Surgery - post op new Afib (any)</t>
-        </is>
-      </c>
-      <c r="C466">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467">
-        <v>1103</v>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>Aortic or Mitral Valve Repair or Replacement - post op new Afib (any)</t>
-        </is>
-      </c>
-      <c r="C467">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468">
-        <v>1104</v>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>RBC Transfusion (adult relevant, no auto 1yr clean window)</t>
-        </is>
-      </c>
-      <c r="C468">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469">
-        <v>1105</v>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>Clostridium difficile - first episode</t>
-        </is>
-      </c>
-      <c r="C469">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470">
-        <v>1106</v>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>Non-Emergent Major Non Cardiac Surgery no prior Opioid</t>
-        </is>
-      </c>
-      <c r="C470">
         <v>0</v>
       </c>
     </row>
